--- a/doc/simulation-transcripts/simulation reproduced.xlsx
+++ b/doc/simulation-transcripts/simulation reproduced.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28785" windowHeight="13140"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -84,10 +84,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -98,8 +98,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -113,21 +135,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -135,6 +151,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,17 +172,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,6 +192,14 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -205,38 +229,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,7 +251,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,13 +293,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,19 +359,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,115 +419,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,13 +431,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,6 +442,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -460,11 +469,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -480,15 +495,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,23 +517,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,10 +548,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -560,19 +560,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -581,112 +581,112 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2522,199 +2522,199 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>24</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>22</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>28</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>28</c:v>
-                </c:pt>
                 <c:pt idx="27">
-                  <c:v>28</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>26</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>29</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>29</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>30</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>28</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>26</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>27</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>28</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>28</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>28</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>27</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>30</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>26</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>29</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>28</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>26</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>26</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>25</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="46">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="47">
-                  <c:v>26</c:v>
-                </c:pt>
                 <c:pt idx="48">
-                  <c:v>26</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>25</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>27</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>25</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>25</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>21</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="54">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="55">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="55">
-                  <c:v>28</c:v>
-                </c:pt>
                 <c:pt idx="56">
-                  <c:v>21</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="57">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="58">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="58">
-                  <c:v>19</c:v>
-                </c:pt>
                 <c:pt idx="59">
-                  <c:v>20</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>20</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>18</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>18</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>19</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>20</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>19</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2762,193 +2762,193 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>33</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>38</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>38</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>32</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>35</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>40</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>40</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>39</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>37</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>40</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>42</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>40</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>42</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>40</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>41</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>38</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>41</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>40</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>42</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>38</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>42</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>40</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>42</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>43</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>44</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>43</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>42</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>43</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>44</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>41</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>47</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>38</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>44</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>44</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>42</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>37</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>42</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>42</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>44</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>41</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>43</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>42</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>43</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>37</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>39</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>38</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>40</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>42</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>41</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>33</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>31</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>41</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>30</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>30</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>25</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>20</c:v>
@@ -3724,8 +3724,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5092700" y="14125575"/>
-        <a:ext cx="15373350" cy="8089265"/>
+        <a:off x="1371600" y="14125575"/>
+        <a:ext cx="8769350" cy="8089265"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3998,16 +3998,16 @@
   <sheetPr/>
   <dimension ref="A1:X69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G31" workbookViewId="0">
-      <selection activeCell="U66" sqref="U66"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="AA86" sqref="AA86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="4" width="12.625"/>
-    <col min="5" max="13" width="9" customWidth="1"/>
-    <col min="14" max="14" width="19" customWidth="1"/>
-    <col min="15" max="15" width="10.25" customWidth="1"/>
+    <col min="3" max="4" width="12.625" hidden="1" customWidth="1"/>
+    <col min="5" max="13" width="9" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="19" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="10.25" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="17.625" customWidth="1"/>
     <col min="17" max="17" width="11.5" customWidth="1"/>
     <col min="18" max="18" width="11.75" customWidth="1"/>
@@ -4193,10 +4193,10 @@
         <v>17</v>
       </c>
       <c r="W3">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="X3">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -4252,10 +4252,10 @@
         <v>18</v>
       </c>
       <c r="W4">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="X4">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -4311,10 +4311,10 @@
         <v>17</v>
       </c>
       <c r="W5">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="X5">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -4370,10 +4370,10 @@
         <v>17</v>
       </c>
       <c r="W6">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="X6">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:24">
@@ -4429,10 +4429,10 @@
         <v>18</v>
       </c>
       <c r="W7">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="X7">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -4488,10 +4488,10 @@
         <v>18</v>
       </c>
       <c r="W8">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X8">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:24">
@@ -4547,10 +4547,10 @@
         <v>18</v>
       </c>
       <c r="W9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X9">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:24">
@@ -4606,10 +4606,10 @@
         <v>19</v>
       </c>
       <c r="W10">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X10">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:24">
@@ -4665,10 +4665,10 @@
         <v>17</v>
       </c>
       <c r="W11">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X11">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:24">
@@ -4724,10 +4724,10 @@
         <v>18</v>
       </c>
       <c r="W12">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="X12">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:24">
@@ -4786,7 +4786,7 @@
         <v>23</v>
       </c>
       <c r="X13">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:24">
@@ -4842,10 +4842,10 @@
         <v>18</v>
       </c>
       <c r="W14">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="X14">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:24">
@@ -4904,7 +4904,7 @@
         <v>23</v>
       </c>
       <c r="X15">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -4960,10 +4960,10 @@
         <v>18</v>
       </c>
       <c r="W16">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="X16">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:24">
@@ -5019,10 +5019,10 @@
         <v>18</v>
       </c>
       <c r="W17">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="X17">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:24">
@@ -5081,7 +5081,7 @@
         <v>23</v>
       </c>
       <c r="X18">
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:24">
@@ -5137,10 +5137,10 @@
         <v>19</v>
       </c>
       <c r="W19">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="X19">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:24">
@@ -5196,10 +5196,10 @@
         <v>20</v>
       </c>
       <c r="W20">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="X20">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:24">
@@ -5255,10 +5255,10 @@
         <v>18</v>
       </c>
       <c r="W21">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="X21">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:24">
@@ -5314,10 +5314,10 @@
         <v>18</v>
       </c>
       <c r="W22">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X22">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:24">
@@ -5373,10 +5373,10 @@
         <v>16</v>
       </c>
       <c r="W23">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="X23">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:24">
@@ -5432,10 +5432,10 @@
         <v>20</v>
       </c>
       <c r="W24">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="X24">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:24">
@@ -5491,10 +5491,10 @@
         <v>20</v>
       </c>
       <c r="W25">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="X25">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:24">
@@ -5550,10 +5550,10 @@
         <v>18</v>
       </c>
       <c r="W26">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="X26">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:24">
@@ -5609,10 +5609,10 @@
         <v>18</v>
       </c>
       <c r="W27">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X27">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:24">
@@ -5668,10 +5668,10 @@
         <v>18</v>
       </c>
       <c r="W28">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="X28">
-        <v>43</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:24">
@@ -5727,10 +5727,10 @@
         <v>17</v>
       </c>
       <c r="W29">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="X29">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:24">
@@ -5786,10 +5786,10 @@
         <v>18</v>
       </c>
       <c r="W30">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X30">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:24">
@@ -5845,10 +5845,10 @@
         <v>20</v>
       </c>
       <c r="W31">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="X31">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:24">
@@ -5904,10 +5904,10 @@
         <v>19</v>
       </c>
       <c r="W32">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="X32">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:24">
@@ -5963,10 +5963,10 @@
         <v>21</v>
       </c>
       <c r="W33">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="X33">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:24">
@@ -6022,10 +6022,10 @@
         <v>20</v>
       </c>
       <c r="W34">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="X34">
-        <v>43</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:24">
@@ -6081,10 +6081,10 @@
         <v>17</v>
       </c>
       <c r="W35">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="X35">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:24">
@@ -6140,10 +6140,10 @@
         <v>19</v>
       </c>
       <c r="W36">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="X36">
-        <v>43</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:24">
@@ -6199,10 +6199,10 @@
         <v>18</v>
       </c>
       <c r="W37">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="X37">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:24">
@@ -6258,10 +6258,10 @@
         <v>17</v>
       </c>
       <c r="W38">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="X38">
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:24">
@@ -6317,10 +6317,10 @@
         <v>17</v>
       </c>
       <c r="W39">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="X39">
-        <v>44</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:24">
@@ -6376,10 +6376,10 @@
         <v>18</v>
       </c>
       <c r="W40">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="X40">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:24">
@@ -6435,10 +6435,10 @@
         <v>19</v>
       </c>
       <c r="W41">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="X41">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:24">
@@ -6494,10 +6494,10 @@
         <v>18</v>
       </c>
       <c r="W42">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="X42">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:24">
@@ -6553,10 +6553,10 @@
         <v>17</v>
       </c>
       <c r="W43">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="X43">
-        <v>44</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:24">
@@ -6612,10 +6612,10 @@
         <v>19</v>
       </c>
       <c r="W44">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="X44">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:24">
@@ -6671,10 +6671,10 @@
         <v>20</v>
       </c>
       <c r="W45">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="X45">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:24">
@@ -6730,10 +6730,10 @@
         <v>22</v>
       </c>
       <c r="W46">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="X46">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:24">
@@ -6789,10 +6789,10 @@
         <v>18</v>
       </c>
       <c r="W47">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="X47">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:24">
@@ -6848,10 +6848,10 @@
         <v>17</v>
       </c>
       <c r="W48">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X48">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:24">
@@ -6907,10 +6907,10 @@
         <v>18</v>
       </c>
       <c r="W49">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X49">
-        <v>44</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:24">
@@ -6966,10 +6966,10 @@
         <v>19</v>
       </c>
       <c r="W50">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="X50">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:24">
@@ -7025,10 +7025,10 @@
         <v>18</v>
       </c>
       <c r="W51">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="X51">
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:24">
@@ -7084,10 +7084,10 @@
         <v>19</v>
       </c>
       <c r="W52">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="X52">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:24">
@@ -7143,10 +7143,10 @@
         <v>18</v>
       </c>
       <c r="W53">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="X53">
-        <v>43</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:24">
@@ -7202,10 +7202,10 @@
         <v>17</v>
       </c>
       <c r="W54">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="X54">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:24">
@@ -7261,10 +7261,10 @@
         <v>18</v>
       </c>
       <c r="W55">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X55">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:24">
@@ -7320,10 +7320,10 @@
         <v>17</v>
       </c>
       <c r="W56">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X56">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:24">
@@ -7379,10 +7379,10 @@
         <v>21</v>
       </c>
       <c r="W57">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="X57">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:24">
@@ -7438,10 +7438,10 @@
         <v>18</v>
       </c>
       <c r="W58">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X58">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:24">
@@ -7497,10 +7497,10 @@
         <v>18</v>
       </c>
       <c r="W59">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X59">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:24">
@@ -7556,10 +7556,10 @@
         <v>17</v>
       </c>
       <c r="W60">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="X60">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:24">
@@ -7615,10 +7615,10 @@
         <v>17</v>
       </c>
       <c r="W61">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="X61">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:24">
@@ -7674,10 +7674,10 @@
         <v>16</v>
       </c>
       <c r="W62">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="X62">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" spans="1:24">
@@ -7733,10 +7733,10 @@
         <v>18</v>
       </c>
       <c r="W63">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="X63">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64" spans="1:24">
@@ -7792,10 +7792,10 @@
         <v>17</v>
       </c>
       <c r="W64">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="X64">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65" spans="1:24">
@@ -7851,10 +7851,10 @@
         <v>19</v>
       </c>
       <c r="W65">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="X65">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" spans="1:24">
@@ -7910,7 +7910,7 @@
         <v>20</v>
       </c>
       <c r="W66">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="X66">
         <v>20</v>
@@ -7969,7 +7969,7 @@
         <v>18</v>
       </c>
       <c r="W67">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="X67">
         <v>18</v>
@@ -8045,11 +8045,11 @@
       </c>
       <c r="W69">
         <f t="shared" si="1"/>
-        <v>24.1846153846154</v>
+        <v>22.7076923076923</v>
       </c>
       <c r="X69">
         <f t="shared" si="1"/>
-        <v>37.7692307692308</v>
+        <v>19.5076923076923</v>
       </c>
     </row>
   </sheetData>

--- a/doc/simulation-transcripts/simulation reproduced.xlsx
+++ b/doc/simulation-transcripts/simulation reproduced.xlsx
@@ -84,10 +84,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -95,14 +95,6 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -128,9 +120,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -143,14 +150,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,14 +180,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -195,27 +195,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -229,7 +213,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,6 +229,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,13 +251,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,31 +341,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,133 +425,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,17 +469,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,6 +504,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -514,31 +528,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,10 +548,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -560,34 +560,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -596,97 +596,97 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3724,8 +3724,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1371600" y="14125575"/>
-        <a:ext cx="8769350" cy="8089265"/>
+        <a:off x="5092700" y="14125575"/>
+        <a:ext cx="15373350" cy="8089265"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3998,16 +3998,16 @@
   <sheetPr/>
   <dimension ref="A1:X69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="AA86" sqref="AA86"/>
+    <sheetView tabSelected="1" topLeftCell="F34" workbookViewId="0">
+      <selection activeCell="K60" sqref="K60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="4" width="12.625" hidden="1" customWidth="1"/>
-    <col min="5" max="13" width="9" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="19" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="10.25" hidden="1" customWidth="1"/>
+    <col min="3" max="4" width="12.625" customWidth="1"/>
+    <col min="5" max="13" width="9" customWidth="1"/>
+    <col min="14" max="14" width="19" customWidth="1"/>
+    <col min="15" max="15" width="10.25" customWidth="1"/>
     <col min="16" max="16" width="17.625" customWidth="1"/>
     <col min="17" max="17" width="11.5" customWidth="1"/>
     <col min="18" max="18" width="11.75" customWidth="1"/>

--- a/doc/simulation-transcripts/simulation reproduced.xlsx
+++ b/doc/simulation-transcripts/simulation reproduced.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>index</t>
   </si>
@@ -103,6 +103,9 @@
     <t>ver4_66</t>
   </si>
   <si>
+    <t>buf_fix_3</t>
+  </si>
+  <si>
     <t>Average</t>
   </si>
 </sst>
@@ -111,10 +114,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -122,20 +125,6 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -148,10 +137,56 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -169,14 +204,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -185,24 +212,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,21 +221,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -240,23 +244,22 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,19 +281,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,13 +317,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,7 +341,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,19 +377,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,37 +401,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,13 +419,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,31 +455,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,26 +490,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,6 +510,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,8 +540,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -553,19 +552,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,10 +578,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -587,141 +590,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -841,7 +841,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>Version 2(HC’s with seeker steps 1)</a:t>
+              <a:t>Version 3(HC’s with seeker steps 1)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" altLang="zh-CN"/>
           </a:p>
@@ -5152,7 +5152,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>Version 3(HC’s with seeker steps N)</a:t>
+              <a:t>Version 4(HC’s with seeker steps N)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" altLang="zh-CN"/>
           </a:p>
@@ -8945,7 +8945,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="24747220" y="13859510"/>
-        <a:ext cx="12853035" cy="7479665"/>
+        <a:ext cx="13129260" cy="7479665"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9276,10 +9276,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AJ69"/>
+  <dimension ref="A1:AL69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="U120" sqref="U120"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -9301,9 +9301,10 @@
     <col min="29" max="29" width="12.125" customWidth="1"/>
     <col min="32" max="32" width="10" customWidth="1"/>
     <col min="33" max="33" width="9.28333333333333" customWidth="1"/>
+    <col min="36" max="36" width="12.625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:38">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9391,8 +9392,11 @@
       <c r="AJ1" t="s">
         <v>28</v>
       </c>
+      <c r="AL1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:38">
       <c r="A2">
         <v>0</v>
       </c>
@@ -9453,32 +9457,35 @@
       <c r="AA2">
         <v>0</v>
       </c>
-      <c r="AC2" s="2">
+      <c r="AC2" s="1">
         <v>0</v>
       </c>
-      <c r="AD2" s="2">
+      <c r="AD2" s="1">
         <v>0</v>
       </c>
-      <c r="AE2" s="2">
+      <c r="AE2" s="1">
         <v>0</v>
       </c>
-      <c r="AF2" s="2">
+      <c r="AF2" s="1">
         <v>0</v>
       </c>
-      <c r="AG2" s="2">
+      <c r="AG2" s="1">
         <v>0</v>
       </c>
-      <c r="AH2" s="2">
+      <c r="AH2" s="1">
         <v>0</v>
       </c>
-      <c r="AI2" s="2">
+      <c r="AI2" s="1">
         <v>0</v>
       </c>
       <c r="AJ2">
         <v>0</v>
       </c>
+      <c r="AL2" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:38">
       <c r="A3">
         <v>1</v>
       </c>
@@ -9539,32 +9546,35 @@
       <c r="AA3">
         <v>12</v>
       </c>
-      <c r="AC3" s="2">
-        <v>21</v>
-      </c>
-      <c r="AD3" s="2">
+      <c r="AC3" s="1">
+        <v>21</v>
+      </c>
+      <c r="AD3" s="1">
         <v>36</v>
       </c>
-      <c r="AE3" s="2">
+      <c r="AE3" s="1">
         <v>30</v>
       </c>
-      <c r="AF3" s="2">
+      <c r="AF3" s="1">
         <v>25</v>
       </c>
-      <c r="AG3" s="2">
+      <c r="AG3" s="1">
         <v>22</v>
       </c>
-      <c r="AH3" s="2">
-        <v>20</v>
-      </c>
-      <c r="AI3" s="2">
+      <c r="AH3" s="1">
+        <v>20</v>
+      </c>
+      <c r="AI3" s="1">
         <v>20</v>
       </c>
       <c r="AJ3">
         <v>19</v>
       </c>
+      <c r="AL3" s="1">
+        <v>31</v>
+      </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:38">
       <c r="A4">
         <v>2</v>
       </c>
@@ -9625,32 +9635,35 @@
       <c r="AA4">
         <v>14</v>
       </c>
-      <c r="AC4" s="2">
+      <c r="AC4" s="1">
         <v>23</v>
       </c>
-      <c r="AD4" s="2">
-        <v>21</v>
-      </c>
-      <c r="AE4" s="2">
+      <c r="AD4" s="1">
+        <v>21</v>
+      </c>
+      <c r="AE4" s="1">
         <v>32</v>
       </c>
-      <c r="AF4" s="2">
+      <c r="AF4" s="1">
         <v>27</v>
       </c>
-      <c r="AG4" s="2">
+      <c r="AG4" s="1">
         <v>22</v>
       </c>
-      <c r="AH4" s="2">
-        <v>21</v>
-      </c>
-      <c r="AI4" s="2">
+      <c r="AH4" s="1">
+        <v>21</v>
+      </c>
+      <c r="AI4" s="1">
         <v>20</v>
       </c>
       <c r="AJ4">
         <v>20</v>
       </c>
+      <c r="AL4" s="1">
+        <v>33</v>
+      </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:38">
       <c r="A5">
         <v>3</v>
       </c>
@@ -9711,32 +9724,35 @@
       <c r="AA5">
         <v>14</v>
       </c>
-      <c r="AC5" s="2">
+      <c r="AC5" s="1">
         <v>23</v>
       </c>
-      <c r="AD5" s="2">
+      <c r="AD5" s="1">
         <v>37</v>
       </c>
-      <c r="AE5" s="2">
-        <v>21</v>
-      </c>
-      <c r="AF5" s="2">
+      <c r="AE5" s="1">
+        <v>21</v>
+      </c>
+      <c r="AF5" s="1">
         <v>24</v>
       </c>
-      <c r="AG5" s="2">
+      <c r="AG5" s="1">
         <v>22</v>
       </c>
-      <c r="AH5" s="2">
-        <v>21</v>
-      </c>
-      <c r="AI5" s="2">
+      <c r="AH5" s="1">
+        <v>21</v>
+      </c>
+      <c r="AI5" s="1">
         <v>20</v>
       </c>
       <c r="AJ5">
         <v>19</v>
       </c>
+      <c r="AL5" s="1">
+        <v>22</v>
+      </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:38">
       <c r="A6">
         <v>4</v>
       </c>
@@ -9797,32 +9813,35 @@
       <c r="AA6">
         <v>15</v>
       </c>
-      <c r="AC6" s="2">
+      <c r="AC6" s="1">
         <v>24</v>
       </c>
-      <c r="AD6" s="2">
+      <c r="AD6" s="1">
         <v>22</v>
       </c>
-      <c r="AE6" s="2">
+      <c r="AE6" s="1">
         <v>31</v>
       </c>
-      <c r="AF6" s="2">
+      <c r="AF6" s="1">
         <v>24</v>
       </c>
-      <c r="AG6" s="2">
+      <c r="AG6" s="1">
         <v>22</v>
       </c>
-      <c r="AH6" s="2">
-        <v>20</v>
-      </c>
-      <c r="AI6" s="2">
+      <c r="AH6" s="1">
+        <v>20</v>
+      </c>
+      <c r="AI6" s="1">
         <v>20</v>
       </c>
       <c r="AJ6">
         <v>19</v>
       </c>
+      <c r="AL6" s="1">
+        <v>32</v>
+      </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:38">
       <c r="A7">
         <v>5</v>
       </c>
@@ -9883,32 +9902,35 @@
       <c r="AA7">
         <v>15</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AC7" s="1">
         <v>26</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AD7" s="1">
         <v>36</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AE7" s="1">
         <v>32</v>
       </c>
-      <c r="AF7" s="2">
+      <c r="AF7" s="1">
         <v>25</v>
       </c>
-      <c r="AG7" s="2">
+      <c r="AG7" s="1">
         <v>22</v>
       </c>
-      <c r="AH7" s="2">
-        <v>20</v>
-      </c>
-      <c r="AI7" s="2">
+      <c r="AH7" s="1">
+        <v>20</v>
+      </c>
+      <c r="AI7" s="1">
         <v>20</v>
       </c>
       <c r="AJ7">
         <v>19</v>
       </c>
+      <c r="AL7" s="1">
+        <v>33</v>
+      </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:38">
       <c r="A8">
         <v>6</v>
       </c>
@@ -9969,32 +9991,35 @@
       <c r="AA8">
         <v>15</v>
       </c>
-      <c r="AC8" s="2">
+      <c r="AC8" s="1">
         <v>27</v>
       </c>
-      <c r="AD8" s="2">
+      <c r="AD8" s="1">
         <v>24</v>
       </c>
-      <c r="AE8" s="2">
+      <c r="AE8" s="1">
         <v>23</v>
       </c>
-      <c r="AF8" s="2">
+      <c r="AF8" s="1">
         <v>22</v>
       </c>
-      <c r="AG8" s="2">
+      <c r="AG8" s="1">
         <v>23</v>
       </c>
-      <c r="AH8" s="2">
-        <v>21</v>
-      </c>
-      <c r="AI8" s="2">
+      <c r="AH8" s="1">
+        <v>21</v>
+      </c>
+      <c r="AI8" s="1">
         <v>20</v>
       </c>
       <c r="AJ8">
         <v>20</v>
       </c>
+      <c r="AL8" s="1">
+        <v>24</v>
+      </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:38">
       <c r="A9">
         <v>7</v>
       </c>
@@ -10055,32 +10080,35 @@
       <c r="AA9">
         <v>16</v>
       </c>
-      <c r="AC9" s="2">
+      <c r="AC9" s="1">
         <v>28</v>
       </c>
-      <c r="AD9" s="2">
+      <c r="AD9" s="1">
         <v>37</v>
       </c>
-      <c r="AE9" s="2">
+      <c r="AE9" s="1">
         <v>30</v>
       </c>
-      <c r="AF9" s="2">
+      <c r="AF9" s="1">
         <v>26</v>
       </c>
-      <c r="AG9" s="2">
+      <c r="AG9" s="1">
         <v>22</v>
       </c>
-      <c r="AH9" s="2">
-        <v>21</v>
-      </c>
-      <c r="AI9" s="2">
+      <c r="AH9" s="1">
+        <v>21</v>
+      </c>
+      <c r="AI9" s="1">
         <v>21</v>
       </c>
       <c r="AJ9">
         <v>20</v>
       </c>
+      <c r="AL9" s="1">
+        <v>31</v>
+      </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:38">
       <c r="A10">
         <v>8</v>
       </c>
@@ -10141,32 +10169,35 @@
       <c r="AA10">
         <v>16</v>
       </c>
-      <c r="AC10" s="2">
+      <c r="AC10" s="1">
         <v>29</v>
       </c>
-      <c r="AD10" s="2">
+      <c r="AD10" s="1">
         <v>25</v>
       </c>
-      <c r="AE10" s="2">
+      <c r="AE10" s="1">
         <v>31</v>
       </c>
-      <c r="AF10" s="2">
+      <c r="AF10" s="1">
         <v>26</v>
       </c>
-      <c r="AG10" s="2">
+      <c r="AG10" s="1">
         <v>23</v>
       </c>
-      <c r="AH10" s="2">
-        <v>21</v>
-      </c>
-      <c r="AI10" s="2">
+      <c r="AH10" s="1">
+        <v>21</v>
+      </c>
+      <c r="AI10" s="1">
         <v>20</v>
       </c>
       <c r="AJ10">
         <v>20</v>
       </c>
+      <c r="AL10" s="1">
+        <v>32</v>
+      </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:38">
       <c r="A11">
         <v>9</v>
       </c>
@@ -10227,32 +10258,35 @@
       <c r="AA11">
         <v>15</v>
       </c>
-      <c r="AC11" s="2">
+      <c r="AC11" s="1">
         <v>30</v>
       </c>
-      <c r="AD11" s="2">
+      <c r="AD11" s="1">
         <v>37</v>
       </c>
-      <c r="AE11" s="2">
+      <c r="AE11" s="1">
         <v>24</v>
       </c>
-      <c r="AF11" s="2">
+      <c r="AF11" s="1">
         <v>25</v>
       </c>
-      <c r="AG11" s="2">
+      <c r="AG11" s="1">
         <v>23</v>
       </c>
-      <c r="AH11" s="2">
-        <v>20</v>
-      </c>
-      <c r="AI11" s="2">
+      <c r="AH11" s="1">
+        <v>20</v>
+      </c>
+      <c r="AI11" s="1">
         <v>20</v>
       </c>
       <c r="AJ11">
         <v>19</v>
       </c>
+      <c r="AL11" s="1">
+        <v>25</v>
+      </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:38">
       <c r="A12">
         <v>10</v>
       </c>
@@ -10313,32 +10347,35 @@
       <c r="AA12">
         <v>16</v>
       </c>
-      <c r="AC12" s="2">
+      <c r="AC12" s="1">
         <v>31</v>
       </c>
-      <c r="AD12" s="2">
+      <c r="AD12" s="1">
         <v>25</v>
       </c>
-      <c r="AE12" s="2">
+      <c r="AE12" s="1">
         <v>31</v>
       </c>
-      <c r="AF12" s="2">
+      <c r="AF12" s="1">
         <v>25</v>
       </c>
-      <c r="AG12" s="2">
+      <c r="AG12" s="1">
         <v>24</v>
       </c>
-      <c r="AH12" s="2">
-        <v>21</v>
-      </c>
-      <c r="AI12" s="2">
+      <c r="AH12" s="1">
+        <v>21</v>
+      </c>
+      <c r="AI12" s="1">
         <v>20</v>
       </c>
       <c r="AJ12">
         <v>20</v>
       </c>
+      <c r="AL12" s="1">
+        <v>32</v>
+      </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:38">
       <c r="A13">
         <v>11</v>
       </c>
@@ -10399,32 +10436,35 @@
       <c r="AA13">
         <v>15</v>
       </c>
-      <c r="AC13" s="2">
+      <c r="AC13" s="1">
         <v>32</v>
       </c>
-      <c r="AD13" s="2">
+      <c r="AD13" s="1">
         <v>35</v>
       </c>
-      <c r="AE13" s="2">
+      <c r="AE13" s="1">
         <v>30</v>
       </c>
-      <c r="AF13" s="2">
+      <c r="AF13" s="1">
         <v>25</v>
       </c>
-      <c r="AG13" s="2">
+      <c r="AG13" s="1">
         <v>22</v>
       </c>
-      <c r="AH13" s="2">
-        <v>21</v>
-      </c>
-      <c r="AI13" s="2">
+      <c r="AH13" s="1">
+        <v>21</v>
+      </c>
+      <c r="AI13" s="1">
         <v>21</v>
       </c>
       <c r="AJ13">
         <v>20</v>
       </c>
+      <c r="AL13" s="1">
+        <v>31</v>
+      </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:38">
       <c r="A14">
         <v>12</v>
       </c>
@@ -10485,32 +10525,35 @@
       <c r="AA14">
         <v>15</v>
       </c>
-      <c r="AC14" s="2">
+      <c r="AC14" s="1">
         <v>33</v>
       </c>
-      <c r="AD14" s="2">
+      <c r="AD14" s="1">
         <v>27</v>
       </c>
-      <c r="AE14" s="2">
+      <c r="AE14" s="1">
         <v>24</v>
       </c>
-      <c r="AF14" s="2">
+      <c r="AF14" s="1">
         <v>23</v>
       </c>
-      <c r="AG14" s="2">
+      <c r="AG14" s="1">
         <v>23</v>
       </c>
-      <c r="AH14" s="2">
-        <v>21</v>
-      </c>
-      <c r="AI14" s="2">
+      <c r="AH14" s="1">
+        <v>21</v>
+      </c>
+      <c r="AI14" s="1">
         <v>20</v>
       </c>
       <c r="AJ14">
         <v>19</v>
       </c>
+      <c r="AL14" s="1">
+        <v>25</v>
+      </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:38">
       <c r="A15">
         <v>13</v>
       </c>
@@ -10571,32 +10614,35 @@
       <c r="AA15">
         <v>16</v>
       </c>
-      <c r="AC15" s="2">
+      <c r="AC15" s="1">
         <v>33</v>
       </c>
-      <c r="AD15" s="2">
+      <c r="AD15" s="1">
         <v>37</v>
       </c>
-      <c r="AE15" s="2">
+      <c r="AE15" s="1">
         <v>30</v>
       </c>
-      <c r="AF15" s="2">
+      <c r="AF15" s="1">
         <v>25</v>
       </c>
-      <c r="AG15" s="2">
+      <c r="AG15" s="1">
         <v>22</v>
       </c>
-      <c r="AH15" s="2">
-        <v>20</v>
-      </c>
-      <c r="AI15" s="2">
+      <c r="AH15" s="1">
+        <v>20</v>
+      </c>
+      <c r="AI15" s="1">
         <v>20</v>
       </c>
       <c r="AJ15">
         <v>19</v>
       </c>
+      <c r="AL15" s="1">
+        <v>31</v>
+      </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:38">
       <c r="A16">
         <v>14</v>
       </c>
@@ -10657,32 +10703,35 @@
       <c r="AA16">
         <v>15</v>
       </c>
-      <c r="AC16" s="2">
+      <c r="AC16" s="1">
         <v>35</v>
       </c>
-      <c r="AD16" s="2">
+      <c r="AD16" s="1">
         <v>28</v>
       </c>
-      <c r="AE16" s="2">
+      <c r="AE16" s="1">
         <v>31</v>
       </c>
-      <c r="AF16" s="2">
+      <c r="AF16" s="1">
         <v>25</v>
       </c>
-      <c r="AG16" s="2">
+      <c r="AG16" s="1">
         <v>22</v>
       </c>
-      <c r="AH16" s="2">
-        <v>21</v>
-      </c>
-      <c r="AI16" s="2">
+      <c r="AH16" s="1">
+        <v>21</v>
+      </c>
+      <c r="AI16" s="1">
         <v>20</v>
       </c>
       <c r="AJ16">
         <v>19</v>
       </c>
+      <c r="AL16" s="1">
+        <v>32</v>
+      </c>
     </row>
-    <row r="17" spans="1:36">
+    <row r="17" spans="1:38">
       <c r="A17">
         <v>15</v>
       </c>
@@ -10743,32 +10792,35 @@
       <c r="AA17">
         <v>15</v>
       </c>
-      <c r="AC17" s="2">
+      <c r="AC17" s="1">
         <v>35</v>
       </c>
-      <c r="AD17" s="2">
+      <c r="AD17" s="1">
         <v>36</v>
       </c>
-      <c r="AE17" s="2">
+      <c r="AE17" s="1">
         <v>25</v>
       </c>
-      <c r="AF17" s="2">
+      <c r="AF17" s="1">
         <v>26</v>
       </c>
-      <c r="AG17" s="2">
+      <c r="AG17" s="1">
         <v>23</v>
       </c>
-      <c r="AH17" s="2">
-        <v>20</v>
-      </c>
-      <c r="AI17" s="2">
+      <c r="AH17" s="1">
+        <v>20</v>
+      </c>
+      <c r="AI17" s="1">
         <v>20</v>
       </c>
       <c r="AJ17">
         <v>19</v>
       </c>
+      <c r="AL17" s="1">
+        <v>26</v>
+      </c>
     </row>
-    <row r="18" spans="1:36">
+    <row r="18" spans="1:38">
       <c r="A18">
         <v>16</v>
       </c>
@@ -10829,32 +10881,35 @@
       <c r="AA18">
         <v>16</v>
       </c>
-      <c r="AC18" s="2">
+      <c r="AC18" s="1">
         <v>37</v>
       </c>
-      <c r="AD18" s="2">
+      <c r="AD18" s="1">
         <v>29</v>
       </c>
-      <c r="AE18" s="2">
+      <c r="AE18" s="1">
         <v>32</v>
       </c>
-      <c r="AF18" s="2">
+      <c r="AF18" s="1">
         <v>25</v>
       </c>
-      <c r="AG18" s="2">
+      <c r="AG18" s="1">
         <v>22</v>
       </c>
-      <c r="AH18" s="2">
-        <v>21</v>
-      </c>
-      <c r="AI18" s="2">
+      <c r="AH18" s="1">
+        <v>21</v>
+      </c>
+      <c r="AI18" s="1">
         <v>20</v>
       </c>
       <c r="AJ18">
         <v>20</v>
       </c>
+      <c r="AL18" s="1">
+        <v>33</v>
+      </c>
     </row>
-    <row r="19" spans="1:36">
+    <row r="19" spans="1:38">
       <c r="A19">
         <v>17</v>
       </c>
@@ -10915,32 +10970,35 @@
       <c r="AA19">
         <v>16</v>
       </c>
-      <c r="AC19" s="2">
+      <c r="AC19" s="1">
         <v>38</v>
       </c>
-      <c r="AD19" s="2">
+      <c r="AD19" s="1">
         <v>37</v>
       </c>
-      <c r="AE19" s="2">
+      <c r="AE19" s="1">
         <v>32</v>
       </c>
-      <c r="AF19" s="2">
+      <c r="AF19" s="1">
         <v>26</v>
       </c>
-      <c r="AG19" s="2">
+      <c r="AG19" s="1">
         <v>22</v>
       </c>
-      <c r="AH19" s="2">
-        <v>21</v>
-      </c>
-      <c r="AI19" s="2">
+      <c r="AH19" s="1">
+        <v>21</v>
+      </c>
+      <c r="AI19" s="1">
         <v>20</v>
       </c>
       <c r="AJ19">
         <v>19</v>
       </c>
+      <c r="AL19" s="1">
+        <v>33</v>
+      </c>
     </row>
-    <row r="20" spans="1:36">
+    <row r="20" spans="1:38">
       <c r="A20">
         <v>18</v>
       </c>
@@ -11001,32 +11059,35 @@
       <c r="AA20">
         <v>16</v>
       </c>
-      <c r="AC20" s="2">
+      <c r="AC20" s="1">
         <v>39</v>
       </c>
-      <c r="AD20" s="2">
+      <c r="AD20" s="1">
         <v>30</v>
       </c>
-      <c r="AE20" s="2">
+      <c r="AE20" s="1">
         <v>26</v>
       </c>
-      <c r="AF20" s="2">
+      <c r="AF20" s="1">
         <v>24</v>
       </c>
-      <c r="AG20" s="2">
+      <c r="AG20" s="1">
         <v>22</v>
       </c>
-      <c r="AH20" s="2">
-        <v>21</v>
-      </c>
-      <c r="AI20" s="2">
+      <c r="AH20" s="1">
+        <v>21</v>
+      </c>
+      <c r="AI20" s="1">
         <v>20</v>
       </c>
       <c r="AJ20">
         <v>20</v>
       </c>
+      <c r="AL20" s="1">
+        <v>27</v>
+      </c>
     </row>
-    <row r="21" spans="1:36">
+    <row r="21" spans="1:38">
       <c r="A21">
         <v>19</v>
       </c>
@@ -11087,32 +11148,35 @@
       <c r="AA21">
         <v>15</v>
       </c>
-      <c r="AC21" s="2">
+      <c r="AC21" s="1">
         <v>41</v>
       </c>
-      <c r="AD21" s="2">
+      <c r="AD21" s="1">
         <v>37</v>
       </c>
-      <c r="AE21" s="2">
+      <c r="AE21" s="1">
         <v>28</v>
       </c>
-      <c r="AF21" s="2">
+      <c r="AF21" s="1">
         <v>26</v>
       </c>
-      <c r="AG21" s="2">
+      <c r="AG21" s="1">
         <v>22</v>
       </c>
-      <c r="AH21" s="2">
-        <v>20</v>
-      </c>
-      <c r="AI21" s="2">
+      <c r="AH21" s="1">
+        <v>20</v>
+      </c>
+      <c r="AI21" s="1">
         <v>20</v>
       </c>
       <c r="AJ21">
         <v>19</v>
       </c>
+      <c r="AL21" s="1">
+        <v>29</v>
+      </c>
     </row>
-    <row r="22" spans="1:36">
+    <row r="22" spans="1:38">
       <c r="A22">
         <v>20</v>
       </c>
@@ -11173,32 +11237,35 @@
       <c r="AA22">
         <v>16</v>
       </c>
-      <c r="AC22" s="2">
+      <c r="AC22" s="1">
         <v>41</v>
       </c>
-      <c r="AD22" s="2">
+      <c r="AD22" s="1">
         <v>30</v>
       </c>
-      <c r="AE22" s="2">
+      <c r="AE22" s="1">
         <v>31</v>
       </c>
-      <c r="AF22" s="2">
+      <c r="AF22" s="1">
         <v>26</v>
       </c>
-      <c r="AG22" s="2">
+      <c r="AG22" s="1">
         <v>23</v>
       </c>
-      <c r="AH22" s="2">
-        <v>21</v>
-      </c>
-      <c r="AI22" s="2">
+      <c r="AH22" s="1">
+        <v>21</v>
+      </c>
+      <c r="AI22" s="1">
         <v>20</v>
       </c>
       <c r="AJ22">
         <v>19</v>
       </c>
+      <c r="AL22" s="1">
+        <v>32</v>
+      </c>
     </row>
-    <row r="23" spans="1:36">
+    <row r="23" spans="1:38">
       <c r="A23">
         <v>21</v>
       </c>
@@ -11259,32 +11326,35 @@
       <c r="AA23">
         <v>15</v>
       </c>
-      <c r="AC23" s="2">
+      <c r="AC23" s="1">
         <v>42</v>
       </c>
-      <c r="AD23" s="2">
+      <c r="AD23" s="1">
         <v>35</v>
       </c>
-      <c r="AE23" s="2">
+      <c r="AE23" s="1">
         <v>28</v>
       </c>
-      <c r="AF23" s="2">
+      <c r="AF23" s="1">
         <v>26</v>
       </c>
-      <c r="AG23" s="2">
+      <c r="AG23" s="1">
         <v>23</v>
       </c>
-      <c r="AH23" s="2">
-        <v>21</v>
-      </c>
-      <c r="AI23" s="2">
+      <c r="AH23" s="1">
+        <v>21</v>
+      </c>
+      <c r="AI23" s="1">
         <v>21</v>
       </c>
       <c r="AJ23">
         <v>20</v>
       </c>
+      <c r="AL23" s="1">
+        <v>29</v>
+      </c>
     </row>
-    <row r="24" spans="1:36">
+    <row r="24" spans="1:38">
       <c r="A24">
         <v>22</v>
       </c>
@@ -11345,32 +11415,35 @@
       <c r="AA24">
         <v>16</v>
       </c>
-      <c r="AC24" s="2">
+      <c r="AC24" s="1">
         <v>42</v>
       </c>
-      <c r="AD24" s="2">
+      <c r="AD24" s="1">
         <v>32</v>
       </c>
-      <c r="AE24" s="2">
+      <c r="AE24" s="1">
         <v>30</v>
       </c>
-      <c r="AF24" s="2">
+      <c r="AF24" s="1">
         <v>25</v>
       </c>
-      <c r="AG24" s="2">
+      <c r="AG24" s="1">
         <v>23</v>
       </c>
-      <c r="AH24" s="2">
+      <c r="AH24" s="1">
         <v>22</v>
       </c>
-      <c r="AI24" s="2">
+      <c r="AI24" s="1">
         <v>21</v>
       </c>
       <c r="AJ24">
         <v>20</v>
       </c>
+      <c r="AL24" s="1">
+        <v>31</v>
+      </c>
     </row>
-    <row r="25" spans="1:36">
+    <row r="25" spans="1:38">
       <c r="A25">
         <v>23</v>
       </c>
@@ -11431,32 +11504,35 @@
       <c r="AA25">
         <v>17</v>
       </c>
-      <c r="AC25" s="2">
+      <c r="AC25" s="1">
         <v>43</v>
       </c>
-      <c r="AD25" s="2">
+      <c r="AD25" s="1">
         <v>37</v>
       </c>
-      <c r="AE25" s="2">
+      <c r="AE25" s="1">
         <v>32</v>
       </c>
-      <c r="AF25" s="2">
+      <c r="AF25" s="1">
         <v>26</v>
       </c>
-      <c r="AG25" s="2">
+      <c r="AG25" s="1">
         <v>23</v>
       </c>
-      <c r="AH25" s="2">
-        <v>21</v>
-      </c>
-      <c r="AI25" s="2">
+      <c r="AH25" s="1">
+        <v>21</v>
+      </c>
+      <c r="AI25" s="1">
         <v>20</v>
       </c>
       <c r="AJ25">
         <v>19</v>
       </c>
+      <c r="AL25" s="1">
+        <v>33</v>
+      </c>
     </row>
-    <row r="26" spans="1:36">
+    <row r="26" spans="1:38">
       <c r="A26">
         <v>24</v>
       </c>
@@ -11517,32 +11593,35 @@
       <c r="AA26">
         <v>16</v>
       </c>
-      <c r="AC26" s="2">
+      <c r="AC26" s="1">
         <v>45</v>
       </c>
-      <c r="AD26" s="2">
+      <c r="AD26" s="1">
         <v>32</v>
       </c>
-      <c r="AE26" s="2">
+      <c r="AE26" s="1">
         <v>29</v>
       </c>
-      <c r="AF26" s="2">
+      <c r="AF26" s="1">
         <v>25</v>
       </c>
-      <c r="AG26" s="2">
+      <c r="AG26" s="1">
         <v>23</v>
       </c>
-      <c r="AH26" s="2">
-        <v>21</v>
-      </c>
-      <c r="AI26" s="2">
+      <c r="AH26" s="1">
+        <v>21</v>
+      </c>
+      <c r="AI26" s="1">
         <v>20</v>
       </c>
       <c r="AJ26">
         <v>19</v>
       </c>
+      <c r="AL26" s="1">
+        <v>30</v>
+      </c>
     </row>
-    <row r="27" spans="1:36">
+    <row r="27" spans="1:38">
       <c r="A27">
         <v>25</v>
       </c>
@@ -11603,32 +11682,35 @@
       <c r="AA27">
         <v>16</v>
       </c>
-      <c r="AC27" s="2">
+      <c r="AC27" s="1">
         <v>48</v>
       </c>
-      <c r="AD27" s="2">
+      <c r="AD27" s="1">
         <v>35</v>
       </c>
-      <c r="AE27" s="2">
+      <c r="AE27" s="1">
         <v>30</v>
       </c>
-      <c r="AF27" s="2">
+      <c r="AF27" s="1">
         <v>26</v>
       </c>
-      <c r="AG27" s="2">
+      <c r="AG27" s="1">
         <v>22</v>
       </c>
-      <c r="AH27" s="2">
-        <v>21</v>
-      </c>
-      <c r="AI27" s="2">
+      <c r="AH27" s="1">
+        <v>21</v>
+      </c>
+      <c r="AI27" s="1">
         <v>20</v>
       </c>
       <c r="AJ27">
         <v>19</v>
       </c>
+      <c r="AL27" s="1">
+        <v>31</v>
+      </c>
     </row>
-    <row r="28" spans="1:36">
+    <row r="28" spans="1:38">
       <c r="A28">
         <v>26</v>
       </c>
@@ -11689,32 +11771,35 @@
       <c r="AA28">
         <v>14</v>
       </c>
-      <c r="AC28" s="2">
+      <c r="AC28" s="1">
         <v>46</v>
       </c>
-      <c r="AD28" s="2">
+      <c r="AD28" s="1">
         <v>33</v>
       </c>
-      <c r="AE28" s="2">
+      <c r="AE28" s="1">
         <v>30</v>
       </c>
-      <c r="AF28" s="2">
+      <c r="AF28" s="1">
         <v>25</v>
       </c>
-      <c r="AG28" s="2">
+      <c r="AG28" s="1">
         <v>23</v>
       </c>
-      <c r="AH28" s="2">
-        <v>20</v>
-      </c>
-      <c r="AI28" s="2">
+      <c r="AH28" s="1">
+        <v>20</v>
+      </c>
+      <c r="AI28" s="1">
         <v>20</v>
       </c>
       <c r="AJ28">
         <v>19</v>
       </c>
+      <c r="AL28" s="1">
+        <v>31</v>
+      </c>
     </row>
-    <row r="29" spans="1:36">
+    <row r="29" spans="1:38">
       <c r="A29">
         <v>27</v>
       </c>
@@ -11775,32 +11860,35 @@
       <c r="AA29">
         <v>16</v>
       </c>
-      <c r="AC29" s="2">
+      <c r="AC29" s="1">
         <v>47</v>
       </c>
-      <c r="AD29" s="2">
+      <c r="AD29" s="1">
         <v>38</v>
       </c>
-      <c r="AE29" s="2">
+      <c r="AE29" s="1">
         <v>30</v>
       </c>
-      <c r="AF29" s="2">
+      <c r="AF29" s="1">
         <v>26</v>
       </c>
-      <c r="AG29" s="2">
+      <c r="AG29" s="1">
         <v>23</v>
       </c>
-      <c r="AH29" s="2">
-        <v>21</v>
-      </c>
-      <c r="AI29" s="2">
+      <c r="AH29" s="1">
+        <v>21</v>
+      </c>
+      <c r="AI29" s="1">
         <v>20</v>
       </c>
       <c r="AJ29">
         <v>19</v>
       </c>
+      <c r="AL29" s="1">
+        <v>31</v>
+      </c>
     </row>
-    <row r="30" spans="1:36">
+    <row r="30" spans="1:38">
       <c r="A30">
         <v>28</v>
       </c>
@@ -11861,32 +11949,35 @@
       <c r="AA30">
         <v>15</v>
       </c>
-      <c r="AC30" s="2">
+      <c r="AC30" s="1">
         <v>48</v>
       </c>
-      <c r="AD30" s="2">
+      <c r="AD30" s="1">
         <v>36</v>
       </c>
-      <c r="AE30" s="2">
+      <c r="AE30" s="1">
         <v>32</v>
       </c>
-      <c r="AF30" s="2">
+      <c r="AF30" s="1">
         <v>25</v>
       </c>
-      <c r="AG30" s="2">
+      <c r="AG30" s="1">
         <v>23</v>
       </c>
-      <c r="AH30" s="2">
-        <v>21</v>
-      </c>
-      <c r="AI30" s="2">
+      <c r="AH30" s="1">
+        <v>21</v>
+      </c>
+      <c r="AI30" s="1">
         <v>20</v>
       </c>
       <c r="AJ30">
         <v>20</v>
       </c>
+      <c r="AL30" s="1">
+        <v>33</v>
+      </c>
     </row>
-    <row r="31" spans="1:36">
+    <row r="31" spans="1:38">
       <c r="A31">
         <v>29</v>
       </c>
@@ -11947,32 +12038,35 @@
       <c r="AA31">
         <v>16</v>
       </c>
-      <c r="AC31" s="2">
+      <c r="AC31" s="1">
         <v>50</v>
       </c>
-      <c r="AD31" s="2">
+      <c r="AD31" s="1">
         <v>35</v>
       </c>
-      <c r="AE31" s="2">
+      <c r="AE31" s="1">
         <v>30</v>
       </c>
-      <c r="AF31" s="2">
+      <c r="AF31" s="1">
         <v>25</v>
       </c>
-      <c r="AG31" s="2">
+      <c r="AG31" s="1">
         <v>22</v>
       </c>
-      <c r="AH31" s="2">
-        <v>21</v>
-      </c>
-      <c r="AI31" s="2">
+      <c r="AH31" s="1">
+        <v>21</v>
+      </c>
+      <c r="AI31" s="1">
         <v>20</v>
       </c>
       <c r="AJ31">
         <v>19</v>
       </c>
+      <c r="AL31" s="1">
+        <v>31</v>
+      </c>
     </row>
-    <row r="32" spans="1:36">
+    <row r="32" spans="1:38">
       <c r="A32">
         <v>30</v>
       </c>
@@ -12033,32 +12127,35 @@
       <c r="AA32">
         <v>17</v>
       </c>
-      <c r="AC32" s="2">
+      <c r="AC32" s="1">
         <v>52</v>
       </c>
-      <c r="AD32" s="2">
+      <c r="AD32" s="1">
         <v>36</v>
       </c>
-      <c r="AE32" s="2">
+      <c r="AE32" s="1">
         <v>31</v>
       </c>
-      <c r="AF32" s="2">
+      <c r="AF32" s="1">
         <v>26</v>
       </c>
-      <c r="AG32" s="2">
+      <c r="AG32" s="1">
         <v>24</v>
       </c>
-      <c r="AH32" s="2">
-        <v>21</v>
-      </c>
-      <c r="AI32" s="2">
+      <c r="AH32" s="1">
+        <v>21</v>
+      </c>
+      <c r="AI32" s="1">
         <v>20</v>
       </c>
       <c r="AJ32">
         <v>20</v>
       </c>
+      <c r="AL32" s="1">
+        <v>32</v>
+      </c>
     </row>
-    <row r="33" spans="1:36">
+    <row r="33" spans="1:38">
       <c r="A33">
         <v>31</v>
       </c>
@@ -12119,32 +12216,35 @@
       <c r="AA33">
         <v>16</v>
       </c>
-      <c r="AC33" s="2">
+      <c r="AC33" s="1">
         <v>51</v>
       </c>
-      <c r="AD33" s="2">
+      <c r="AD33" s="1">
         <v>37</v>
       </c>
-      <c r="AE33" s="2">
+      <c r="AE33" s="1">
         <v>31</v>
       </c>
-      <c r="AF33" s="2">
+      <c r="AF33" s="1">
         <v>26</v>
       </c>
-      <c r="AG33" s="2">
+      <c r="AG33" s="1">
         <v>23</v>
       </c>
-      <c r="AH33" s="2">
-        <v>21</v>
-      </c>
-      <c r="AI33" s="2">
+      <c r="AH33" s="1">
+        <v>21</v>
+      </c>
+      <c r="AI33" s="1">
         <v>20</v>
       </c>
       <c r="AJ33">
         <v>19</v>
       </c>
+      <c r="AL33" s="1">
+        <v>32</v>
+      </c>
     </row>
-    <row r="34" spans="1:36">
+    <row r="34" spans="1:38">
       <c r="A34">
         <v>32</v>
       </c>
@@ -12205,32 +12305,35 @@
       <c r="AA34">
         <v>16</v>
       </c>
-      <c r="AC34" s="2">
+      <c r="AC34" s="1">
         <v>54</v>
       </c>
-      <c r="AD34" s="2">
+      <c r="AD34" s="1">
         <v>37</v>
       </c>
-      <c r="AE34" s="2">
+      <c r="AE34" s="1">
         <v>29</v>
       </c>
-      <c r="AF34" s="2">
+      <c r="AF34" s="1">
         <v>25</v>
       </c>
-      <c r="AG34" s="2">
+      <c r="AG34" s="1">
         <v>22</v>
       </c>
-      <c r="AH34" s="2">
-        <v>21</v>
-      </c>
-      <c r="AI34" s="2">
+      <c r="AH34" s="1">
+        <v>21</v>
+      </c>
+      <c r="AI34" s="1">
         <v>20</v>
       </c>
       <c r="AJ34">
         <v>20</v>
       </c>
+      <c r="AL34" s="1">
+        <v>30</v>
+      </c>
     </row>
-    <row r="35" spans="1:36">
+    <row r="35" spans="1:38">
       <c r="A35">
         <v>33</v>
       </c>
@@ -12291,32 +12394,35 @@
       <c r="AA35">
         <v>16</v>
       </c>
-      <c r="AC35" s="2">
+      <c r="AC35" s="1">
         <v>53</v>
       </c>
-      <c r="AD35" s="2">
+      <c r="AD35" s="1">
         <v>35</v>
       </c>
-      <c r="AE35" s="2">
+      <c r="AE35" s="1">
         <v>31</v>
       </c>
-      <c r="AF35" s="2">
+      <c r="AF35" s="1">
         <v>24</v>
       </c>
-      <c r="AG35" s="2">
+      <c r="AG35" s="1">
         <v>24</v>
       </c>
-      <c r="AH35" s="2">
-        <v>21</v>
-      </c>
-      <c r="AI35" s="2">
+      <c r="AH35" s="1">
+        <v>21</v>
+      </c>
+      <c r="AI35" s="1">
         <v>22</v>
       </c>
       <c r="AJ35">
         <v>20</v>
       </c>
+      <c r="AL35" s="1">
+        <v>32</v>
+      </c>
     </row>
-    <row r="36" spans="1:36">
+    <row r="36" spans="1:38">
       <c r="A36">
         <v>34</v>
       </c>
@@ -12377,32 +12483,35 @@
       <c r="AA36">
         <v>16</v>
       </c>
-      <c r="AC36" s="2">
+      <c r="AC36" s="1">
         <v>55</v>
       </c>
-      <c r="AD36" s="2">
+      <c r="AD36" s="1">
         <v>37</v>
       </c>
-      <c r="AE36" s="2">
+      <c r="AE36" s="1">
         <v>30</v>
       </c>
-      <c r="AF36" s="2">
+      <c r="AF36" s="1">
         <v>25</v>
       </c>
-      <c r="AG36" s="2">
+      <c r="AG36" s="1">
         <v>22</v>
       </c>
-      <c r="AH36" s="2">
-        <v>21</v>
-      </c>
-      <c r="AI36" s="2">
+      <c r="AH36" s="1">
+        <v>21</v>
+      </c>
+      <c r="AI36" s="1">
         <v>20</v>
       </c>
       <c r="AJ36">
         <v>19</v>
       </c>
+      <c r="AL36" s="1">
+        <v>31</v>
+      </c>
     </row>
-    <row r="37" spans="1:36">
+    <row r="37" spans="1:38">
       <c r="A37">
         <v>35</v>
       </c>
@@ -12463,32 +12572,35 @@
       <c r="AA37">
         <v>15</v>
       </c>
-      <c r="AC37" s="2">
+      <c r="AC37" s="1">
         <v>55</v>
       </c>
-      <c r="AD37" s="2">
+      <c r="AD37" s="1">
         <v>38</v>
       </c>
-      <c r="AE37" s="2">
+      <c r="AE37" s="1">
         <v>31</v>
       </c>
-      <c r="AF37" s="2">
+      <c r="AF37" s="1">
         <v>25</v>
       </c>
-      <c r="AG37" s="2">
+      <c r="AG37" s="1">
         <v>22</v>
       </c>
-      <c r="AH37" s="2">
-        <v>21</v>
-      </c>
-      <c r="AI37" s="2">
+      <c r="AH37" s="1">
+        <v>21</v>
+      </c>
+      <c r="AI37" s="1">
         <v>20</v>
       </c>
       <c r="AJ37">
         <v>19</v>
       </c>
+      <c r="AL37" s="1">
+        <v>32</v>
+      </c>
     </row>
-    <row r="38" spans="1:36">
+    <row r="38" spans="1:38">
       <c r="A38">
         <v>36</v>
       </c>
@@ -12549,32 +12661,35 @@
       <c r="AA38">
         <v>17</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AC38" s="1">
         <v>56</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AD38" s="1">
         <v>40</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AE38" s="1">
         <v>33</v>
       </c>
-      <c r="AF38" s="2">
+      <c r="AF38" s="1">
         <v>27</v>
       </c>
-      <c r="AG38" s="2">
+      <c r="AG38" s="1">
         <v>22</v>
       </c>
-      <c r="AH38" s="2">
-        <v>21</v>
-      </c>
-      <c r="AI38" s="2">
+      <c r="AH38" s="1">
+        <v>21</v>
+      </c>
+      <c r="AI38" s="1">
         <v>21</v>
       </c>
       <c r="AJ38">
         <v>20</v>
       </c>
+      <c r="AL38" s="1">
+        <v>34</v>
+      </c>
     </row>
-    <row r="39" spans="1:36">
+    <row r="39" spans="1:38">
       <c r="A39">
         <v>37</v>
       </c>
@@ -12635,32 +12750,35 @@
       <c r="AA39">
         <v>16</v>
       </c>
-      <c r="AC39" s="2">
+      <c r="AC39" s="1">
         <v>59</v>
       </c>
-      <c r="AD39" s="2">
+      <c r="AD39" s="1">
         <v>37</v>
       </c>
-      <c r="AE39" s="2">
+      <c r="AE39" s="1">
         <v>30</v>
       </c>
-      <c r="AF39" s="2">
+      <c r="AF39" s="1">
         <v>25</v>
       </c>
-      <c r="AG39" s="2">
+      <c r="AG39" s="1">
         <v>22</v>
       </c>
-      <c r="AH39" s="2">
-        <v>21</v>
-      </c>
-      <c r="AI39" s="2">
+      <c r="AH39" s="1">
+        <v>21</v>
+      </c>
+      <c r="AI39" s="1">
         <v>20</v>
       </c>
       <c r="AJ39">
         <v>19</v>
       </c>
+      <c r="AL39" s="1">
+        <v>31</v>
+      </c>
     </row>
-    <row r="40" spans="1:36">
+    <row r="40" spans="1:38">
       <c r="A40">
         <v>38</v>
       </c>
@@ -12721,32 +12839,35 @@
       <c r="AA40">
         <v>16</v>
       </c>
-      <c r="AC40" s="2">
+      <c r="AC40" s="1">
         <v>58</v>
       </c>
-      <c r="AD40" s="2">
+      <c r="AD40" s="1">
         <v>39</v>
       </c>
-      <c r="AE40" s="2">
+      <c r="AE40" s="1">
         <v>31</v>
       </c>
-      <c r="AF40" s="2">
+      <c r="AF40" s="1">
         <v>24</v>
       </c>
-      <c r="AG40" s="2">
+      <c r="AG40" s="1">
         <v>23</v>
       </c>
-      <c r="AH40" s="2">
-        <v>21</v>
-      </c>
-      <c r="AI40" s="2">
+      <c r="AH40" s="1">
+        <v>21</v>
+      </c>
+      <c r="AI40" s="1">
         <v>20</v>
       </c>
       <c r="AJ40">
         <v>19</v>
       </c>
+      <c r="AL40" s="1">
+        <v>32</v>
+      </c>
     </row>
-    <row r="41" spans="1:36">
+    <row r="41" spans="1:38">
       <c r="A41">
         <v>39</v>
       </c>
@@ -12807,32 +12928,35 @@
       <c r="AA41">
         <v>16</v>
       </c>
-      <c r="AC41" s="2">
+      <c r="AC41" s="1">
         <v>59</v>
       </c>
-      <c r="AD41" s="2">
+      <c r="AD41" s="1">
         <v>35</v>
       </c>
-      <c r="AE41" s="2">
+      <c r="AE41" s="1">
         <v>34</v>
       </c>
-      <c r="AF41" s="2">
+      <c r="AF41" s="1">
         <v>25</v>
       </c>
-      <c r="AG41" s="2">
+      <c r="AG41" s="1">
         <v>23</v>
       </c>
-      <c r="AH41" s="2">
-        <v>21</v>
-      </c>
-      <c r="AI41" s="2">
+      <c r="AH41" s="1">
+        <v>21</v>
+      </c>
+      <c r="AI41" s="1">
         <v>20</v>
       </c>
       <c r="AJ41">
         <v>20</v>
       </c>
+      <c r="AL41" s="1">
+        <v>35</v>
+      </c>
     </row>
-    <row r="42" spans="1:36">
+    <row r="42" spans="1:38">
       <c r="A42">
         <v>40</v>
       </c>
@@ -12893,32 +13017,35 @@
       <c r="AA42">
         <v>15</v>
       </c>
-      <c r="AC42" s="2">
+      <c r="AC42" s="1">
         <v>60</v>
       </c>
-      <c r="AD42" s="2">
+      <c r="AD42" s="1">
         <v>41</v>
       </c>
-      <c r="AE42" s="2">
+      <c r="AE42" s="1">
         <v>30</v>
       </c>
-      <c r="AF42" s="2">
+      <c r="AF42" s="1">
         <v>25</v>
       </c>
-      <c r="AG42" s="2">
+      <c r="AG42" s="1">
         <v>22</v>
       </c>
-      <c r="AH42" s="2">
-        <v>21</v>
-      </c>
-      <c r="AI42" s="2">
+      <c r="AH42" s="1">
+        <v>21</v>
+      </c>
+      <c r="AI42" s="1">
         <v>20</v>
       </c>
       <c r="AJ42">
         <v>20</v>
       </c>
+      <c r="AL42" s="1">
+        <v>31</v>
+      </c>
     </row>
-    <row r="43" spans="1:36">
+    <row r="43" spans="1:38">
       <c r="A43">
         <v>41</v>
       </c>
@@ -12979,32 +13106,35 @@
       <c r="AA43">
         <v>16</v>
       </c>
-      <c r="AC43" s="2">
+      <c r="AC43" s="1">
         <v>63</v>
       </c>
-      <c r="AD43" s="2">
+      <c r="AD43" s="1">
         <v>34</v>
       </c>
-      <c r="AE43" s="2">
+      <c r="AE43" s="1">
         <v>29</v>
       </c>
-      <c r="AF43" s="2">
+      <c r="AF43" s="1">
         <v>25</v>
       </c>
-      <c r="AG43" s="2">
+      <c r="AG43" s="1">
         <v>23</v>
       </c>
-      <c r="AH43" s="2">
-        <v>21</v>
-      </c>
-      <c r="AI43" s="2">
+      <c r="AH43" s="1">
+        <v>21</v>
+      </c>
+      <c r="AI43" s="1">
         <v>21</v>
       </c>
       <c r="AJ43">
         <v>19</v>
       </c>
+      <c r="AL43" s="1">
+        <v>30</v>
+      </c>
     </row>
-    <row r="44" spans="1:36">
+    <row r="44" spans="1:38">
       <c r="A44">
         <v>42</v>
       </c>
@@ -13065,32 +13195,35 @@
       <c r="AA44">
         <v>16</v>
       </c>
-      <c r="AC44" s="2">
+      <c r="AC44" s="1">
         <v>63</v>
       </c>
-      <c r="AD44" s="2">
+      <c r="AD44" s="1">
         <v>42</v>
       </c>
-      <c r="AE44" s="2">
+      <c r="AE44" s="1">
         <v>34</v>
       </c>
-      <c r="AF44" s="2">
+      <c r="AF44" s="1">
         <v>28</v>
       </c>
-      <c r="AG44" s="2">
+      <c r="AG44" s="1">
         <v>23</v>
       </c>
-      <c r="AH44" s="2">
-        <v>21</v>
-      </c>
-      <c r="AI44" s="2">
+      <c r="AH44" s="1">
+        <v>21</v>
+      </c>
+      <c r="AI44" s="1">
         <v>20</v>
       </c>
       <c r="AJ44">
         <v>20</v>
       </c>
+      <c r="AL44" s="1">
+        <v>35</v>
+      </c>
     </row>
-    <row r="45" spans="1:36">
+    <row r="45" spans="1:38">
       <c r="A45">
         <v>43</v>
       </c>
@@ -13151,32 +13284,35 @@
       <c r="AA45">
         <v>17</v>
       </c>
-      <c r="AC45" s="2">
+      <c r="AC45" s="1">
         <v>63</v>
       </c>
-      <c r="AD45" s="2">
+      <c r="AD45" s="1">
         <v>37</v>
       </c>
-      <c r="AE45" s="2">
+      <c r="AE45" s="1">
         <v>31</v>
       </c>
-      <c r="AF45" s="2">
+      <c r="AF45" s="1">
         <v>25</v>
       </c>
-      <c r="AG45" s="2">
+      <c r="AG45" s="1">
         <v>23</v>
       </c>
-      <c r="AH45" s="2">
-        <v>21</v>
-      </c>
-      <c r="AI45" s="2">
+      <c r="AH45" s="1">
+        <v>21</v>
+      </c>
+      <c r="AI45" s="1">
         <v>20</v>
       </c>
       <c r="AJ45">
         <v>19</v>
       </c>
+      <c r="AL45" s="1">
+        <v>32</v>
+      </c>
     </row>
-    <row r="46" spans="1:36">
+    <row r="46" spans="1:38">
       <c r="A46">
         <v>44</v>
       </c>
@@ -13237,32 +13373,35 @@
       <c r="AA46">
         <v>18</v>
       </c>
-      <c r="AC46" s="2">
+      <c r="AC46" s="1">
         <v>66</v>
       </c>
-      <c r="AD46" s="2">
+      <c r="AD46" s="1">
         <v>43</v>
       </c>
-      <c r="AE46" s="2">
+      <c r="AE46" s="1">
         <v>31</v>
       </c>
-      <c r="AF46" s="2">
+      <c r="AF46" s="1">
         <v>26</v>
       </c>
-      <c r="AG46" s="2">
+      <c r="AG46" s="1">
         <v>26</v>
       </c>
-      <c r="AH46" s="2">
+      <c r="AH46" s="1">
         <v>23</v>
       </c>
-      <c r="AI46" s="2">
+      <c r="AI46" s="1">
         <v>20</v>
       </c>
       <c r="AJ46">
         <v>20</v>
       </c>
+      <c r="AL46" s="1">
+        <v>32</v>
+      </c>
     </row>
-    <row r="47" spans="1:36">
+    <row r="47" spans="1:38">
       <c r="A47">
         <v>45</v>
       </c>
@@ -13323,32 +13462,35 @@
       <c r="AA47">
         <v>16</v>
       </c>
-      <c r="AC47" s="2">
+      <c r="AC47" s="1">
         <v>67</v>
       </c>
-      <c r="AD47" s="2">
+      <c r="AD47" s="1">
         <v>35</v>
       </c>
-      <c r="AE47" s="2">
+      <c r="AE47" s="1">
         <v>37</v>
       </c>
-      <c r="AF47" s="2">
+      <c r="AF47" s="1">
         <v>26</v>
       </c>
-      <c r="AG47" s="2">
+      <c r="AG47" s="1">
         <v>22</v>
       </c>
-      <c r="AH47" s="2">
+      <c r="AH47" s="1">
         <v>22</v>
       </c>
-      <c r="AI47" s="2">
+      <c r="AI47" s="1">
         <v>20</v>
       </c>
       <c r="AJ47">
         <v>19</v>
       </c>
+      <c r="AL47" s="1">
+        <v>38</v>
+      </c>
     </row>
-    <row r="48" spans="1:36">
+    <row r="48" spans="1:38">
       <c r="A48">
         <v>46</v>
       </c>
@@ -13409,32 +13551,35 @@
       <c r="AA48">
         <v>15</v>
       </c>
-      <c r="AC48" s="2">
+      <c r="AC48" s="1">
         <v>67</v>
       </c>
-      <c r="AD48" s="2">
+      <c r="AD48" s="1">
         <v>45</v>
       </c>
-      <c r="AE48" s="2">
+      <c r="AE48" s="1">
         <v>33</v>
       </c>
-      <c r="AF48" s="2">
+      <c r="AF48" s="1">
         <v>25</v>
       </c>
-      <c r="AG48" s="2">
+      <c r="AG48" s="1">
         <v>22</v>
       </c>
-      <c r="AH48" s="2">
-        <v>21</v>
-      </c>
-      <c r="AI48" s="2">
+      <c r="AH48" s="1">
+        <v>21</v>
+      </c>
+      <c r="AI48" s="1">
         <v>20</v>
       </c>
       <c r="AJ48">
         <v>19</v>
       </c>
+      <c r="AL48" s="1">
+        <v>34</v>
+      </c>
     </row>
-    <row r="49" spans="1:36">
+    <row r="49" spans="1:38">
       <c r="A49">
         <v>47</v>
       </c>
@@ -13495,32 +13640,35 @@
       <c r="AA49">
         <v>15</v>
       </c>
-      <c r="AC49" s="2">
+      <c r="AC49" s="1">
         <v>68</v>
       </c>
-      <c r="AD49" s="2">
+      <c r="AD49" s="1">
         <v>36</v>
       </c>
-      <c r="AE49" s="2">
+      <c r="AE49" s="1">
         <v>32</v>
       </c>
-      <c r="AF49" s="2">
+      <c r="AF49" s="1">
         <v>25</v>
       </c>
-      <c r="AG49" s="2">
+      <c r="AG49" s="1">
         <v>23</v>
       </c>
-      <c r="AH49" s="2">
-        <v>21</v>
-      </c>
-      <c r="AI49" s="2">
+      <c r="AH49" s="1">
+        <v>21</v>
+      </c>
+      <c r="AI49" s="1">
         <v>20</v>
       </c>
       <c r="AJ49">
         <v>20</v>
       </c>
+      <c r="AL49" s="1">
+        <v>33</v>
+      </c>
     </row>
-    <row r="50" spans="1:36">
+    <row r="50" spans="1:38">
       <c r="A50">
         <v>48</v>
       </c>
@@ -13581,32 +13729,35 @@
       <c r="AA50">
         <v>15</v>
       </c>
-      <c r="AC50" s="2">
+      <c r="AC50" s="1">
         <v>69</v>
       </c>
-      <c r="AD50" s="2">
+      <c r="AD50" s="1">
         <v>46</v>
       </c>
-      <c r="AE50" s="2">
+      <c r="AE50" s="1">
         <v>37</v>
       </c>
-      <c r="AF50" s="2">
+      <c r="AF50" s="1">
         <v>29</v>
       </c>
-      <c r="AG50" s="2">
+      <c r="AG50" s="1">
         <v>23</v>
       </c>
-      <c r="AH50" s="2">
-        <v>21</v>
-      </c>
-      <c r="AI50" s="2">
+      <c r="AH50" s="1">
+        <v>21</v>
+      </c>
+      <c r="AI50" s="1">
         <v>20</v>
       </c>
       <c r="AJ50">
         <v>19</v>
       </c>
+      <c r="AL50" s="1">
+        <v>38</v>
+      </c>
     </row>
-    <row r="51" spans="1:36">
+    <row r="51" spans="1:38">
       <c r="A51">
         <v>49</v>
       </c>
@@ -13667,32 +13818,35 @@
       <c r="AA51">
         <v>15</v>
       </c>
-      <c r="AC51" s="2">
+      <c r="AC51" s="1">
         <v>71</v>
       </c>
-      <c r="AD51" s="2">
+      <c r="AD51" s="1">
         <v>37</v>
       </c>
-      <c r="AE51" s="2">
+      <c r="AE51" s="1">
         <v>29</v>
       </c>
-      <c r="AF51" s="2">
+      <c r="AF51" s="1">
         <v>25</v>
       </c>
-      <c r="AG51" s="2">
+      <c r="AG51" s="1">
         <v>23</v>
       </c>
-      <c r="AH51" s="2">
-        <v>21</v>
-      </c>
-      <c r="AI51" s="2">
+      <c r="AH51" s="1">
+        <v>21</v>
+      </c>
+      <c r="AI51" s="1">
         <v>20</v>
       </c>
       <c r="AJ51">
         <v>20</v>
       </c>
+      <c r="AL51" s="1">
+        <v>30</v>
+      </c>
     </row>
-    <row r="52" spans="1:36">
+    <row r="52" spans="1:38">
       <c r="A52">
         <v>50</v>
       </c>
@@ -13753,32 +13907,35 @@
       <c r="AA52">
         <v>15</v>
       </c>
-      <c r="AC52" s="2">
+      <c r="AC52" s="1">
         <v>70</v>
       </c>
-      <c r="AD52" s="2">
+      <c r="AD52" s="1">
         <v>46</v>
       </c>
-      <c r="AE52" s="2">
+      <c r="AE52" s="1">
         <v>30</v>
       </c>
-      <c r="AF52" s="2">
+      <c r="AF52" s="1">
         <v>25</v>
       </c>
-      <c r="AG52" s="2">
+      <c r="AG52" s="1">
         <v>23</v>
       </c>
-      <c r="AH52" s="2">
-        <v>21</v>
-      </c>
-      <c r="AI52" s="2">
+      <c r="AH52" s="1">
+        <v>21</v>
+      </c>
+      <c r="AI52" s="1">
         <v>20</v>
       </c>
       <c r="AJ52">
         <v>20</v>
       </c>
+      <c r="AL52" s="1">
+        <v>31</v>
+      </c>
     </row>
-    <row r="53" spans="1:36">
+    <row r="53" spans="1:38">
       <c r="A53">
         <v>51</v>
       </c>
@@ -13839,32 +13996,35 @@
       <c r="AA53">
         <v>15</v>
       </c>
-      <c r="AC53" s="2">
+      <c r="AC53" s="1">
         <v>72</v>
       </c>
-      <c r="AD53" s="2">
+      <c r="AD53" s="1">
         <v>38</v>
       </c>
-      <c r="AE53" s="2">
+      <c r="AE53" s="1">
         <v>38</v>
       </c>
-      <c r="AF53" s="2">
+      <c r="AF53" s="1">
         <v>26</v>
       </c>
-      <c r="AG53" s="2">
+      <c r="AG53" s="1">
         <v>23</v>
       </c>
-      <c r="AH53" s="2">
-        <v>21</v>
-      </c>
-      <c r="AI53" s="2">
+      <c r="AH53" s="1">
+        <v>21</v>
+      </c>
+      <c r="AI53" s="1">
         <v>20</v>
       </c>
       <c r="AJ53">
         <v>20</v>
       </c>
+      <c r="AL53" s="1">
+        <v>39</v>
+      </c>
     </row>
-    <row r="54" spans="1:36">
+    <row r="54" spans="1:38">
       <c r="A54">
         <v>52</v>
       </c>
@@ -13925,32 +14085,35 @@
       <c r="AA54">
         <v>15</v>
       </c>
-      <c r="AC54" s="2">
+      <c r="AC54" s="1">
         <v>72</v>
       </c>
-      <c r="AD54" s="2">
+      <c r="AD54" s="1">
         <v>47</v>
       </c>
-      <c r="AE54" s="2">
+      <c r="AE54" s="1">
         <v>31</v>
       </c>
-      <c r="AF54" s="2">
+      <c r="AF54" s="1">
         <v>25</v>
       </c>
-      <c r="AG54" s="2">
+      <c r="AG54" s="1">
         <v>23</v>
       </c>
-      <c r="AH54" s="2">
-        <v>21</v>
-      </c>
-      <c r="AI54" s="2">
+      <c r="AH54" s="1">
+        <v>21</v>
+      </c>
+      <c r="AI54" s="1">
         <v>20</v>
       </c>
       <c r="AJ54">
         <v>20</v>
       </c>
+      <c r="AL54" s="1">
+        <v>32</v>
+      </c>
     </row>
-    <row r="55" spans="1:36">
+    <row r="55" spans="1:38">
       <c r="A55">
         <v>53</v>
       </c>
@@ -14011,32 +14174,35 @@
       <c r="AA55">
         <v>15</v>
       </c>
-      <c r="AC55" s="2">
+      <c r="AC55" s="1">
         <v>74</v>
       </c>
-      <c r="AD55" s="2">
+      <c r="AD55" s="1">
         <v>35</v>
       </c>
-      <c r="AE55" s="2">
+      <c r="AE55" s="1">
         <v>31</v>
       </c>
-      <c r="AF55" s="2">
+      <c r="AF55" s="1">
         <v>25</v>
       </c>
-      <c r="AG55" s="2">
+      <c r="AG55" s="1">
         <v>23</v>
       </c>
-      <c r="AH55" s="2">
-        <v>21</v>
-      </c>
-      <c r="AI55" s="2">
+      <c r="AH55" s="1">
+        <v>21</v>
+      </c>
+      <c r="AI55" s="1">
         <v>20</v>
       </c>
       <c r="AJ55">
         <v>20</v>
       </c>
+      <c r="AL55" s="1">
+        <v>32</v>
+      </c>
     </row>
-    <row r="56" spans="1:36">
+    <row r="56" spans="1:38">
       <c r="A56">
         <v>54</v>
       </c>
@@ -14097,32 +14263,35 @@
       <c r="AA56">
         <v>15</v>
       </c>
-      <c r="AC56" s="2">
+      <c r="AC56" s="1">
         <v>76</v>
       </c>
-      <c r="AD56" s="2">
+      <c r="AD56" s="1">
         <v>48</v>
       </c>
-      <c r="AE56" s="2">
+      <c r="AE56" s="1">
         <v>40</v>
       </c>
-      <c r="AF56" s="2">
+      <c r="AF56" s="1">
         <v>31</v>
       </c>
-      <c r="AG56" s="2">
+      <c r="AG56" s="1">
         <v>23</v>
       </c>
-      <c r="AH56" s="2">
-        <v>21</v>
-      </c>
-      <c r="AI56" s="2">
+      <c r="AH56" s="1">
+        <v>21</v>
+      </c>
+      <c r="AI56" s="1">
         <v>20</v>
       </c>
       <c r="AJ56">
         <v>20</v>
       </c>
+      <c r="AL56" s="1">
+        <v>41</v>
+      </c>
     </row>
-    <row r="57" spans="1:36">
+    <row r="57" spans="1:38">
       <c r="A57">
         <v>55</v>
       </c>
@@ -14183,32 +14352,35 @@
       <c r="AA57">
         <v>16</v>
       </c>
-      <c r="AC57" s="2">
+      <c r="AC57" s="1">
         <v>78</v>
       </c>
-      <c r="AD57" s="2">
+      <c r="AD57" s="1">
         <v>33</v>
       </c>
-      <c r="AE57" s="2">
+      <c r="AE57" s="1">
         <v>33</v>
       </c>
-      <c r="AF57" s="2">
+      <c r="AF57" s="1">
         <v>25</v>
       </c>
-      <c r="AG57" s="2">
+      <c r="AG57" s="1">
         <v>26</v>
       </c>
-      <c r="AH57" s="2">
-        <v>21</v>
-      </c>
-      <c r="AI57" s="2">
+      <c r="AH57" s="1">
+        <v>21</v>
+      </c>
+      <c r="AI57" s="1">
         <v>20</v>
       </c>
       <c r="AJ57">
         <v>19</v>
       </c>
+      <c r="AL57" s="1">
+        <v>34</v>
+      </c>
     </row>
-    <row r="58" spans="1:36">
+    <row r="58" spans="1:38">
       <c r="A58">
         <v>56</v>
       </c>
@@ -14269,32 +14441,35 @@
       <c r="AA58">
         <v>17</v>
       </c>
-      <c r="AC58" s="2">
+      <c r="AC58" s="1">
         <v>76</v>
       </c>
-      <c r="AD58" s="2">
+      <c r="AD58" s="1">
         <v>49</v>
       </c>
-      <c r="AE58" s="2">
+      <c r="AE58" s="1">
         <v>29</v>
       </c>
-      <c r="AF58" s="2">
+      <c r="AF58" s="1">
         <v>25</v>
       </c>
-      <c r="AG58" s="2">
+      <c r="AG58" s="1">
         <v>23</v>
       </c>
-      <c r="AH58" s="2">
-        <v>21</v>
-      </c>
-      <c r="AI58" s="2">
+      <c r="AH58" s="1">
+        <v>21</v>
+      </c>
+      <c r="AI58" s="1">
         <v>20</v>
       </c>
       <c r="AJ58">
         <v>20</v>
       </c>
+      <c r="AL58" s="1">
+        <v>30</v>
+      </c>
     </row>
-    <row r="59" spans="1:36">
+    <row r="59" spans="1:38">
       <c r="A59">
         <v>57</v>
       </c>
@@ -14355,32 +14530,35 @@
       <c r="AA59">
         <v>15</v>
       </c>
-      <c r="AC59" s="2">
+      <c r="AC59" s="1">
         <v>78</v>
       </c>
-      <c r="AD59" s="2">
+      <c r="AD59" s="1">
         <v>37</v>
       </c>
-      <c r="AE59" s="2">
+      <c r="AE59" s="1">
         <v>40</v>
       </c>
-      <c r="AF59" s="2">
+      <c r="AF59" s="1">
         <v>25</v>
       </c>
-      <c r="AG59" s="2">
+      <c r="AG59" s="1">
         <v>23</v>
       </c>
-      <c r="AH59" s="2">
-        <v>21</v>
-      </c>
-      <c r="AI59" s="2">
+      <c r="AH59" s="1">
+        <v>21</v>
+      </c>
+      <c r="AI59" s="1">
         <v>20</v>
       </c>
       <c r="AJ59">
         <v>20</v>
       </c>
+      <c r="AL59" s="1">
+        <v>41</v>
+      </c>
     </row>
-    <row r="60" spans="1:36">
+    <row r="60" spans="1:38">
       <c r="A60">
         <v>58</v>
       </c>
@@ -14441,32 +14619,35 @@
       <c r="AA60">
         <v>15</v>
       </c>
-      <c r="AC60" s="2">
+      <c r="AC60" s="1">
         <v>79</v>
       </c>
-      <c r="AD60" s="2">
+      <c r="AD60" s="1">
         <v>50</v>
       </c>
-      <c r="AE60" s="2">
+      <c r="AE60" s="1">
         <v>31</v>
       </c>
-      <c r="AF60" s="2">
+      <c r="AF60" s="1">
         <v>25</v>
       </c>
-      <c r="AG60" s="2">
+      <c r="AG60" s="1">
         <v>23</v>
       </c>
-      <c r="AH60" s="2">
-        <v>21</v>
-      </c>
-      <c r="AI60" s="2">
+      <c r="AH60" s="1">
+        <v>21</v>
+      </c>
+      <c r="AI60" s="1">
         <v>21</v>
       </c>
       <c r="AJ60">
         <v>19</v>
       </c>
+      <c r="AL60" s="1">
+        <v>32</v>
+      </c>
     </row>
-    <row r="61" spans="1:36">
+    <row r="61" spans="1:38">
       <c r="A61">
         <v>59</v>
       </c>
@@ -14527,32 +14708,35 @@
       <c r="AA61">
         <v>15</v>
       </c>
-      <c r="AC61" s="2">
+      <c r="AC61" s="1">
         <v>78</v>
       </c>
-      <c r="AD61" s="2">
+      <c r="AD61" s="1">
         <v>37</v>
       </c>
-      <c r="AE61" s="2">
+      <c r="AE61" s="1">
         <v>30</v>
       </c>
-      <c r="AF61" s="2">
+      <c r="AF61" s="1">
         <v>26</v>
       </c>
-      <c r="AG61" s="2">
+      <c r="AG61" s="1">
         <v>22</v>
       </c>
-      <c r="AH61" s="2">
-        <v>21</v>
-      </c>
-      <c r="AI61" s="2">
+      <c r="AH61" s="1">
+        <v>21</v>
+      </c>
+      <c r="AI61" s="1">
         <v>20</v>
       </c>
       <c r="AJ61">
         <v>19</v>
       </c>
+      <c r="AL61" s="1">
+        <v>31</v>
+      </c>
     </row>
-    <row r="62" spans="1:36">
+    <row r="62" spans="1:38">
       <c r="A62">
         <v>60</v>
       </c>
@@ -14613,32 +14797,35 @@
       <c r="AA62">
         <v>15</v>
       </c>
-      <c r="AC62" s="2">
+      <c r="AC62" s="1">
         <v>82</v>
       </c>
-      <c r="AD62" s="2">
+      <c r="AD62" s="1">
         <v>52</v>
       </c>
-      <c r="AE62" s="2">
+      <c r="AE62" s="1">
         <v>41</v>
       </c>
-      <c r="AF62" s="2">
+      <c r="AF62" s="1">
         <v>31</v>
       </c>
-      <c r="AG62" s="2">
+      <c r="AG62" s="1">
         <v>23</v>
       </c>
-      <c r="AH62" s="2">
-        <v>21</v>
-      </c>
-      <c r="AI62" s="2">
+      <c r="AH62" s="1">
+        <v>21</v>
+      </c>
+      <c r="AI62" s="1">
         <v>20</v>
       </c>
       <c r="AJ62">
         <v>19</v>
       </c>
+      <c r="AL62" s="1">
+        <v>42</v>
+      </c>
     </row>
-    <row r="63" spans="1:36">
+    <row r="63" spans="1:38">
       <c r="A63">
         <v>61</v>
       </c>
@@ -14699,32 +14886,35 @@
       <c r="AA63">
         <v>16</v>
       </c>
-      <c r="AC63" s="2">
+      <c r="AC63" s="1">
         <v>82</v>
       </c>
-      <c r="AD63" s="2">
+      <c r="AD63" s="1">
         <v>36</v>
       </c>
-      <c r="AE63" s="2">
+      <c r="AE63" s="1">
         <v>30</v>
       </c>
-      <c r="AF63" s="2">
+      <c r="AF63" s="1">
         <v>25</v>
       </c>
-      <c r="AG63" s="2">
+      <c r="AG63" s="1">
         <v>23</v>
       </c>
-      <c r="AH63" s="2">
-        <v>21</v>
-      </c>
-      <c r="AI63" s="2">
+      <c r="AH63" s="1">
+        <v>21</v>
+      </c>
+      <c r="AI63" s="1">
         <v>20</v>
       </c>
       <c r="AJ63">
         <v>19</v>
       </c>
+      <c r="AL63" s="1">
+        <v>31</v>
+      </c>
     </row>
-    <row r="64" spans="1:36">
+    <row r="64" spans="1:38">
       <c r="A64">
         <v>62</v>
       </c>
@@ -14785,32 +14975,35 @@
       <c r="AA64">
         <v>17</v>
       </c>
-      <c r="AC64" s="2">
+      <c r="AC64" s="1">
         <v>86</v>
       </c>
-      <c r="AD64" s="2">
+      <c r="AD64" s="1">
         <v>53</v>
       </c>
-      <c r="AE64" s="2">
+      <c r="AE64" s="1">
         <v>30</v>
       </c>
-      <c r="AF64" s="2">
+      <c r="AF64" s="1">
         <v>25</v>
       </c>
-      <c r="AG64" s="2">
+      <c r="AG64" s="1">
         <v>23</v>
       </c>
-      <c r="AH64" s="2">
-        <v>21</v>
-      </c>
-      <c r="AI64" s="2">
+      <c r="AH64" s="1">
+        <v>21</v>
+      </c>
+      <c r="AI64" s="1">
         <v>20</v>
       </c>
       <c r="AJ64">
         <v>20</v>
       </c>
+      <c r="AL64" s="1">
+        <v>31</v>
+      </c>
     </row>
-    <row r="65" spans="1:36">
+    <row r="65" spans="1:38">
       <c r="A65">
         <v>63</v>
       </c>
@@ -14871,32 +15064,35 @@
       <c r="AA65">
         <v>17</v>
       </c>
-      <c r="AC65" s="2">
+      <c r="AC65" s="1">
         <v>87</v>
       </c>
-      <c r="AD65" s="2">
+      <c r="AD65" s="1">
         <v>36</v>
       </c>
-      <c r="AE65" s="2">
+      <c r="AE65" s="1">
         <v>42</v>
       </c>
-      <c r="AF65" s="2">
+      <c r="AF65" s="1">
         <v>26</v>
       </c>
-      <c r="AG65" s="2">
+      <c r="AG65" s="1">
         <v>23</v>
       </c>
-      <c r="AH65" s="2">
-        <v>21</v>
-      </c>
-      <c r="AI65" s="2">
+      <c r="AH65" s="1">
+        <v>21</v>
+      </c>
+      <c r="AI65" s="1">
         <v>20</v>
       </c>
       <c r="AJ65">
         <v>19</v>
       </c>
+      <c r="AL65" s="1">
+        <v>43</v>
+      </c>
     </row>
-    <row r="66" spans="1:36">
+    <row r="66" spans="1:38">
       <c r="A66">
         <v>64</v>
       </c>
@@ -14957,32 +15153,35 @@
       <c r="AA66">
         <v>18</v>
       </c>
-      <c r="AC66" s="2">
+      <c r="AC66" s="1">
         <v>86</v>
       </c>
-      <c r="AD66" s="2">
+      <c r="AD66" s="1">
         <v>55</v>
       </c>
-      <c r="AE66" s="2">
+      <c r="AE66" s="1">
         <v>31</v>
       </c>
-      <c r="AF66" s="2">
+      <c r="AF66" s="1">
         <v>26</v>
       </c>
-      <c r="AG66" s="2">
+      <c r="AG66" s="1">
         <v>22</v>
       </c>
-      <c r="AH66" s="2">
-        <v>21</v>
-      </c>
-      <c r="AI66" s="2">
+      <c r="AH66" s="1">
+        <v>21</v>
+      </c>
+      <c r="AI66" s="1">
         <v>20</v>
       </c>
       <c r="AJ66">
         <v>19</v>
       </c>
+      <c r="AL66" s="1">
+        <v>32</v>
+      </c>
     </row>
-    <row r="67" spans="1:36">
+    <row r="67" spans="1:38">
       <c r="A67">
         <v>65</v>
       </c>
@@ -15043,34 +15242,37 @@
       <c r="AA67">
         <v>17</v>
       </c>
-      <c r="AC67" s="2">
+      <c r="AC67" s="1">
         <v>85</v>
       </c>
-      <c r="AD67" s="2">
+      <c r="AD67" s="1">
         <v>35</v>
       </c>
-      <c r="AE67" s="2">
+      <c r="AE67" s="1">
         <v>29</v>
       </c>
-      <c r="AF67" s="2">
+      <c r="AF67" s="1">
         <v>25</v>
       </c>
-      <c r="AG67" s="2">
-        <v>21</v>
-      </c>
-      <c r="AH67" s="2">
-        <v>20</v>
-      </c>
-      <c r="AI67" s="2">
+      <c r="AG67" s="1">
+        <v>21</v>
+      </c>
+      <c r="AH67" s="1">
+        <v>20</v>
+      </c>
+      <c r="AI67" s="1">
         <v>19</v>
       </c>
       <c r="AJ67">
         <v>18</v>
       </c>
+      <c r="AL67" s="1">
+        <v>30</v>
+      </c>
     </row>
-    <row r="69" spans="1:36">
+    <row r="69" spans="1:38">
       <c r="A69" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C69">
         <f>AVERAGE(C3:C67)</f>
@@ -15149,36 +15351,44 @@
         <v>15.6307692307692</v>
       </c>
       <c r="AC69">
-        <f>AVERAGE(AC3:AC67)</f>
+        <f t="shared" ref="AC69:AL69" si="2">AVERAGE(AC3:AC67)</f>
         <v>53.9538461538462</v>
       </c>
       <c r="AD69">
-        <f>AVERAGE(AD3:AD67)</f>
+        <f t="shared" si="2"/>
         <v>36.8153846153846</v>
       </c>
       <c r="AE69">
-        <f>AVERAGE(AE3:AE67)</f>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="AF69">
-        <f>AVERAGE(AF3:AF67)</f>
+        <f t="shared" si="2"/>
         <v>25.4769230769231</v>
       </c>
       <c r="AG69">
-        <f>AVERAGE(AG3:AG67)</f>
+        <f t="shared" si="2"/>
         <v>22.7230769230769</v>
       </c>
       <c r="AH69">
-        <f>AVERAGE(AH3:AH67)</f>
+        <f t="shared" si="2"/>
         <v>20.9230769230769</v>
       </c>
       <c r="AI69">
-        <f>AVERAGE(AI3:AI67)</f>
+        <f t="shared" si="2"/>
         <v>20.1230769230769</v>
       </c>
       <c r="AJ69">
-        <f>AVERAGE(AJ3:AJ67)</f>
+        <f t="shared" si="2"/>
         <v>19.4307692307692</v>
+      </c>
+      <c r="AK69" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL69">
+        <f t="shared" si="2"/>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/doc/simulation-transcripts/simulation reproduced.xlsx
+++ b/doc/simulation-transcripts/simulation reproduced.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>index</t>
   </si>
@@ -79,6 +79,15 @@
     <t>revised_HS8</t>
   </si>
   <si>
+    <t>buf_fix_3</t>
+  </si>
+  <si>
+    <t>ver5_1</t>
+  </si>
+  <si>
+    <t>ver5_66</t>
+  </si>
+  <si>
     <t>ver4_1</t>
   </si>
   <si>
@@ -88,22 +97,37 @@
     <t>ver4_3</t>
   </si>
   <si>
+    <t>ver4_4</t>
+  </si>
+  <si>
     <t>ver4_6</t>
+  </si>
+  <si>
+    <t>ver4_7</t>
+  </si>
+  <si>
+    <t>ver4_8</t>
+  </si>
+  <si>
+    <t>ver4_9</t>
   </si>
   <si>
     <t>ver4_11</t>
   </si>
   <si>
+    <t>ver4_16</t>
+  </si>
+  <si>
     <t>ver4_22</t>
+  </si>
+  <si>
+    <t>ver4_32</t>
   </si>
   <si>
     <t>ver4_33</t>
   </si>
   <si>
     <t>ver4_66</t>
-  </si>
-  <si>
-    <t>buf_fix_3</t>
   </si>
   <si>
     <t>Average</t>
@@ -114,31 +138,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -158,9 +166,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,29 +190,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,21 +210,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -236,7 +219,31 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -252,21 +259,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,144 +302,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -431,7 +317,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,25 +449,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,11 +514,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,21 +586,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -548,40 +596,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -590,19 +614,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -611,117 +635,120 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -5186,7 +5213,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AC$1</c:f>
+              <c:f>Sheet1!$AG$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5212,7 +5239,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AC$3:$AC$67</c:f>
+              <c:f>Sheet1!$AG$3:$AG$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="65"/>
@@ -5421,7 +5448,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AD$1</c:f>
+              <c:f>Sheet1!$AH$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5447,7 +5474,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AD$3:$AD$67</c:f>
+              <c:f>Sheet1!$AH$3:$AH$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="65"/>
@@ -5656,7 +5683,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AE$1</c:f>
+              <c:f>Sheet1!$AI$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5682,7 +5709,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AE$3:$AE$67</c:f>
+              <c:f>Sheet1!$AI$3:$AI$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="65"/>
@@ -5891,7 +5918,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AF$1</c:f>
+              <c:f>Sheet1!$AK$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5917,7 +5944,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AF$3:$AF$67</c:f>
+              <c:f>Sheet1!$AK$3:$AK$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="65"/>
@@ -6126,7 +6153,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AG$1</c:f>
+              <c:f>Sheet1!$AO$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6152,7 +6179,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AG$3:$AG$67</c:f>
+              <c:f>Sheet1!$AO$3:$AO$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="65"/>
@@ -6361,7 +6388,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AH$1</c:f>
+              <c:f>Sheet1!$AQ$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6387,7 +6414,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AH$3:$AH$67</c:f>
+              <c:f>Sheet1!$AQ$3:$AQ$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="65"/>
@@ -6596,7 +6623,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AI$1</c:f>
+              <c:f>Sheet1!$AS$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6624,7 +6651,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AI$3:$AI$67</c:f>
+              <c:f>Sheet1!$AS$3:$AS$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="65"/>
@@ -6833,7 +6860,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AJ$1</c:f>
+              <c:f>Sheet1!$AT$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6861,7 +6888,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AJ$3:$AJ$67</c:f>
+              <c:f>Sheet1!$AT$3:$AT$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="65"/>
@@ -7255,6 +7282,1505 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Cost / #Block_loss</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"LUTs / Block_loss"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LUTs / Block_loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$AG$1:$AT$1</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>ver4_1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ver4_2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ver4_3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ver4_4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ver4_6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ver4_7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ver4_8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ver4_9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ver4_11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>ver4_16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>ver4_22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>ver4_32</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>ver4_33</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>ver4_66</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AG$71:$AT$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>15.4205873966353</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.223986627664</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.2903225806452</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.7213203463203</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.3109903381643</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44.1056910569106</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37.1726572528883</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>49.0781758957655</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>54.3500338524035</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45.6107954545455</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>76.4227941176471</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>57.2454407294833</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>122.794342507645</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>78.0205859065717</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="194267559"/>
+        <c:axId val="824235316"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>"#block_loss"</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>#block_loss</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="t"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:layout/>
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref/>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$AG$1:$AT$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="14"/>
+                      <c:pt idx="0">
+                        <c:v>ver4_1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>ver4_2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>ver4_3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>ver4_4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>ver4_6</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>ver4_7</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>ver4_8</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>ver4_9</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>ver4_11</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>ver4_16</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>ver4_22</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>ver4_32</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>ver4_33</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>ver4_66</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$AG$69:$AT$69</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="14"/>
+                      <c:pt idx="0">
+                        <c:v>53.9538461538462</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>36.8153846153846</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>28.4307692307692</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>25.4769230769231</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>24.6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>23.9692307692308</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>23.6153846153846</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>22.7230769230769</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>21.6615384615385</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>20.9230769230769</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>20.2461538461538</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>20.1230769230769</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>19.4307692307692</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>"Overall LUTs"</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Overall LUTs</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="t"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:layout/>
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref/>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$AG$1:$AT$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="14"/>
+                      <c:pt idx="0">
+                        <c:v>ver4_1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>ver4_2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>ver4_3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>ver4_4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>ver4_6</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>ver4_7</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>ver4_8</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>ver4_9</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>ver4_11</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>ver4_16</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>ver4_22</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>ver4_32</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>ver4_33</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>ver4_66</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$AG$70:$AT$70</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="14"/>
+                      <c:pt idx="0">
+                        <c:v>832</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>855</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>908</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>845</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1027</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1085</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>891</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1159</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1235</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>988</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1599</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1159</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2471</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>1516</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="194267559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="824235316"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="824235316"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="194267559"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Cost / #Block_loss</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"#block_loss"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#block_loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$AG$1:$AT$1</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>ver4_1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ver4_2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ver4_3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ver4_4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ver4_6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ver4_7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ver4_8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ver4_9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ver4_11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>ver4_16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>ver4_22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>ver4_32</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>ver4_33</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>ver4_66</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AG$69:$AT$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>53.9538461538462</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36.8153846153846</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.4307692307692</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.4769230769231</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.9692307692308</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.6153846153846</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22.7230769230769</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21.6615384615385</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20.9230769230769</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20.2461538461538</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.1230769230769</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19.4307692307692</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="194267559"/>
+        <c:axId val="824235316"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>"Overall LUTs"</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Overall LUTs</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="t"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:layout/>
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref/>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$AG$1:$AT$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="14"/>
+                      <c:pt idx="0">
+                        <c:v>ver4_1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>ver4_2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>ver4_3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>ver4_4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>ver4_6</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>ver4_7</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>ver4_8</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>ver4_9</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>ver4_11</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>ver4_16</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>ver4_22</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>ver4_32</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>ver4_33</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>ver4_66</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$AG$70:$AT$70</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="14"/>
+                      <c:pt idx="0">
+                        <c:v>832</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>855</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>908</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>845</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1027</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1085</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>891</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1159</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1235</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>988</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1599</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1159</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2471</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>1516</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="194267559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="824235316"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="824235316"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="194267559"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:externalData r:id="rId1">
+    <c:autoUpdate val="0"/>
+  </c:externalData>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -7336,6 +8862,86 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8923,6 +10529,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -8945,7 +11583,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="24747220" y="13859510"/>
-        <a:ext cx="13129260" cy="7479665"/>
+        <a:ext cx="15339060" cy="7479665"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9010,6 +11648,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>199390</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>81280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>132080</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="31301055" y="22160230"/>
+        <a:ext cx="9935210" cy="7108825"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>524510</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>198755</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>130175</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="图表 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="21365210" y="22158325"/>
+        <a:ext cx="9935210" cy="7108825"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9276,10 +11974,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AL69"/>
+  <dimension ref="A1:AT71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="Y121" workbookViewId="0">
+      <selection activeCell="AO166" sqref="AO166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -9296,15 +11994,20 @@
     <col min="21" max="21" width="11.25" customWidth="1"/>
     <col min="22" max="22" width="12.5" customWidth="1"/>
     <col min="23" max="23" width="11.25" customWidth="1"/>
-    <col min="26" max="27" width="12.625"/>
+    <col min="24" max="25" width="9" customWidth="1"/>
+    <col min="26" max="27" width="12.625" customWidth="1"/>
     <col min="28" max="28" width="11.375" customWidth="1"/>
     <col min="29" max="29" width="12.125" customWidth="1"/>
+    <col min="30" max="31" width="9" customWidth="1"/>
     <col min="32" max="32" width="10" customWidth="1"/>
     <col min="33" max="33" width="9.28333333333333" customWidth="1"/>
-    <col min="36" max="36" width="12.625"/>
+    <col min="34" max="35" width="9" customWidth="1"/>
+    <col min="36" max="36" width="12.625" customWidth="1"/>
+    <col min="37" max="39" width="9" customWidth="1"/>
+    <col min="40" max="48" width="12.625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:46">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9368,35 +12071,59 @@
       <c r="AA1" t="s">
         <v>20</v>
       </c>
+      <c r="AB1" t="s">
+        <v>21</v>
+      </c>
       <c r="AC1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AD1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE1" t="s">
         <v>23</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>24</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>25</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>26</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>27</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>28</v>
       </c>
       <c r="AL1" t="s">
         <v>29</v>
       </c>
+      <c r="AM1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="2" spans="1:38">
+    <row r="2" spans="1:46">
       <c r="A2">
         <v>0</v>
       </c>
@@ -9457,16 +12184,10 @@
       <c r="AA2">
         <v>0</v>
       </c>
-      <c r="AC2" s="1">
+      <c r="AB2" s="1">
         <v>0</v>
       </c>
-      <c r="AD2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="1">
+      <c r="AD2">
         <v>0</v>
       </c>
       <c r="AG2" s="1">
@@ -9478,14 +12199,41 @@
       <c r="AI2" s="1">
         <v>0</v>
       </c>
-      <c r="AJ2">
+      <c r="AJ2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="1">
         <v>0</v>
       </c>
       <c r="AL2" s="1">
         <v>0</v>
       </c>
+      <c r="AM2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:38">
+    <row r="3" spans="1:46">
       <c r="A3">
         <v>1</v>
       </c>
@@ -9546,35 +12294,56 @@
       <c r="AA3">
         <v>12</v>
       </c>
-      <c r="AC3" s="1">
-        <v>21</v>
-      </c>
-      <c r="AD3" s="1">
+      <c r="AB3" s="1">
+        <v>31</v>
+      </c>
+      <c r="AD3">
+        <v>19</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>21</v>
+      </c>
+      <c r="AH3" s="1">
         <v>36</v>
       </c>
-      <c r="AE3" s="1">
+      <c r="AI3" s="1">
         <v>30</v>
       </c>
-      <c r="AF3" s="1">
+      <c r="AJ3" s="2">
+        <v>29</v>
+      </c>
+      <c r="AK3" s="1">
         <v>25</v>
       </c>
-      <c r="AG3" s="1">
+      <c r="AL3" s="1">
+        <v>25</v>
+      </c>
+      <c r="AM3" s="1">
+        <v>23</v>
+      </c>
+      <c r="AN3" s="2">
+        <v>24</v>
+      </c>
+      <c r="AO3" s="1">
         <v>22</v>
       </c>
-      <c r="AH3" s="1">
-        <v>20</v>
-      </c>
-      <c r="AI3" s="1">
-        <v>20</v>
-      </c>
-      <c r="AJ3">
+      <c r="AP3" s="2">
+        <v>21</v>
+      </c>
+      <c r="AQ3" s="1">
+        <v>20</v>
+      </c>
+      <c r="AR3" s="2">
+        <v>20</v>
+      </c>
+      <c r="AS3" s="1">
+        <v>20</v>
+      </c>
+      <c r="AT3">
         <v>19</v>
       </c>
-      <c r="AL3" s="1">
-        <v>31</v>
-      </c>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:46">
       <c r="A4">
         <v>2</v>
       </c>
@@ -9635,35 +12404,56 @@
       <c r="AA4">
         <v>14</v>
       </c>
-      <c r="AC4" s="1">
+      <c r="AB4" s="1">
+        <v>33</v>
+      </c>
+      <c r="AD4">
+        <v>20</v>
+      </c>
+      <c r="AG4" s="1">
         <v>23</v>
       </c>
-      <c r="AD4" s="1">
-        <v>21</v>
-      </c>
-      <c r="AE4" s="1">
+      <c r="AH4" s="1">
+        <v>21</v>
+      </c>
+      <c r="AI4" s="1">
         <v>32</v>
       </c>
-      <c r="AF4" s="1">
+      <c r="AJ4" s="2">
+        <v>28</v>
+      </c>
+      <c r="AK4" s="1">
         <v>27</v>
       </c>
-      <c r="AG4" s="1">
+      <c r="AL4" s="1">
+        <v>24</v>
+      </c>
+      <c r="AM4" s="1">
+        <v>24</v>
+      </c>
+      <c r="AN4" s="2">
+        <v>24</v>
+      </c>
+      <c r="AO4" s="1">
         <v>22</v>
       </c>
-      <c r="AH4" s="1">
-        <v>21</v>
-      </c>
-      <c r="AI4" s="1">
-        <v>20</v>
-      </c>
-      <c r="AJ4">
-        <v>20</v>
-      </c>
-      <c r="AL4" s="1">
-        <v>33</v>
+      <c r="AP4" s="2">
+        <v>21</v>
+      </c>
+      <c r="AQ4" s="1">
+        <v>21</v>
+      </c>
+      <c r="AR4" s="2">
+        <v>20</v>
+      </c>
+      <c r="AS4" s="1">
+        <v>20</v>
+      </c>
+      <c r="AT4">
+        <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:38">
+    <row r="5" spans="1:46">
       <c r="A5">
         <v>3</v>
       </c>
@@ -9724,35 +12514,56 @@
       <c r="AA5">
         <v>14</v>
       </c>
-      <c r="AC5" s="1">
+      <c r="AB5" s="1">
+        <v>22</v>
+      </c>
+      <c r="AD5">
+        <v>19</v>
+      </c>
+      <c r="AG5" s="1">
         <v>23</v>
       </c>
-      <c r="AD5" s="1">
+      <c r="AH5" s="1">
         <v>37</v>
       </c>
-      <c r="AE5" s="1">
-        <v>21</v>
-      </c>
-      <c r="AF5" s="1">
+      <c r="AI5" s="1">
+        <v>21</v>
+      </c>
+      <c r="AJ5" s="2">
+        <v>30</v>
+      </c>
+      <c r="AK5" s="1">
         <v>24</v>
       </c>
-      <c r="AG5" s="1">
+      <c r="AL5" s="1">
+        <v>24</v>
+      </c>
+      <c r="AM5" s="1">
+        <v>24</v>
+      </c>
+      <c r="AN5" s="2">
+        <v>23</v>
+      </c>
+      <c r="AO5" s="1">
         <v>22</v>
       </c>
-      <c r="AH5" s="1">
-        <v>21</v>
-      </c>
-      <c r="AI5" s="1">
-        <v>20</v>
-      </c>
-      <c r="AJ5">
+      <c r="AP5" s="2">
+        <v>22</v>
+      </c>
+      <c r="AQ5" s="1">
+        <v>21</v>
+      </c>
+      <c r="AR5" s="2">
+        <v>21</v>
+      </c>
+      <c r="AS5" s="1">
+        <v>20</v>
+      </c>
+      <c r="AT5">
         <v>19</v>
       </c>
-      <c r="AL5" s="1">
-        <v>22</v>
-      </c>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6" spans="1:46">
       <c r="A6">
         <v>4</v>
       </c>
@@ -9813,35 +12624,56 @@
       <c r="AA6">
         <v>15</v>
       </c>
-      <c r="AC6" s="1">
+      <c r="AB6" s="1">
+        <v>32</v>
+      </c>
+      <c r="AD6">
+        <v>19</v>
+      </c>
+      <c r="AG6" s="1">
         <v>24</v>
       </c>
-      <c r="AD6" s="1">
+      <c r="AH6" s="1">
         <v>22</v>
       </c>
-      <c r="AE6" s="1">
+      <c r="AI6" s="1">
         <v>31</v>
       </c>
-      <c r="AF6" s="1">
+      <c r="AJ6" s="2">
+        <v>23</v>
+      </c>
+      <c r="AK6" s="1">
         <v>24</v>
       </c>
-      <c r="AG6" s="1">
+      <c r="AL6" s="1">
+        <v>24</v>
+      </c>
+      <c r="AM6" s="1">
+        <v>24</v>
+      </c>
+      <c r="AN6" s="2">
+        <v>24</v>
+      </c>
+      <c r="AO6" s="1">
         <v>22</v>
       </c>
-      <c r="AH6" s="1">
-        <v>20</v>
-      </c>
-      <c r="AI6" s="1">
-        <v>20</v>
-      </c>
-      <c r="AJ6">
+      <c r="AP6" s="2">
+        <v>21</v>
+      </c>
+      <c r="AQ6" s="1">
+        <v>20</v>
+      </c>
+      <c r="AR6" s="2">
+        <v>20</v>
+      </c>
+      <c r="AS6" s="1">
+        <v>20</v>
+      </c>
+      <c r="AT6">
         <v>19</v>
       </c>
-      <c r="AL6" s="1">
-        <v>32</v>
-      </c>
     </row>
-    <row r="7" spans="1:38">
+    <row r="7" spans="1:46">
       <c r="A7">
         <v>5</v>
       </c>
@@ -9902,35 +12734,56 @@
       <c r="AA7">
         <v>15</v>
       </c>
-      <c r="AC7" s="1">
+      <c r="AB7" s="1">
+        <v>33</v>
+      </c>
+      <c r="AD7">
+        <v>19</v>
+      </c>
+      <c r="AG7" s="1">
         <v>26</v>
       </c>
-      <c r="AD7" s="1">
+      <c r="AH7" s="1">
         <v>36</v>
       </c>
-      <c r="AE7" s="1">
+      <c r="AI7" s="1">
         <v>32</v>
       </c>
-      <c r="AF7" s="1">
+      <c r="AJ7" s="2">
+        <v>29</v>
+      </c>
+      <c r="AK7" s="1">
         <v>25</v>
       </c>
-      <c r="AG7" s="1">
+      <c r="AL7" s="1">
+        <v>24</v>
+      </c>
+      <c r="AM7" s="1">
+        <v>24</v>
+      </c>
+      <c r="AN7" s="2">
+        <v>24</v>
+      </c>
+      <c r="AO7" s="1">
         <v>22</v>
       </c>
-      <c r="AH7" s="1">
-        <v>20</v>
-      </c>
-      <c r="AI7" s="1">
-        <v>20</v>
-      </c>
-      <c r="AJ7">
+      <c r="AP7" s="2">
+        <v>22</v>
+      </c>
+      <c r="AQ7" s="1">
+        <v>20</v>
+      </c>
+      <c r="AR7" s="2">
+        <v>20</v>
+      </c>
+      <c r="AS7" s="1">
+        <v>20</v>
+      </c>
+      <c r="AT7">
         <v>19</v>
       </c>
-      <c r="AL7" s="1">
-        <v>33</v>
-      </c>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:46">
       <c r="A8">
         <v>6</v>
       </c>
@@ -9991,35 +12844,56 @@
       <c r="AA8">
         <v>15</v>
       </c>
-      <c r="AC8" s="1">
+      <c r="AB8" s="1">
+        <v>24</v>
+      </c>
+      <c r="AD8">
+        <v>20</v>
+      </c>
+      <c r="AG8" s="1">
         <v>27</v>
       </c>
-      <c r="AD8" s="1">
+      <c r="AH8" s="1">
         <v>24</v>
       </c>
-      <c r="AE8" s="1">
+      <c r="AI8" s="1">
         <v>23</v>
       </c>
-      <c r="AF8" s="1">
+      <c r="AJ8" s="2">
+        <v>28</v>
+      </c>
+      <c r="AK8" s="1">
         <v>22</v>
-      </c>
-      <c r="AG8" s="1">
-        <v>23</v>
-      </c>
-      <c r="AH8" s="1">
-        <v>21</v>
-      </c>
-      <c r="AI8" s="1">
-        <v>20</v>
-      </c>
-      <c r="AJ8">
-        <v>20</v>
       </c>
       <c r="AL8" s="1">
         <v>24</v>
       </c>
+      <c r="AM8" s="1">
+        <v>23</v>
+      </c>
+      <c r="AN8" s="2">
+        <v>23</v>
+      </c>
+      <c r="AO8" s="1">
+        <v>23</v>
+      </c>
+      <c r="AP8" s="2">
+        <v>21</v>
+      </c>
+      <c r="AQ8" s="1">
+        <v>21</v>
+      </c>
+      <c r="AR8" s="2">
+        <v>21</v>
+      </c>
+      <c r="AS8" s="1">
+        <v>20</v>
+      </c>
+      <c r="AT8">
+        <v>20</v>
+      </c>
     </row>
-    <row r="9" spans="1:38">
+    <row r="9" spans="1:46">
       <c r="A9">
         <v>7</v>
       </c>
@@ -10080,35 +12954,56 @@
       <c r="AA9">
         <v>16</v>
       </c>
-      <c r="AC9" s="1">
+      <c r="AB9" s="1">
+        <v>31</v>
+      </c>
+      <c r="AD9">
+        <v>20</v>
+      </c>
+      <c r="AG9" s="1">
         <v>28</v>
       </c>
-      <c r="AD9" s="1">
+      <c r="AH9" s="1">
         <v>37</v>
       </c>
-      <c r="AE9" s="1">
+      <c r="AI9" s="1">
         <v>30</v>
       </c>
-      <c r="AF9" s="1">
+      <c r="AJ9" s="2">
         <v>26</v>
       </c>
-      <c r="AG9" s="1">
+      <c r="AK9" s="1">
+        <v>26</v>
+      </c>
+      <c r="AL9" s="1">
         <v>22</v>
       </c>
-      <c r="AH9" s="1">
-        <v>21</v>
-      </c>
-      <c r="AI9" s="1">
-        <v>21</v>
-      </c>
-      <c r="AJ9">
-        <v>20</v>
-      </c>
-      <c r="AL9" s="1">
-        <v>31</v>
+      <c r="AM9" s="1">
+        <v>23</v>
+      </c>
+      <c r="AN9" s="2">
+        <v>23</v>
+      </c>
+      <c r="AO9" s="1">
+        <v>22</v>
+      </c>
+      <c r="AP9" s="2">
+        <v>22</v>
+      </c>
+      <c r="AQ9" s="1">
+        <v>21</v>
+      </c>
+      <c r="AR9" s="2">
+        <v>20</v>
+      </c>
+      <c r="AS9" s="1">
+        <v>21</v>
+      </c>
+      <c r="AT9">
+        <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:38">
+    <row r="10" spans="1:46">
       <c r="A10">
         <v>8</v>
       </c>
@@ -10169,35 +13064,56 @@
       <c r="AA10">
         <v>16</v>
       </c>
-      <c r="AC10" s="1">
+      <c r="AB10" s="1">
+        <v>32</v>
+      </c>
+      <c r="AD10">
+        <v>20</v>
+      </c>
+      <c r="AG10" s="1">
         <v>29</v>
       </c>
-      <c r="AD10" s="1">
+      <c r="AH10" s="1">
         <v>25</v>
       </c>
-      <c r="AE10" s="1">
+      <c r="AI10" s="1">
         <v>31</v>
       </c>
-      <c r="AF10" s="1">
+      <c r="AJ10" s="2">
+        <v>23</v>
+      </c>
+      <c r="AK10" s="1">
         <v>26</v>
       </c>
-      <c r="AG10" s="1">
+      <c r="AL10" s="1">
+        <v>26</v>
+      </c>
+      <c r="AM10" s="1">
+        <v>22</v>
+      </c>
+      <c r="AN10" s="2">
         <v>23</v>
       </c>
-      <c r="AH10" s="1">
-        <v>21</v>
-      </c>
-      <c r="AI10" s="1">
-        <v>20</v>
-      </c>
-      <c r="AJ10">
-        <v>20</v>
-      </c>
-      <c r="AL10" s="1">
-        <v>32</v>
+      <c r="AO10" s="1">
+        <v>23</v>
+      </c>
+      <c r="AP10" s="2">
+        <v>22</v>
+      </c>
+      <c r="AQ10" s="1">
+        <v>21</v>
+      </c>
+      <c r="AR10" s="2">
+        <v>20</v>
+      </c>
+      <c r="AS10" s="1">
+        <v>20</v>
+      </c>
+      <c r="AT10">
+        <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:38">
+    <row r="11" spans="1:46">
       <c r="A11">
         <v>9</v>
       </c>
@@ -10258,35 +13174,56 @@
       <c r="AA11">
         <v>15</v>
       </c>
-      <c r="AC11" s="1">
+      <c r="AB11" s="1">
+        <v>25</v>
+      </c>
+      <c r="AD11">
+        <v>19</v>
+      </c>
+      <c r="AG11" s="1">
         <v>30</v>
       </c>
-      <c r="AD11" s="1">
+      <c r="AH11" s="1">
         <v>37</v>
       </c>
-      <c r="AE11" s="1">
+      <c r="AI11" s="1">
         <v>24</v>
       </c>
-      <c r="AF11" s="1">
+      <c r="AJ11" s="2">
+        <v>29</v>
+      </c>
+      <c r="AK11" s="1">
         <v>25</v>
-      </c>
-      <c r="AG11" s="1">
-        <v>23</v>
-      </c>
-      <c r="AH11" s="1">
-        <v>20</v>
-      </c>
-      <c r="AI11" s="1">
-        <v>20</v>
-      </c>
-      <c r="AJ11">
-        <v>19</v>
       </c>
       <c r="AL11" s="1">
         <v>25</v>
       </c>
+      <c r="AM11" s="1">
+        <v>24</v>
+      </c>
+      <c r="AN11" s="2">
+        <v>21</v>
+      </c>
+      <c r="AO11" s="1">
+        <v>23</v>
+      </c>
+      <c r="AP11" s="2">
+        <v>22</v>
+      </c>
+      <c r="AQ11" s="1">
+        <v>20</v>
+      </c>
+      <c r="AR11" s="2">
+        <v>20</v>
+      </c>
+      <c r="AS11" s="1">
+        <v>20</v>
+      </c>
+      <c r="AT11">
+        <v>19</v>
+      </c>
     </row>
-    <row r="12" spans="1:38">
+    <row r="12" spans="1:46">
       <c r="A12">
         <v>10</v>
       </c>
@@ -10347,35 +13284,56 @@
       <c r="AA12">
         <v>16</v>
       </c>
-      <c r="AC12" s="1">
+      <c r="AB12" s="1">
+        <v>32</v>
+      </c>
+      <c r="AD12">
+        <v>20</v>
+      </c>
+      <c r="AG12" s="1">
         <v>31</v>
       </c>
-      <c r="AD12" s="1">
+      <c r="AH12" s="1">
         <v>25</v>
       </c>
-      <c r="AE12" s="1">
+      <c r="AI12" s="1">
         <v>31</v>
       </c>
-      <c r="AF12" s="1">
+      <c r="AJ12" s="2">
+        <v>28</v>
+      </c>
+      <c r="AK12" s="1">
         <v>25</v>
       </c>
-      <c r="AG12" s="1">
+      <c r="AL12" s="1">
         <v>24</v>
       </c>
-      <c r="AH12" s="1">
-        <v>21</v>
-      </c>
-      <c r="AI12" s="1">
-        <v>20</v>
-      </c>
-      <c r="AJ12">
-        <v>20</v>
-      </c>
-      <c r="AL12" s="1">
-        <v>32</v>
+      <c r="AM12" s="1">
+        <v>24</v>
+      </c>
+      <c r="AN12" s="2">
+        <v>24</v>
+      </c>
+      <c r="AO12" s="1">
+        <v>24</v>
+      </c>
+      <c r="AP12" s="2">
+        <v>22</v>
+      </c>
+      <c r="AQ12" s="1">
+        <v>21</v>
+      </c>
+      <c r="AR12" s="2">
+        <v>20</v>
+      </c>
+      <c r="AS12" s="1">
+        <v>20</v>
+      </c>
+      <c r="AT12">
+        <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:38">
+    <row r="13" spans="1:46">
       <c r="A13">
         <v>11</v>
       </c>
@@ -10436,35 +13394,56 @@
       <c r="AA13">
         <v>15</v>
       </c>
-      <c r="AC13" s="1">
+      <c r="AB13" s="1">
+        <v>31</v>
+      </c>
+      <c r="AD13">
+        <v>20</v>
+      </c>
+      <c r="AG13" s="1">
         <v>32</v>
       </c>
-      <c r="AD13" s="1">
+      <c r="AH13" s="1">
         <v>35</v>
       </c>
-      <c r="AE13" s="1">
+      <c r="AI13" s="1">
         <v>30</v>
       </c>
-      <c r="AF13" s="1">
+      <c r="AJ13" s="2">
+        <v>28</v>
+      </c>
+      <c r="AK13" s="1">
         <v>25</v>
       </c>
-      <c r="AG13" s="1">
+      <c r="AL13" s="1">
+        <v>24</v>
+      </c>
+      <c r="AM13" s="1">
+        <v>24</v>
+      </c>
+      <c r="AN13" s="2">
+        <v>23</v>
+      </c>
+      <c r="AO13" s="1">
         <v>22</v>
       </c>
-      <c r="AH13" s="1">
-        <v>21</v>
-      </c>
-      <c r="AI13" s="1">
-        <v>21</v>
-      </c>
-      <c r="AJ13">
-        <v>20</v>
-      </c>
-      <c r="AL13" s="1">
-        <v>31</v>
+      <c r="AP13" s="2">
+        <v>22</v>
+      </c>
+      <c r="AQ13" s="1">
+        <v>21</v>
+      </c>
+      <c r="AR13" s="2">
+        <v>20</v>
+      </c>
+      <c r="AS13" s="1">
+        <v>21</v>
+      </c>
+      <c r="AT13">
+        <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:38">
+    <row r="14" spans="1:46">
       <c r="A14">
         <v>12</v>
       </c>
@@ -10525,35 +13504,56 @@
       <c r="AA14">
         <v>15</v>
       </c>
-      <c r="AC14" s="1">
+      <c r="AB14" s="1">
+        <v>25</v>
+      </c>
+      <c r="AD14">
+        <v>19</v>
+      </c>
+      <c r="AG14" s="1">
         <v>33</v>
       </c>
-      <c r="AD14" s="1">
+      <c r="AH14" s="1">
         <v>27</v>
       </c>
-      <c r="AE14" s="1">
+      <c r="AI14" s="1">
         <v>24</v>
       </c>
-      <c r="AF14" s="1">
+      <c r="AJ14" s="2">
+        <v>24</v>
+      </c>
+      <c r="AK14" s="1">
         <v>23</v>
       </c>
-      <c r="AG14" s="1">
+      <c r="AL14" s="1">
+        <v>24</v>
+      </c>
+      <c r="AM14" s="1">
         <v>23</v>
       </c>
-      <c r="AH14" s="1">
-        <v>21</v>
-      </c>
-      <c r="AI14" s="1">
-        <v>20</v>
-      </c>
-      <c r="AJ14">
+      <c r="AN14" s="2">
+        <v>24</v>
+      </c>
+      <c r="AO14" s="1">
+        <v>23</v>
+      </c>
+      <c r="AP14" s="2">
+        <v>22</v>
+      </c>
+      <c r="AQ14" s="1">
+        <v>21</v>
+      </c>
+      <c r="AR14" s="2">
+        <v>20</v>
+      </c>
+      <c r="AS14" s="1">
+        <v>20</v>
+      </c>
+      <c r="AT14">
         <v>19</v>
       </c>
-      <c r="AL14" s="1">
-        <v>25</v>
-      </c>
     </row>
-    <row r="15" spans="1:38">
+    <row r="15" spans="1:46">
       <c r="A15">
         <v>13</v>
       </c>
@@ -10614,35 +13614,56 @@
       <c r="AA15">
         <v>16</v>
       </c>
-      <c r="AC15" s="1">
+      <c r="AB15" s="1">
+        <v>31</v>
+      </c>
+      <c r="AD15">
+        <v>19</v>
+      </c>
+      <c r="AG15" s="1">
         <v>33</v>
       </c>
-      <c r="AD15" s="1">
+      <c r="AH15" s="1">
         <v>37</v>
       </c>
-      <c r="AE15" s="1">
+      <c r="AI15" s="1">
         <v>30</v>
       </c>
-      <c r="AF15" s="1">
+      <c r="AJ15" s="2">
+        <v>29</v>
+      </c>
+      <c r="AK15" s="1">
         <v>25</v>
       </c>
-      <c r="AG15" s="1">
+      <c r="AL15" s="1">
+        <v>24</v>
+      </c>
+      <c r="AM15" s="1">
+        <v>24</v>
+      </c>
+      <c r="AN15" s="2">
+        <v>24</v>
+      </c>
+      <c r="AO15" s="1">
         <v>22</v>
       </c>
-      <c r="AH15" s="1">
-        <v>20</v>
-      </c>
-      <c r="AI15" s="1">
-        <v>20</v>
-      </c>
-      <c r="AJ15">
+      <c r="AP15" s="2">
+        <v>22</v>
+      </c>
+      <c r="AQ15" s="1">
+        <v>20</v>
+      </c>
+      <c r="AR15" s="2">
+        <v>20</v>
+      </c>
+      <c r="AS15" s="1">
+        <v>20</v>
+      </c>
+      <c r="AT15">
         <v>19</v>
       </c>
-      <c r="AL15" s="1">
-        <v>31</v>
-      </c>
     </row>
-    <row r="16" spans="1:38">
+    <row r="16" spans="1:46">
       <c r="A16">
         <v>14</v>
       </c>
@@ -10703,35 +13724,56 @@
       <c r="AA16">
         <v>15</v>
       </c>
-      <c r="AC16" s="1">
+      <c r="AB16" s="1">
+        <v>32</v>
+      </c>
+      <c r="AD16">
+        <v>19</v>
+      </c>
+      <c r="AG16" s="1">
         <v>35</v>
       </c>
-      <c r="AD16" s="1">
+      <c r="AH16" s="1">
         <v>28</v>
       </c>
-      <c r="AE16" s="1">
+      <c r="AI16" s="1">
         <v>31</v>
       </c>
-      <c r="AF16" s="1">
+      <c r="AJ16" s="2">
+        <v>28</v>
+      </c>
+      <c r="AK16" s="1">
         <v>25</v>
       </c>
-      <c r="AG16" s="1">
+      <c r="AL16" s="1">
+        <v>23</v>
+      </c>
+      <c r="AM16" s="1">
+        <v>24</v>
+      </c>
+      <c r="AN16" s="2">
+        <v>23</v>
+      </c>
+      <c r="AO16" s="1">
         <v>22</v>
       </c>
-      <c r="AH16" s="1">
-        <v>21</v>
-      </c>
-      <c r="AI16" s="1">
-        <v>20</v>
-      </c>
-      <c r="AJ16">
+      <c r="AP16" s="2">
+        <v>22</v>
+      </c>
+      <c r="AQ16" s="1">
+        <v>21</v>
+      </c>
+      <c r="AR16" s="2">
+        <v>20</v>
+      </c>
+      <c r="AS16" s="1">
+        <v>20</v>
+      </c>
+      <c r="AT16">
         <v>19</v>
       </c>
-      <c r="AL16" s="1">
-        <v>32</v>
-      </c>
     </row>
-    <row r="17" spans="1:38">
+    <row r="17" spans="1:46">
       <c r="A17">
         <v>15</v>
       </c>
@@ -10792,35 +13834,56 @@
       <c r="AA17">
         <v>15</v>
       </c>
-      <c r="AC17" s="1">
+      <c r="AB17" s="1">
+        <v>26</v>
+      </c>
+      <c r="AD17">
+        <v>19</v>
+      </c>
+      <c r="AG17" s="1">
         <v>35</v>
       </c>
-      <c r="AD17" s="1">
+      <c r="AH17" s="1">
         <v>36</v>
       </c>
-      <c r="AE17" s="1">
+      <c r="AI17" s="1">
         <v>25</v>
       </c>
-      <c r="AF17" s="1">
+      <c r="AJ17" s="2">
+        <v>28</v>
+      </c>
+      <c r="AK17" s="1">
         <v>26</v>
       </c>
-      <c r="AG17" s="1">
+      <c r="AL17" s="1">
+        <v>24</v>
+      </c>
+      <c r="AM17" s="1">
+        <v>24</v>
+      </c>
+      <c r="AN17" s="2">
         <v>23</v>
       </c>
-      <c r="AH17" s="1">
-        <v>20</v>
-      </c>
-      <c r="AI17" s="1">
-        <v>20</v>
-      </c>
-      <c r="AJ17">
+      <c r="AO17" s="1">
+        <v>23</v>
+      </c>
+      <c r="AP17" s="2">
+        <v>21</v>
+      </c>
+      <c r="AQ17" s="1">
+        <v>20</v>
+      </c>
+      <c r="AR17" s="2">
+        <v>20</v>
+      </c>
+      <c r="AS17" s="1">
+        <v>20</v>
+      </c>
+      <c r="AT17">
         <v>19</v>
       </c>
-      <c r="AL17" s="1">
-        <v>26</v>
-      </c>
     </row>
-    <row r="18" spans="1:38">
+    <row r="18" spans="1:46">
       <c r="A18">
         <v>16</v>
       </c>
@@ -10881,35 +13944,56 @@
       <c r="AA18">
         <v>16</v>
       </c>
-      <c r="AC18" s="1">
+      <c r="AB18" s="1">
+        <v>33</v>
+      </c>
+      <c r="AD18">
+        <v>20</v>
+      </c>
+      <c r="AG18" s="1">
         <v>37</v>
       </c>
-      <c r="AD18" s="1">
+      <c r="AH18" s="1">
         <v>29</v>
       </c>
-      <c r="AE18" s="1">
+      <c r="AI18" s="1">
         <v>32</v>
       </c>
-      <c r="AF18" s="1">
+      <c r="AJ18" s="2">
         <v>25</v>
       </c>
-      <c r="AG18" s="1">
+      <c r="AK18" s="1">
+        <v>25</v>
+      </c>
+      <c r="AL18" s="1">
+        <v>25</v>
+      </c>
+      <c r="AM18" s="1">
         <v>22</v>
       </c>
-      <c r="AH18" s="1">
-        <v>21</v>
-      </c>
-      <c r="AI18" s="1">
-        <v>20</v>
-      </c>
-      <c r="AJ18">
-        <v>20</v>
-      </c>
-      <c r="AL18" s="1">
-        <v>33</v>
+      <c r="AN18" s="2">
+        <v>23</v>
+      </c>
+      <c r="AO18" s="1">
+        <v>22</v>
+      </c>
+      <c r="AP18" s="2">
+        <v>22</v>
+      </c>
+      <c r="AQ18" s="1">
+        <v>21</v>
+      </c>
+      <c r="AR18" s="2">
+        <v>20</v>
+      </c>
+      <c r="AS18" s="1">
+        <v>20</v>
+      </c>
+      <c r="AT18">
+        <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:38">
+    <row r="19" spans="1:46">
       <c r="A19">
         <v>17</v>
       </c>
@@ -10970,35 +14054,56 @@
       <c r="AA19">
         <v>16</v>
       </c>
-      <c r="AC19" s="1">
+      <c r="AB19" s="1">
+        <v>33</v>
+      </c>
+      <c r="AD19">
+        <v>19</v>
+      </c>
+      <c r="AG19" s="1">
         <v>38</v>
       </c>
-      <c r="AD19" s="1">
+      <c r="AH19" s="1">
         <v>37</v>
       </c>
-      <c r="AE19" s="1">
+      <c r="AI19" s="1">
         <v>32</v>
       </c>
-      <c r="AF19" s="1">
+      <c r="AJ19" s="2">
+        <v>27</v>
+      </c>
+      <c r="AK19" s="1">
         <v>26</v>
       </c>
-      <c r="AG19" s="1">
+      <c r="AL19" s="1">
+        <v>24</v>
+      </c>
+      <c r="AM19" s="1">
+        <v>24</v>
+      </c>
+      <c r="AN19" s="2">
+        <v>23</v>
+      </c>
+      <c r="AO19" s="1">
         <v>22</v>
       </c>
-      <c r="AH19" s="1">
-        <v>21</v>
-      </c>
-      <c r="AI19" s="1">
-        <v>20</v>
-      </c>
-      <c r="AJ19">
+      <c r="AP19" s="2">
+        <v>22</v>
+      </c>
+      <c r="AQ19" s="1">
+        <v>21</v>
+      </c>
+      <c r="AR19" s="2">
+        <v>21</v>
+      </c>
+      <c r="AS19" s="1">
+        <v>20</v>
+      </c>
+      <c r="AT19">
         <v>19</v>
       </c>
-      <c r="AL19" s="1">
-        <v>33</v>
-      </c>
     </row>
-    <row r="20" spans="1:38">
+    <row r="20" spans="1:46">
       <c r="A20">
         <v>18</v>
       </c>
@@ -11059,35 +14164,56 @@
       <c r="AA20">
         <v>16</v>
       </c>
-      <c r="AC20" s="1">
+      <c r="AB20" s="1">
+        <v>27</v>
+      </c>
+      <c r="AD20">
+        <v>20</v>
+      </c>
+      <c r="AG20" s="1">
         <v>39</v>
       </c>
-      <c r="AD20" s="1">
+      <c r="AH20" s="1">
         <v>30</v>
       </c>
-      <c r="AE20" s="1">
+      <c r="AI20" s="1">
         <v>26</v>
       </c>
-      <c r="AF20" s="1">
+      <c r="AJ20" s="2">
+        <v>27</v>
+      </c>
+      <c r="AK20" s="1">
         <v>24</v>
       </c>
-      <c r="AG20" s="1">
+      <c r="AL20" s="1">
+        <v>24</v>
+      </c>
+      <c r="AM20" s="1">
+        <v>24</v>
+      </c>
+      <c r="AN20" s="2">
+        <v>23</v>
+      </c>
+      <c r="AO20" s="1">
         <v>22</v>
       </c>
-      <c r="AH20" s="1">
-        <v>21</v>
-      </c>
-      <c r="AI20" s="1">
-        <v>20</v>
-      </c>
-      <c r="AJ20">
-        <v>20</v>
-      </c>
-      <c r="AL20" s="1">
-        <v>27</v>
+      <c r="AP20" s="2">
+        <v>22</v>
+      </c>
+      <c r="AQ20" s="1">
+        <v>21</v>
+      </c>
+      <c r="AR20" s="2">
+        <v>20</v>
+      </c>
+      <c r="AS20" s="1">
+        <v>20</v>
+      </c>
+      <c r="AT20">
+        <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:38">
+    <row r="21" spans="1:46">
       <c r="A21">
         <v>19</v>
       </c>
@@ -11148,35 +14274,56 @@
       <c r="AA21">
         <v>15</v>
       </c>
-      <c r="AC21" s="1">
+      <c r="AB21" s="1">
+        <v>29</v>
+      </c>
+      <c r="AD21">
+        <v>19</v>
+      </c>
+      <c r="AG21" s="1">
         <v>41</v>
       </c>
-      <c r="AD21" s="1">
+      <c r="AH21" s="1">
         <v>37</v>
       </c>
-      <c r="AE21" s="1">
+      <c r="AI21" s="1">
         <v>28</v>
       </c>
-      <c r="AF21" s="1">
+      <c r="AJ21" s="2">
+        <v>29</v>
+      </c>
+      <c r="AK21" s="1">
         <v>26</v>
       </c>
-      <c r="AG21" s="1">
+      <c r="AL21" s="1">
+        <v>25</v>
+      </c>
+      <c r="AM21" s="1">
+        <v>24</v>
+      </c>
+      <c r="AN21" s="2">
+        <v>24</v>
+      </c>
+      <c r="AO21" s="1">
         <v>22</v>
       </c>
-      <c r="AH21" s="1">
-        <v>20</v>
-      </c>
-      <c r="AI21" s="1">
-        <v>20</v>
-      </c>
-      <c r="AJ21">
+      <c r="AP21" s="2">
+        <v>20</v>
+      </c>
+      <c r="AQ21" s="1">
+        <v>20</v>
+      </c>
+      <c r="AR21" s="2">
+        <v>20</v>
+      </c>
+      <c r="AS21" s="1">
+        <v>20</v>
+      </c>
+      <c r="AT21">
         <v>19</v>
       </c>
-      <c r="AL21" s="1">
-        <v>29</v>
-      </c>
     </row>
-    <row r="22" spans="1:38">
+    <row r="22" spans="1:46">
       <c r="A22">
         <v>20</v>
       </c>
@@ -11237,35 +14384,56 @@
       <c r="AA22">
         <v>16</v>
       </c>
-      <c r="AC22" s="1">
+      <c r="AB22" s="1">
+        <v>32</v>
+      </c>
+      <c r="AD22">
+        <v>19</v>
+      </c>
+      <c r="AG22" s="1">
         <v>41</v>
       </c>
-      <c r="AD22" s="1">
+      <c r="AH22" s="1">
         <v>30</v>
       </c>
-      <c r="AE22" s="1">
+      <c r="AI22" s="1">
         <v>31</v>
       </c>
-      <c r="AF22" s="1">
+      <c r="AJ22" s="2">
+        <v>25</v>
+      </c>
+      <c r="AK22" s="1">
         <v>26</v>
       </c>
-      <c r="AG22" s="1">
+      <c r="AL22" s="1">
+        <v>24</v>
+      </c>
+      <c r="AM22" s="1">
+        <v>24</v>
+      </c>
+      <c r="AN22" s="2">
         <v>23</v>
       </c>
-      <c r="AH22" s="1">
-        <v>21</v>
-      </c>
-      <c r="AI22" s="1">
-        <v>20</v>
-      </c>
-      <c r="AJ22">
+      <c r="AO22" s="1">
+        <v>23</v>
+      </c>
+      <c r="AP22" s="2">
+        <v>22</v>
+      </c>
+      <c r="AQ22" s="1">
+        <v>21</v>
+      </c>
+      <c r="AR22" s="2">
+        <v>20</v>
+      </c>
+      <c r="AS22" s="1">
+        <v>20</v>
+      </c>
+      <c r="AT22">
         <v>19</v>
       </c>
-      <c r="AL22" s="1">
-        <v>32</v>
-      </c>
     </row>
-    <row r="23" spans="1:38">
+    <row r="23" spans="1:46">
       <c r="A23">
         <v>21</v>
       </c>
@@ -11326,35 +14494,56 @@
       <c r="AA23">
         <v>15</v>
       </c>
-      <c r="AC23" s="1">
+      <c r="AB23" s="1">
+        <v>29</v>
+      </c>
+      <c r="AD23">
+        <v>20</v>
+      </c>
+      <c r="AG23" s="1">
         <v>42</v>
       </c>
-      <c r="AD23" s="1">
+      <c r="AH23" s="1">
         <v>35</v>
       </c>
-      <c r="AE23" s="1">
+      <c r="AI23" s="1">
         <v>28</v>
       </c>
-      <c r="AF23" s="1">
+      <c r="AJ23" s="2">
+        <v>28</v>
+      </c>
+      <c r="AK23" s="1">
         <v>26</v>
       </c>
-      <c r="AG23" s="1">
+      <c r="AL23" s="1">
+        <v>24</v>
+      </c>
+      <c r="AM23" s="1">
+        <v>24</v>
+      </c>
+      <c r="AN23" s="2">
         <v>23</v>
       </c>
-      <c r="AH23" s="1">
-        <v>21</v>
-      </c>
-      <c r="AI23" s="1">
-        <v>21</v>
-      </c>
-      <c r="AJ23">
-        <v>20</v>
-      </c>
-      <c r="AL23" s="1">
-        <v>29</v>
+      <c r="AO23" s="1">
+        <v>23</v>
+      </c>
+      <c r="AP23" s="2">
+        <v>22</v>
+      </c>
+      <c r="AQ23" s="1">
+        <v>21</v>
+      </c>
+      <c r="AR23" s="2">
+        <v>21</v>
+      </c>
+      <c r="AS23" s="1">
+        <v>21</v>
+      </c>
+      <c r="AT23">
+        <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:38">
+    <row r="24" spans="1:46">
       <c r="A24">
         <v>22</v>
       </c>
@@ -11415,35 +14604,56 @@
       <c r="AA24">
         <v>16</v>
       </c>
-      <c r="AC24" s="1">
+      <c r="AB24" s="1">
+        <v>31</v>
+      </c>
+      <c r="AD24">
+        <v>20</v>
+      </c>
+      <c r="AG24" s="1">
         <v>42</v>
       </c>
-      <c r="AD24" s="1">
+      <c r="AH24" s="1">
         <v>32</v>
       </c>
-      <c r="AE24" s="1">
+      <c r="AI24" s="1">
         <v>30</v>
       </c>
-      <c r="AF24" s="1">
+      <c r="AJ24" s="2">
+        <v>28</v>
+      </c>
+      <c r="AK24" s="1">
         <v>25</v>
       </c>
-      <c r="AG24" s="1">
+      <c r="AL24" s="1">
+        <v>25</v>
+      </c>
+      <c r="AM24" s="1">
         <v>23</v>
       </c>
-      <c r="AH24" s="1">
+      <c r="AN24" s="2">
+        <v>24</v>
+      </c>
+      <c r="AO24" s="1">
+        <v>23</v>
+      </c>
+      <c r="AP24" s="2">
         <v>22</v>
       </c>
-      <c r="AI24" s="1">
-        <v>21</v>
-      </c>
-      <c r="AJ24">
-        <v>20</v>
-      </c>
-      <c r="AL24" s="1">
-        <v>31</v>
+      <c r="AQ24" s="1">
+        <v>22</v>
+      </c>
+      <c r="AR24" s="2">
+        <v>20</v>
+      </c>
+      <c r="AS24" s="1">
+        <v>21</v>
+      </c>
+      <c r="AT24">
+        <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:38">
+    <row r="25" spans="1:46">
       <c r="A25">
         <v>23</v>
       </c>
@@ -11504,35 +14714,56 @@
       <c r="AA25">
         <v>17</v>
       </c>
-      <c r="AC25" s="1">
+      <c r="AB25" s="1">
+        <v>33</v>
+      </c>
+      <c r="AD25">
+        <v>19</v>
+      </c>
+      <c r="AG25" s="1">
         <v>43</v>
       </c>
-      <c r="AD25" s="1">
+      <c r="AH25" s="1">
         <v>37</v>
       </c>
-      <c r="AE25" s="1">
+      <c r="AI25" s="1">
         <v>32</v>
       </c>
-      <c r="AF25" s="1">
+      <c r="AJ25" s="2">
+        <v>29</v>
+      </c>
+      <c r="AK25" s="1">
         <v>26</v>
       </c>
-      <c r="AG25" s="1">
+      <c r="AL25" s="1">
+        <v>24</v>
+      </c>
+      <c r="AM25" s="1">
+        <v>24</v>
+      </c>
+      <c r="AN25" s="2">
+        <v>24</v>
+      </c>
+      <c r="AO25" s="1">
         <v>23</v>
       </c>
-      <c r="AH25" s="1">
-        <v>21</v>
-      </c>
-      <c r="AI25" s="1">
-        <v>20</v>
-      </c>
-      <c r="AJ25">
+      <c r="AP25" s="2">
+        <v>21</v>
+      </c>
+      <c r="AQ25" s="1">
+        <v>21</v>
+      </c>
+      <c r="AR25" s="2">
+        <v>20</v>
+      </c>
+      <c r="AS25" s="1">
+        <v>20</v>
+      </c>
+      <c r="AT25">
         <v>19</v>
       </c>
-      <c r="AL25" s="1">
-        <v>33</v>
-      </c>
     </row>
-    <row r="26" spans="1:38">
+    <row r="26" spans="1:46">
       <c r="A26">
         <v>24</v>
       </c>
@@ -11593,35 +14824,56 @@
       <c r="AA26">
         <v>16</v>
       </c>
-      <c r="AC26" s="1">
+      <c r="AB26" s="1">
+        <v>30</v>
+      </c>
+      <c r="AD26">
+        <v>19</v>
+      </c>
+      <c r="AG26" s="1">
         <v>45</v>
       </c>
-      <c r="AD26" s="1">
+      <c r="AH26" s="1">
         <v>32</v>
       </c>
-      <c r="AE26" s="1">
+      <c r="AI26" s="1">
         <v>29</v>
       </c>
-      <c r="AF26" s="1">
+      <c r="AJ26" s="2">
+        <v>27</v>
+      </c>
+      <c r="AK26" s="1">
         <v>25</v>
       </c>
-      <c r="AG26" s="1">
+      <c r="AL26" s="1">
+        <v>25</v>
+      </c>
+      <c r="AM26" s="1">
+        <v>24</v>
+      </c>
+      <c r="AN26" s="2">
+        <v>24</v>
+      </c>
+      <c r="AO26" s="1">
         <v>23</v>
       </c>
-      <c r="AH26" s="1">
-        <v>21</v>
-      </c>
-      <c r="AI26" s="1">
-        <v>20</v>
-      </c>
-      <c r="AJ26">
+      <c r="AP26" s="2">
+        <v>21</v>
+      </c>
+      <c r="AQ26" s="1">
+        <v>21</v>
+      </c>
+      <c r="AR26" s="2">
+        <v>21</v>
+      </c>
+      <c r="AS26" s="1">
+        <v>20</v>
+      </c>
+      <c r="AT26">
         <v>19</v>
       </c>
-      <c r="AL26" s="1">
-        <v>30</v>
-      </c>
     </row>
-    <row r="27" spans="1:38">
+    <row r="27" spans="1:46">
       <c r="A27">
         <v>25</v>
       </c>
@@ -11682,35 +14934,56 @@
       <c r="AA27">
         <v>16</v>
       </c>
-      <c r="AC27" s="1">
+      <c r="AB27" s="1">
+        <v>31</v>
+      </c>
+      <c r="AD27">
+        <v>19</v>
+      </c>
+      <c r="AG27" s="1">
         <v>48</v>
       </c>
-      <c r="AD27" s="1">
+      <c r="AH27" s="1">
         <v>35</v>
       </c>
-      <c r="AE27" s="1">
+      <c r="AI27" s="1">
         <v>30</v>
       </c>
-      <c r="AF27" s="1">
+      <c r="AJ27" s="2">
+        <v>28</v>
+      </c>
+      <c r="AK27" s="1">
         <v>26</v>
       </c>
-      <c r="AG27" s="1">
+      <c r="AL27" s="1">
+        <v>25</v>
+      </c>
+      <c r="AM27" s="1">
+        <v>24</v>
+      </c>
+      <c r="AN27" s="2">
+        <v>23</v>
+      </c>
+      <c r="AO27" s="1">
         <v>22</v>
       </c>
-      <c r="AH27" s="1">
-        <v>21</v>
-      </c>
-      <c r="AI27" s="1">
-        <v>20</v>
-      </c>
-      <c r="AJ27">
+      <c r="AP27" s="2">
+        <v>21</v>
+      </c>
+      <c r="AQ27" s="1">
+        <v>21</v>
+      </c>
+      <c r="AR27" s="2">
+        <v>20</v>
+      </c>
+      <c r="AS27" s="1">
+        <v>20</v>
+      </c>
+      <c r="AT27">
         <v>19</v>
       </c>
-      <c r="AL27" s="1">
-        <v>31</v>
-      </c>
     </row>
-    <row r="28" spans="1:38">
+    <row r="28" spans="1:46">
       <c r="A28">
         <v>26</v>
       </c>
@@ -11771,35 +15044,56 @@
       <c r="AA28">
         <v>14</v>
       </c>
-      <c r="AC28" s="1">
+      <c r="AB28" s="1">
+        <v>31</v>
+      </c>
+      <c r="AD28">
+        <v>19</v>
+      </c>
+      <c r="AG28" s="1">
         <v>46</v>
       </c>
-      <c r="AD28" s="1">
+      <c r="AH28" s="1">
         <v>33</v>
       </c>
-      <c r="AE28" s="1">
+      <c r="AI28" s="1">
         <v>30</v>
       </c>
-      <c r="AF28" s="1">
+      <c r="AJ28" s="2">
+        <v>28</v>
+      </c>
+      <c r="AK28" s="1">
         <v>25</v>
       </c>
-      <c r="AG28" s="1">
+      <c r="AL28" s="1">
+        <v>24</v>
+      </c>
+      <c r="AM28" s="1">
+        <v>24</v>
+      </c>
+      <c r="AN28" s="2">
+        <v>24</v>
+      </c>
+      <c r="AO28" s="1">
         <v>23</v>
       </c>
-      <c r="AH28" s="1">
-        <v>20</v>
-      </c>
-      <c r="AI28" s="1">
-        <v>20</v>
-      </c>
-      <c r="AJ28">
+      <c r="AP28" s="2">
+        <v>21</v>
+      </c>
+      <c r="AQ28" s="1">
+        <v>20</v>
+      </c>
+      <c r="AR28" s="2">
+        <v>21</v>
+      </c>
+      <c r="AS28" s="1">
+        <v>20</v>
+      </c>
+      <c r="AT28">
         <v>19</v>
       </c>
-      <c r="AL28" s="1">
-        <v>31</v>
-      </c>
     </row>
-    <row r="29" spans="1:38">
+    <row r="29" spans="1:46">
       <c r="A29">
         <v>27</v>
       </c>
@@ -11860,35 +15154,56 @@
       <c r="AA29">
         <v>16</v>
       </c>
-      <c r="AC29" s="1">
+      <c r="AB29" s="1">
+        <v>31</v>
+      </c>
+      <c r="AD29">
+        <v>19</v>
+      </c>
+      <c r="AG29" s="1">
         <v>47</v>
       </c>
-      <c r="AD29" s="1">
+      <c r="AH29" s="1">
         <v>38</v>
       </c>
-      <c r="AE29" s="1">
+      <c r="AI29" s="1">
         <v>30</v>
       </c>
-      <c r="AF29" s="1">
+      <c r="AJ29" s="2">
+        <v>29</v>
+      </c>
+      <c r="AK29" s="1">
         <v>26</v>
       </c>
-      <c r="AG29" s="1">
+      <c r="AL29" s="1">
+        <v>24</v>
+      </c>
+      <c r="AM29" s="1">
         <v>23</v>
       </c>
-      <c r="AH29" s="1">
-        <v>21</v>
-      </c>
-      <c r="AI29" s="1">
-        <v>20</v>
-      </c>
-      <c r="AJ29">
+      <c r="AN29" s="2">
+        <v>23</v>
+      </c>
+      <c r="AO29" s="1">
+        <v>23</v>
+      </c>
+      <c r="AP29" s="2">
+        <v>21</v>
+      </c>
+      <c r="AQ29" s="1">
+        <v>21</v>
+      </c>
+      <c r="AR29" s="2">
+        <v>20</v>
+      </c>
+      <c r="AS29" s="1">
+        <v>20</v>
+      </c>
+      <c r="AT29">
         <v>19</v>
       </c>
-      <c r="AL29" s="1">
-        <v>31</v>
-      </c>
     </row>
-    <row r="30" spans="1:38">
+    <row r="30" spans="1:46">
       <c r="A30">
         <v>28</v>
       </c>
@@ -11949,35 +15264,56 @@
       <c r="AA30">
         <v>15</v>
       </c>
-      <c r="AC30" s="1">
+      <c r="AB30" s="1">
+        <v>33</v>
+      </c>
+      <c r="AD30">
+        <v>20</v>
+      </c>
+      <c r="AG30" s="1">
         <v>48</v>
       </c>
-      <c r="AD30" s="1">
+      <c r="AH30" s="1">
         <v>36</v>
       </c>
-      <c r="AE30" s="1">
+      <c r="AI30" s="1">
         <v>32</v>
       </c>
-      <c r="AF30" s="1">
+      <c r="AJ30" s="2">
+        <v>27</v>
+      </c>
+      <c r="AK30" s="1">
         <v>25</v>
       </c>
-      <c r="AG30" s="1">
+      <c r="AL30" s="1">
+        <v>24</v>
+      </c>
+      <c r="AM30" s="1">
+        <v>24</v>
+      </c>
+      <c r="AN30" s="2">
+        <v>24</v>
+      </c>
+      <c r="AO30" s="1">
         <v>23</v>
       </c>
-      <c r="AH30" s="1">
-        <v>21</v>
-      </c>
-      <c r="AI30" s="1">
-        <v>20</v>
-      </c>
-      <c r="AJ30">
-        <v>20</v>
-      </c>
-      <c r="AL30" s="1">
-        <v>33</v>
+      <c r="AP30" s="2">
+        <v>21</v>
+      </c>
+      <c r="AQ30" s="1">
+        <v>21</v>
+      </c>
+      <c r="AR30" s="2">
+        <v>20</v>
+      </c>
+      <c r="AS30" s="1">
+        <v>20</v>
+      </c>
+      <c r="AT30">
+        <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:38">
+    <row r="31" spans="1:46">
       <c r="A31">
         <v>29</v>
       </c>
@@ -12038,35 +15374,56 @@
       <c r="AA31">
         <v>16</v>
       </c>
-      <c r="AC31" s="1">
+      <c r="AB31" s="1">
+        <v>31</v>
+      </c>
+      <c r="AD31">
+        <v>19</v>
+      </c>
+      <c r="AG31" s="1">
         <v>50</v>
       </c>
-      <c r="AD31" s="1">
+      <c r="AH31" s="1">
         <v>35</v>
       </c>
-      <c r="AE31" s="1">
+      <c r="AI31" s="1">
         <v>30</v>
       </c>
-      <c r="AF31" s="1">
+      <c r="AJ31" s="2">
+        <v>28</v>
+      </c>
+      <c r="AK31" s="1">
         <v>25</v>
       </c>
-      <c r="AG31" s="1">
+      <c r="AL31" s="1">
+        <v>24</v>
+      </c>
+      <c r="AM31" s="1">
+        <v>24</v>
+      </c>
+      <c r="AN31" s="2">
+        <v>24</v>
+      </c>
+      <c r="AO31" s="1">
         <v>22</v>
       </c>
-      <c r="AH31" s="1">
-        <v>21</v>
-      </c>
-      <c r="AI31" s="1">
-        <v>20</v>
-      </c>
-      <c r="AJ31">
+      <c r="AP31" s="2">
+        <v>22</v>
+      </c>
+      <c r="AQ31" s="1">
+        <v>21</v>
+      </c>
+      <c r="AR31" s="2">
+        <v>20</v>
+      </c>
+      <c r="AS31" s="1">
+        <v>20</v>
+      </c>
+      <c r="AT31">
         <v>19</v>
       </c>
-      <c r="AL31" s="1">
-        <v>31</v>
-      </c>
     </row>
-    <row r="32" spans="1:38">
+    <row r="32" spans="1:46">
       <c r="A32">
         <v>30</v>
       </c>
@@ -12127,35 +15484,56 @@
       <c r="AA32">
         <v>17</v>
       </c>
-      <c r="AC32" s="1">
+      <c r="AB32" s="1">
+        <v>32</v>
+      </c>
+      <c r="AD32">
+        <v>20</v>
+      </c>
+      <c r="AG32" s="1">
         <v>52</v>
       </c>
-      <c r="AD32" s="1">
+      <c r="AH32" s="1">
         <v>36</v>
       </c>
-      <c r="AE32" s="1">
+      <c r="AI32" s="1">
         <v>31</v>
       </c>
-      <c r="AF32" s="1">
+      <c r="AJ32" s="2">
+        <v>28</v>
+      </c>
+      <c r="AK32" s="1">
         <v>26</v>
       </c>
-      <c r="AG32" s="1">
+      <c r="AL32" s="1">
         <v>24</v>
       </c>
-      <c r="AH32" s="1">
-        <v>21</v>
-      </c>
-      <c r="AI32" s="1">
-        <v>20</v>
-      </c>
-      <c r="AJ32">
-        <v>20</v>
-      </c>
-      <c r="AL32" s="1">
-        <v>32</v>
+      <c r="AM32" s="1">
+        <v>24</v>
+      </c>
+      <c r="AN32" s="2">
+        <v>24</v>
+      </c>
+      <c r="AO32" s="1">
+        <v>24</v>
+      </c>
+      <c r="AP32" s="2">
+        <v>21</v>
+      </c>
+      <c r="AQ32" s="1">
+        <v>21</v>
+      </c>
+      <c r="AR32" s="2">
+        <v>20</v>
+      </c>
+      <c r="AS32" s="1">
+        <v>20</v>
+      </c>
+      <c r="AT32">
+        <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:38">
+    <row r="33" spans="1:46">
       <c r="A33">
         <v>31</v>
       </c>
@@ -12216,35 +15594,56 @@
       <c r="AA33">
         <v>16</v>
       </c>
-      <c r="AC33" s="1">
+      <c r="AB33" s="1">
+        <v>32</v>
+      </c>
+      <c r="AD33">
+        <v>19</v>
+      </c>
+      <c r="AG33" s="1">
         <v>51</v>
       </c>
-      <c r="AD33" s="1">
+      <c r="AH33" s="1">
         <v>37</v>
       </c>
-      <c r="AE33" s="1">
+      <c r="AI33" s="1">
         <v>31</v>
       </c>
-      <c r="AF33" s="1">
+      <c r="AJ33" s="2">
+        <v>29</v>
+      </c>
+      <c r="AK33" s="1">
         <v>26</v>
       </c>
-      <c r="AG33" s="1">
+      <c r="AL33" s="1">
+        <v>26</v>
+      </c>
+      <c r="AM33" s="1">
+        <v>24</v>
+      </c>
+      <c r="AN33" s="2">
+        <v>24</v>
+      </c>
+      <c r="AO33" s="1">
         <v>23</v>
       </c>
-      <c r="AH33" s="1">
-        <v>21</v>
-      </c>
-      <c r="AI33" s="1">
-        <v>20</v>
-      </c>
-      <c r="AJ33">
+      <c r="AP33" s="2">
+        <v>22</v>
+      </c>
+      <c r="AQ33" s="1">
+        <v>21</v>
+      </c>
+      <c r="AR33" s="2">
+        <v>20</v>
+      </c>
+      <c r="AS33" s="1">
+        <v>20</v>
+      </c>
+      <c r="AT33">
         <v>19</v>
       </c>
-      <c r="AL33" s="1">
-        <v>32</v>
-      </c>
     </row>
-    <row r="34" spans="1:38">
+    <row r="34" spans="1:46">
       <c r="A34">
         <v>32</v>
       </c>
@@ -12305,35 +15704,56 @@
       <c r="AA34">
         <v>16</v>
       </c>
-      <c r="AC34" s="1">
+      <c r="AB34" s="1">
+        <v>30</v>
+      </c>
+      <c r="AD34">
+        <v>20</v>
+      </c>
+      <c r="AG34" s="1">
         <v>54</v>
       </c>
-      <c r="AD34" s="1">
+      <c r="AH34" s="1">
         <v>37</v>
       </c>
-      <c r="AE34" s="1">
+      <c r="AI34" s="1">
         <v>29</v>
       </c>
-      <c r="AF34" s="1">
+      <c r="AJ34" s="2">
+        <v>29</v>
+      </c>
+      <c r="AK34" s="1">
         <v>25</v>
       </c>
-      <c r="AG34" s="1">
+      <c r="AL34" s="1">
+        <v>25</v>
+      </c>
+      <c r="AM34" s="1">
+        <v>24</v>
+      </c>
+      <c r="AN34" s="2">
+        <v>23</v>
+      </c>
+      <c r="AO34" s="1">
         <v>22</v>
       </c>
-      <c r="AH34" s="1">
-        <v>21</v>
-      </c>
-      <c r="AI34" s="1">
-        <v>20</v>
-      </c>
-      <c r="AJ34">
-        <v>20</v>
-      </c>
-      <c r="AL34" s="1">
-        <v>30</v>
+      <c r="AP34" s="2">
+        <v>22</v>
+      </c>
+      <c r="AQ34" s="1">
+        <v>21</v>
+      </c>
+      <c r="AR34" s="2">
+        <v>21</v>
+      </c>
+      <c r="AS34" s="1">
+        <v>20</v>
+      </c>
+      <c r="AT34">
+        <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:38">
+    <row r="35" spans="1:46">
       <c r="A35">
         <v>33</v>
       </c>
@@ -12394,35 +15814,56 @@
       <c r="AA35">
         <v>16</v>
       </c>
-      <c r="AC35" s="1">
+      <c r="AB35" s="1">
+        <v>32</v>
+      </c>
+      <c r="AD35">
+        <v>20</v>
+      </c>
+      <c r="AG35" s="1">
         <v>53</v>
       </c>
-      <c r="AD35" s="1">
+      <c r="AH35" s="1">
         <v>35</v>
       </c>
-      <c r="AE35" s="1">
+      <c r="AI35" s="1">
         <v>31</v>
       </c>
-      <c r="AF35" s="1">
+      <c r="AJ35" s="2">
+        <v>28</v>
+      </c>
+      <c r="AK35" s="1">
         <v>24</v>
       </c>
-      <c r="AG35" s="1">
+      <c r="AL35" s="1">
+        <v>25</v>
+      </c>
+      <c r="AM35" s="1">
         <v>24</v>
       </c>
-      <c r="AH35" s="1">
-        <v>21</v>
-      </c>
-      <c r="AI35" s="1">
+      <c r="AN35" s="2">
+        <v>24</v>
+      </c>
+      <c r="AO35" s="1">
+        <v>24</v>
+      </c>
+      <c r="AP35" s="2">
         <v>22</v>
       </c>
-      <c r="AJ35">
-        <v>20</v>
-      </c>
-      <c r="AL35" s="1">
-        <v>32</v>
+      <c r="AQ35" s="1">
+        <v>21</v>
+      </c>
+      <c r="AR35" s="2">
+        <v>20</v>
+      </c>
+      <c r="AS35" s="1">
+        <v>22</v>
+      </c>
+      <c r="AT35">
+        <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:38">
+    <row r="36" spans="1:46">
       <c r="A36">
         <v>34</v>
       </c>
@@ -12483,35 +15924,56 @@
       <c r="AA36">
         <v>16</v>
       </c>
-      <c r="AC36" s="1">
+      <c r="AB36" s="1">
+        <v>31</v>
+      </c>
+      <c r="AD36">
+        <v>19</v>
+      </c>
+      <c r="AG36" s="1">
         <v>55</v>
       </c>
-      <c r="AD36" s="1">
+      <c r="AH36" s="1">
         <v>37</v>
       </c>
-      <c r="AE36" s="1">
+      <c r="AI36" s="1">
         <v>30</v>
       </c>
-      <c r="AF36" s="1">
+      <c r="AJ36" s="2">
+        <v>29</v>
+      </c>
+      <c r="AK36" s="1">
         <v>25</v>
       </c>
-      <c r="AG36" s="1">
+      <c r="AL36" s="1">
+        <v>23</v>
+      </c>
+      <c r="AM36" s="1">
+        <v>25</v>
+      </c>
+      <c r="AN36" s="2">
+        <v>23</v>
+      </c>
+      <c r="AO36" s="1">
         <v>22</v>
       </c>
-      <c r="AH36" s="1">
-        <v>21</v>
-      </c>
-      <c r="AI36" s="1">
-        <v>20</v>
-      </c>
-      <c r="AJ36">
+      <c r="AP36" s="2">
+        <v>22</v>
+      </c>
+      <c r="AQ36" s="1">
+        <v>21</v>
+      </c>
+      <c r="AR36" s="2">
+        <v>22</v>
+      </c>
+      <c r="AS36" s="1">
+        <v>20</v>
+      </c>
+      <c r="AT36">
         <v>19</v>
       </c>
-      <c r="AL36" s="1">
-        <v>31</v>
-      </c>
     </row>
-    <row r="37" spans="1:38">
+    <row r="37" spans="1:46">
       <c r="A37">
         <v>35</v>
       </c>
@@ -12572,35 +16034,56 @@
       <c r="AA37">
         <v>15</v>
       </c>
-      <c r="AC37" s="1">
+      <c r="AB37" s="1">
+        <v>32</v>
+      </c>
+      <c r="AD37">
+        <v>19</v>
+      </c>
+      <c r="AG37" s="1">
         <v>55</v>
       </c>
-      <c r="AD37" s="1">
+      <c r="AH37" s="1">
         <v>38</v>
       </c>
-      <c r="AE37" s="1">
+      <c r="AI37" s="1">
         <v>31</v>
       </c>
-      <c r="AF37" s="1">
+      <c r="AJ37" s="2">
+        <v>28</v>
+      </c>
+      <c r="AK37" s="1">
         <v>25</v>
       </c>
-      <c r="AG37" s="1">
+      <c r="AL37" s="1">
+        <v>26</v>
+      </c>
+      <c r="AM37" s="1">
+        <v>24</v>
+      </c>
+      <c r="AN37" s="2">
+        <v>23</v>
+      </c>
+      <c r="AO37" s="1">
         <v>22</v>
       </c>
-      <c r="AH37" s="1">
-        <v>21</v>
-      </c>
-      <c r="AI37" s="1">
-        <v>20</v>
-      </c>
-      <c r="AJ37">
+      <c r="AP37" s="2">
+        <v>22</v>
+      </c>
+      <c r="AQ37" s="1">
+        <v>21</v>
+      </c>
+      <c r="AR37" s="2">
+        <v>20</v>
+      </c>
+      <c r="AS37" s="1">
+        <v>20</v>
+      </c>
+      <c r="AT37">
         <v>19</v>
       </c>
-      <c r="AL37" s="1">
-        <v>32</v>
-      </c>
     </row>
-    <row r="38" spans="1:38">
+    <row r="38" spans="1:46">
       <c r="A38">
         <v>36</v>
       </c>
@@ -12661,35 +16144,56 @@
       <c r="AA38">
         <v>17</v>
       </c>
-      <c r="AC38" s="1">
+      <c r="AB38" s="1">
+        <v>34</v>
+      </c>
+      <c r="AD38">
+        <v>20</v>
+      </c>
+      <c r="AG38" s="1">
         <v>56</v>
       </c>
-      <c r="AD38" s="1">
+      <c r="AH38" s="1">
         <v>40</v>
       </c>
-      <c r="AE38" s="1">
+      <c r="AI38" s="1">
         <v>33</v>
       </c>
-      <c r="AF38" s="1">
+      <c r="AJ38" s="2">
+        <v>29</v>
+      </c>
+      <c r="AK38" s="1">
         <v>27</v>
       </c>
-      <c r="AG38" s="1">
+      <c r="AL38" s="1">
+        <v>24</v>
+      </c>
+      <c r="AM38" s="1">
+        <v>24</v>
+      </c>
+      <c r="AN38" s="2">
+        <v>24</v>
+      </c>
+      <c r="AO38" s="1">
         <v>22</v>
       </c>
-      <c r="AH38" s="1">
-        <v>21</v>
-      </c>
-      <c r="AI38" s="1">
-        <v>21</v>
-      </c>
-      <c r="AJ38">
-        <v>20</v>
-      </c>
-      <c r="AL38" s="1">
-        <v>34</v>
+      <c r="AP38" s="2">
+        <v>21</v>
+      </c>
+      <c r="AQ38" s="1">
+        <v>21</v>
+      </c>
+      <c r="AR38" s="2">
+        <v>20</v>
+      </c>
+      <c r="AS38" s="1">
+        <v>21</v>
+      </c>
+      <c r="AT38">
+        <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:38">
+    <row r="39" spans="1:46">
       <c r="A39">
         <v>37</v>
       </c>
@@ -12750,35 +16254,56 @@
       <c r="AA39">
         <v>16</v>
       </c>
-      <c r="AC39" s="1">
+      <c r="AB39" s="1">
+        <v>31</v>
+      </c>
+      <c r="AD39">
+        <v>19</v>
+      </c>
+      <c r="AG39" s="1">
         <v>59</v>
       </c>
-      <c r="AD39" s="1">
+      <c r="AH39" s="1">
         <v>37</v>
       </c>
-      <c r="AE39" s="1">
+      <c r="AI39" s="1">
         <v>30</v>
       </c>
-      <c r="AF39" s="1">
+      <c r="AJ39" s="2">
+        <v>29</v>
+      </c>
+      <c r="AK39" s="1">
         <v>25</v>
       </c>
-      <c r="AG39" s="1">
+      <c r="AL39" s="1">
+        <v>25</v>
+      </c>
+      <c r="AM39" s="1">
+        <v>23</v>
+      </c>
+      <c r="AN39" s="2">
+        <v>23</v>
+      </c>
+      <c r="AO39" s="1">
         <v>22</v>
       </c>
-      <c r="AH39" s="1">
-        <v>21</v>
-      </c>
-      <c r="AI39" s="1">
-        <v>20</v>
-      </c>
-      <c r="AJ39">
+      <c r="AP39" s="2">
+        <v>22</v>
+      </c>
+      <c r="AQ39" s="1">
+        <v>21</v>
+      </c>
+      <c r="AR39" s="2">
+        <v>21</v>
+      </c>
+      <c r="AS39" s="1">
+        <v>20</v>
+      </c>
+      <c r="AT39">
         <v>19</v>
       </c>
-      <c r="AL39" s="1">
-        <v>31</v>
-      </c>
     </row>
-    <row r="40" spans="1:38">
+    <row r="40" spans="1:46">
       <c r="A40">
         <v>38</v>
       </c>
@@ -12839,35 +16364,56 @@
       <c r="AA40">
         <v>16</v>
       </c>
-      <c r="AC40" s="1">
+      <c r="AB40" s="1">
+        <v>32</v>
+      </c>
+      <c r="AD40">
+        <v>19</v>
+      </c>
+      <c r="AG40" s="1">
         <v>58</v>
       </c>
-      <c r="AD40" s="1">
+      <c r="AH40" s="1">
         <v>39</v>
       </c>
-      <c r="AE40" s="1">
+      <c r="AI40" s="1">
         <v>31</v>
       </c>
-      <c r="AF40" s="1">
+      <c r="AJ40" s="2">
+        <v>30</v>
+      </c>
+      <c r="AK40" s="1">
         <v>24</v>
       </c>
-      <c r="AG40" s="1">
+      <c r="AL40" s="1">
+        <v>26</v>
+      </c>
+      <c r="AM40" s="1">
+        <v>24</v>
+      </c>
+      <c r="AN40" s="2">
+        <v>24</v>
+      </c>
+      <c r="AO40" s="1">
         <v>23</v>
       </c>
-      <c r="AH40" s="1">
-        <v>21</v>
-      </c>
-      <c r="AI40" s="1">
-        <v>20</v>
-      </c>
-      <c r="AJ40">
+      <c r="AP40" s="2">
+        <v>22</v>
+      </c>
+      <c r="AQ40" s="1">
+        <v>21</v>
+      </c>
+      <c r="AR40" s="2">
+        <v>20</v>
+      </c>
+      <c r="AS40" s="1">
+        <v>20</v>
+      </c>
+      <c r="AT40">
         <v>19</v>
       </c>
-      <c r="AL40" s="1">
-        <v>32</v>
-      </c>
     </row>
-    <row r="41" spans="1:38">
+    <row r="41" spans="1:46">
       <c r="A41">
         <v>39</v>
       </c>
@@ -12928,35 +16474,56 @@
       <c r="AA41">
         <v>16</v>
       </c>
-      <c r="AC41" s="1">
+      <c r="AB41" s="1">
+        <v>35</v>
+      </c>
+      <c r="AD41">
+        <v>20</v>
+      </c>
+      <c r="AG41" s="1">
         <v>59</v>
       </c>
-      <c r="AD41" s="1">
+      <c r="AH41" s="1">
         <v>35</v>
       </c>
-      <c r="AE41" s="1">
+      <c r="AI41" s="1">
         <v>34</v>
       </c>
-      <c r="AF41" s="1">
+      <c r="AJ41" s="2">
+        <v>29</v>
+      </c>
+      <c r="AK41" s="1">
         <v>25</v>
       </c>
-      <c r="AG41" s="1">
+      <c r="AL41" s="1">
+        <v>25</v>
+      </c>
+      <c r="AM41" s="1">
         <v>23</v>
       </c>
-      <c r="AH41" s="1">
-        <v>21</v>
-      </c>
-      <c r="AI41" s="1">
-        <v>20</v>
-      </c>
-      <c r="AJ41">
-        <v>20</v>
-      </c>
-      <c r="AL41" s="1">
-        <v>35</v>
+      <c r="AN41" s="2">
+        <v>25</v>
+      </c>
+      <c r="AO41" s="1">
+        <v>23</v>
+      </c>
+      <c r="AP41" s="2">
+        <v>22</v>
+      </c>
+      <c r="AQ41" s="1">
+        <v>21</v>
+      </c>
+      <c r="AR41" s="2">
+        <v>20</v>
+      </c>
+      <c r="AS41" s="1">
+        <v>20</v>
+      </c>
+      <c r="AT41">
+        <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:38">
+    <row r="42" spans="1:46">
       <c r="A42">
         <v>40</v>
       </c>
@@ -13017,35 +16584,56 @@
       <c r="AA42">
         <v>15</v>
       </c>
-      <c r="AC42" s="1">
+      <c r="AB42" s="1">
+        <v>31</v>
+      </c>
+      <c r="AD42">
+        <v>20</v>
+      </c>
+      <c r="AG42" s="1">
         <v>60</v>
       </c>
-      <c r="AD42" s="1">
+      <c r="AH42" s="1">
         <v>41</v>
       </c>
-      <c r="AE42" s="1">
+      <c r="AI42" s="1">
         <v>30</v>
       </c>
-      <c r="AF42" s="1">
+      <c r="AJ42" s="2">
+        <v>29</v>
+      </c>
+      <c r="AK42" s="1">
         <v>25</v>
       </c>
-      <c r="AG42" s="1">
+      <c r="AL42" s="1">
+        <v>24</v>
+      </c>
+      <c r="AM42" s="1">
+        <v>24</v>
+      </c>
+      <c r="AN42" s="2">
+        <v>24</v>
+      </c>
+      <c r="AO42" s="1">
         <v>22</v>
       </c>
-      <c r="AH42" s="1">
-        <v>21</v>
-      </c>
-      <c r="AI42" s="1">
-        <v>20</v>
-      </c>
-      <c r="AJ42">
-        <v>20</v>
-      </c>
-      <c r="AL42" s="1">
-        <v>31</v>
+      <c r="AP42" s="2">
+        <v>21</v>
+      </c>
+      <c r="AQ42" s="1">
+        <v>21</v>
+      </c>
+      <c r="AR42" s="2">
+        <v>20</v>
+      </c>
+      <c r="AS42" s="1">
+        <v>20</v>
+      </c>
+      <c r="AT42">
+        <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:38">
+    <row r="43" spans="1:46">
       <c r="A43">
         <v>41</v>
       </c>
@@ -13106,35 +16694,56 @@
       <c r="AA43">
         <v>16</v>
       </c>
-      <c r="AC43" s="1">
+      <c r="AB43" s="1">
+        <v>30</v>
+      </c>
+      <c r="AD43">
+        <v>19</v>
+      </c>
+      <c r="AG43" s="1">
         <v>63</v>
       </c>
-      <c r="AD43" s="1">
+      <c r="AH43" s="1">
         <v>34</v>
       </c>
-      <c r="AE43" s="1">
+      <c r="AI43" s="1">
         <v>29</v>
       </c>
-      <c r="AF43" s="1">
+      <c r="AJ43" s="2">
+        <v>28</v>
+      </c>
+      <c r="AK43" s="1">
         <v>25</v>
       </c>
-      <c r="AG43" s="1">
+      <c r="AL43" s="1">
+        <v>24</v>
+      </c>
+      <c r="AM43" s="1">
+        <v>24</v>
+      </c>
+      <c r="AN43" s="2">
+        <v>24</v>
+      </c>
+      <c r="AO43" s="1">
         <v>23</v>
       </c>
-      <c r="AH43" s="1">
-        <v>21</v>
-      </c>
-      <c r="AI43" s="1">
-        <v>21</v>
-      </c>
-      <c r="AJ43">
+      <c r="AP43" s="2">
+        <v>22</v>
+      </c>
+      <c r="AQ43" s="1">
+        <v>21</v>
+      </c>
+      <c r="AR43" s="2">
+        <v>20</v>
+      </c>
+      <c r="AS43" s="1">
+        <v>21</v>
+      </c>
+      <c r="AT43">
         <v>19</v>
       </c>
-      <c r="AL43" s="1">
-        <v>30</v>
-      </c>
     </row>
-    <row r="44" spans="1:38">
+    <row r="44" spans="1:46">
       <c r="A44">
         <v>42</v>
       </c>
@@ -13195,35 +16804,56 @@
       <c r="AA44">
         <v>16</v>
       </c>
-      <c r="AC44" s="1">
+      <c r="AB44" s="1">
+        <v>35</v>
+      </c>
+      <c r="AD44">
+        <v>20</v>
+      </c>
+      <c r="AG44" s="1">
         <v>63</v>
       </c>
-      <c r="AD44" s="1">
+      <c r="AH44" s="1">
         <v>42</v>
       </c>
-      <c r="AE44" s="1">
+      <c r="AI44" s="1">
         <v>34</v>
       </c>
-      <c r="AF44" s="1">
+      <c r="AJ44" s="2">
+        <v>30</v>
+      </c>
+      <c r="AK44" s="1">
         <v>28</v>
       </c>
-      <c r="AG44" s="1">
+      <c r="AL44" s="1">
+        <v>25</v>
+      </c>
+      <c r="AM44" s="1">
+        <v>25</v>
+      </c>
+      <c r="AN44" s="2">
+        <v>25</v>
+      </c>
+      <c r="AO44" s="1">
         <v>23</v>
       </c>
-      <c r="AH44" s="1">
-        <v>21</v>
-      </c>
-      <c r="AI44" s="1">
-        <v>20</v>
-      </c>
-      <c r="AJ44">
-        <v>20</v>
-      </c>
-      <c r="AL44" s="1">
-        <v>35</v>
+      <c r="AP44" s="2">
+        <v>22</v>
+      </c>
+      <c r="AQ44" s="1">
+        <v>21</v>
+      </c>
+      <c r="AR44" s="2">
+        <v>21</v>
+      </c>
+      <c r="AS44" s="1">
+        <v>20</v>
+      </c>
+      <c r="AT44">
+        <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:38">
+    <row r="45" spans="1:46">
       <c r="A45">
         <v>43</v>
       </c>
@@ -13284,35 +16914,56 @@
       <c r="AA45">
         <v>17</v>
       </c>
-      <c r="AC45" s="1">
+      <c r="AB45" s="1">
+        <v>32</v>
+      </c>
+      <c r="AD45">
+        <v>19</v>
+      </c>
+      <c r="AG45" s="1">
         <v>63</v>
       </c>
-      <c r="AD45" s="1">
+      <c r="AH45" s="1">
         <v>37</v>
       </c>
-      <c r="AE45" s="1">
+      <c r="AI45" s="1">
         <v>31</v>
       </c>
-      <c r="AF45" s="1">
+      <c r="AJ45" s="2">
+        <v>28</v>
+      </c>
+      <c r="AK45" s="1">
         <v>25</v>
       </c>
-      <c r="AG45" s="1">
+      <c r="AL45" s="1">
+        <v>25</v>
+      </c>
+      <c r="AM45" s="1">
+        <v>24</v>
+      </c>
+      <c r="AN45" s="2">
+        <v>24</v>
+      </c>
+      <c r="AO45" s="1">
         <v>23</v>
       </c>
-      <c r="AH45" s="1">
-        <v>21</v>
-      </c>
-      <c r="AI45" s="1">
-        <v>20</v>
-      </c>
-      <c r="AJ45">
+      <c r="AP45" s="2">
+        <v>21</v>
+      </c>
+      <c r="AQ45" s="1">
+        <v>21</v>
+      </c>
+      <c r="AR45" s="2">
+        <v>20</v>
+      </c>
+      <c r="AS45" s="1">
+        <v>20</v>
+      </c>
+      <c r="AT45">
         <v>19</v>
       </c>
-      <c r="AL45" s="1">
-        <v>32</v>
-      </c>
     </row>
-    <row r="46" spans="1:38">
+    <row r="46" spans="1:46">
       <c r="A46">
         <v>44</v>
       </c>
@@ -13373,35 +17024,56 @@
       <c r="AA46">
         <v>18</v>
       </c>
-      <c r="AC46" s="1">
+      <c r="AB46" s="1">
+        <v>32</v>
+      </c>
+      <c r="AD46">
+        <v>20</v>
+      </c>
+      <c r="AG46" s="1">
         <v>66</v>
       </c>
-      <c r="AD46" s="1">
+      <c r="AH46" s="1">
         <v>43</v>
       </c>
-      <c r="AE46" s="1">
+      <c r="AI46" s="1">
         <v>31</v>
       </c>
-      <c r="AF46" s="1">
+      <c r="AJ46" s="2">
+        <v>30</v>
+      </c>
+      <c r="AK46" s="1">
         <v>26</v>
       </c>
-      <c r="AG46" s="1">
+      <c r="AL46" s="1">
+        <v>24</v>
+      </c>
+      <c r="AM46" s="1">
+        <v>23</v>
+      </c>
+      <c r="AN46" s="2">
+        <v>24</v>
+      </c>
+      <c r="AO46" s="1">
         <v>26</v>
       </c>
-      <c r="AH46" s="1">
+      <c r="AP46" s="2">
+        <v>21</v>
+      </c>
+      <c r="AQ46" s="1">
         <v>23</v>
       </c>
-      <c r="AI46" s="1">
-        <v>20</v>
-      </c>
-      <c r="AJ46">
-        <v>20</v>
-      </c>
-      <c r="AL46" s="1">
-        <v>32</v>
+      <c r="AR46" s="2">
+        <v>20</v>
+      </c>
+      <c r="AS46" s="1">
+        <v>20</v>
+      </c>
+      <c r="AT46">
+        <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:38">
+    <row r="47" spans="1:46">
       <c r="A47">
         <v>45</v>
       </c>
@@ -13462,35 +17134,56 @@
       <c r="AA47">
         <v>16</v>
       </c>
-      <c r="AC47" s="1">
+      <c r="AB47" s="1">
+        <v>38</v>
+      </c>
+      <c r="AD47">
+        <v>19</v>
+      </c>
+      <c r="AG47" s="1">
         <v>67</v>
       </c>
-      <c r="AD47" s="1">
+      <c r="AH47" s="1">
         <v>35</v>
       </c>
-      <c r="AE47" s="1">
+      <c r="AI47" s="1">
         <v>37</v>
       </c>
-      <c r="AF47" s="1">
+      <c r="AJ47" s="2">
+        <v>27</v>
+      </c>
+      <c r="AK47" s="1">
         <v>26</v>
       </c>
-      <c r="AG47" s="1">
+      <c r="AL47" s="1">
+        <v>27</v>
+      </c>
+      <c r="AM47" s="1">
+        <v>24</v>
+      </c>
+      <c r="AN47" s="2">
+        <v>24</v>
+      </c>
+      <c r="AO47" s="1">
         <v>22</v>
       </c>
-      <c r="AH47" s="1">
+      <c r="AP47" s="2">
         <v>22</v>
       </c>
-      <c r="AI47" s="1">
-        <v>20</v>
-      </c>
-      <c r="AJ47">
+      <c r="AQ47" s="1">
+        <v>22</v>
+      </c>
+      <c r="AR47" s="2">
+        <v>20</v>
+      </c>
+      <c r="AS47" s="1">
+        <v>20</v>
+      </c>
+      <c r="AT47">
         <v>19</v>
       </c>
-      <c r="AL47" s="1">
-        <v>38</v>
-      </c>
     </row>
-    <row r="48" spans="1:38">
+    <row r="48" spans="1:46">
       <c r="A48">
         <v>46</v>
       </c>
@@ -13551,35 +17244,56 @@
       <c r="AA48">
         <v>15</v>
       </c>
-      <c r="AC48" s="1">
+      <c r="AB48" s="1">
+        <v>34</v>
+      </c>
+      <c r="AD48">
+        <v>19</v>
+      </c>
+      <c r="AG48" s="1">
         <v>67</v>
       </c>
-      <c r="AD48" s="1">
+      <c r="AH48" s="1">
         <v>45</v>
       </c>
-      <c r="AE48" s="1">
+      <c r="AI48" s="1">
         <v>33</v>
       </c>
-      <c r="AF48" s="1">
+      <c r="AJ48" s="2">
+        <v>31</v>
+      </c>
+      <c r="AK48" s="1">
         <v>25</v>
       </c>
-      <c r="AG48" s="1">
+      <c r="AL48" s="1">
+        <v>24</v>
+      </c>
+      <c r="AM48" s="1">
+        <v>24</v>
+      </c>
+      <c r="AN48" s="2">
+        <v>24</v>
+      </c>
+      <c r="AO48" s="1">
         <v>22</v>
       </c>
-      <c r="AH48" s="1">
-        <v>21</v>
-      </c>
-      <c r="AI48" s="1">
-        <v>20</v>
-      </c>
-      <c r="AJ48">
+      <c r="AP48" s="2">
+        <v>21</v>
+      </c>
+      <c r="AQ48" s="1">
+        <v>21</v>
+      </c>
+      <c r="AR48" s="2">
+        <v>20</v>
+      </c>
+      <c r="AS48" s="1">
+        <v>20</v>
+      </c>
+      <c r="AT48">
         <v>19</v>
       </c>
-      <c r="AL48" s="1">
-        <v>34</v>
-      </c>
     </row>
-    <row r="49" spans="1:38">
+    <row r="49" spans="1:46">
       <c r="A49">
         <v>47</v>
       </c>
@@ -13640,35 +17354,56 @@
       <c r="AA49">
         <v>15</v>
       </c>
-      <c r="AC49" s="1">
+      <c r="AB49" s="1">
+        <v>33</v>
+      </c>
+      <c r="AD49">
+        <v>20</v>
+      </c>
+      <c r="AG49" s="1">
         <v>68</v>
       </c>
-      <c r="AD49" s="1">
+      <c r="AH49" s="1">
         <v>36</v>
       </c>
-      <c r="AE49" s="1">
+      <c r="AI49" s="1">
         <v>32</v>
       </c>
-      <c r="AF49" s="1">
+      <c r="AJ49" s="2">
+        <v>28</v>
+      </c>
+      <c r="AK49" s="1">
         <v>25</v>
       </c>
-      <c r="AG49" s="1">
+      <c r="AL49" s="1">
+        <v>24</v>
+      </c>
+      <c r="AM49" s="1">
+        <v>24</v>
+      </c>
+      <c r="AN49" s="2">
+        <v>24</v>
+      </c>
+      <c r="AO49" s="1">
         <v>23</v>
       </c>
-      <c r="AH49" s="1">
-        <v>21</v>
-      </c>
-      <c r="AI49" s="1">
-        <v>20</v>
-      </c>
-      <c r="AJ49">
-        <v>20</v>
-      </c>
-      <c r="AL49" s="1">
-        <v>33</v>
+      <c r="AP49" s="2">
+        <v>22</v>
+      </c>
+      <c r="AQ49" s="1">
+        <v>21</v>
+      </c>
+      <c r="AR49" s="2">
+        <v>20</v>
+      </c>
+      <c r="AS49" s="1">
+        <v>20</v>
+      </c>
+      <c r="AT49">
+        <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:38">
+    <row r="50" spans="1:46">
       <c r="A50">
         <v>48</v>
       </c>
@@ -13729,35 +17464,56 @@
       <c r="AA50">
         <v>15</v>
       </c>
-      <c r="AC50" s="1">
+      <c r="AB50" s="1">
+        <v>38</v>
+      </c>
+      <c r="AD50">
+        <v>19</v>
+      </c>
+      <c r="AG50" s="1">
         <v>69</v>
       </c>
-      <c r="AD50" s="1">
+      <c r="AH50" s="1">
         <v>46</v>
       </c>
-      <c r="AE50" s="1">
+      <c r="AI50" s="1">
         <v>37</v>
       </c>
-      <c r="AF50" s="1">
+      <c r="AJ50" s="2">
         <v>29</v>
       </c>
-      <c r="AG50" s="1">
+      <c r="AK50" s="1">
+        <v>29</v>
+      </c>
+      <c r="AL50" s="1">
+        <v>25</v>
+      </c>
+      <c r="AM50" s="1">
+        <v>25</v>
+      </c>
+      <c r="AN50" s="2">
+        <v>26</v>
+      </c>
+      <c r="AO50" s="1">
         <v>23</v>
       </c>
-      <c r="AH50" s="1">
-        <v>21</v>
-      </c>
-      <c r="AI50" s="1">
-        <v>20</v>
-      </c>
-      <c r="AJ50">
+      <c r="AP50" s="2">
+        <v>22</v>
+      </c>
+      <c r="AQ50" s="1">
+        <v>21</v>
+      </c>
+      <c r="AR50" s="2">
+        <v>21</v>
+      </c>
+      <c r="AS50" s="1">
+        <v>20</v>
+      </c>
+      <c r="AT50">
         <v>19</v>
       </c>
-      <c r="AL50" s="1">
-        <v>38</v>
-      </c>
     </row>
-    <row r="51" spans="1:38">
+    <row r="51" spans="1:46">
       <c r="A51">
         <v>49</v>
       </c>
@@ -13818,35 +17574,56 @@
       <c r="AA51">
         <v>15</v>
       </c>
-      <c r="AC51" s="1">
+      <c r="AB51" s="1">
+        <v>30</v>
+      </c>
+      <c r="AD51">
+        <v>20</v>
+      </c>
+      <c r="AG51" s="1">
         <v>71</v>
       </c>
-      <c r="AD51" s="1">
+      <c r="AH51" s="1">
         <v>37</v>
       </c>
-      <c r="AE51" s="1">
+      <c r="AI51" s="1">
         <v>29</v>
       </c>
-      <c r="AF51" s="1">
+      <c r="AJ51" s="2">
+        <v>26</v>
+      </c>
+      <c r="AK51" s="1">
         <v>25</v>
       </c>
-      <c r="AG51" s="1">
+      <c r="AL51" s="1">
+        <v>25</v>
+      </c>
+      <c r="AM51" s="1">
         <v>23</v>
       </c>
-      <c r="AH51" s="1">
-        <v>21</v>
-      </c>
-      <c r="AI51" s="1">
-        <v>20</v>
-      </c>
-      <c r="AJ51">
-        <v>20</v>
-      </c>
-      <c r="AL51" s="1">
-        <v>30</v>
+      <c r="AN51" s="2">
+        <v>23</v>
+      </c>
+      <c r="AO51" s="1">
+        <v>23</v>
+      </c>
+      <c r="AP51" s="2">
+        <v>22</v>
+      </c>
+      <c r="AQ51" s="1">
+        <v>21</v>
+      </c>
+      <c r="AR51" s="2">
+        <v>21</v>
+      </c>
+      <c r="AS51" s="1">
+        <v>20</v>
+      </c>
+      <c r="AT51">
+        <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:38">
+    <row r="52" spans="1:46">
       <c r="A52">
         <v>50</v>
       </c>
@@ -13907,35 +17684,56 @@
       <c r="AA52">
         <v>15</v>
       </c>
-      <c r="AC52" s="1">
+      <c r="AB52" s="1">
+        <v>31</v>
+      </c>
+      <c r="AD52">
+        <v>20</v>
+      </c>
+      <c r="AG52" s="1">
         <v>70</v>
       </c>
-      <c r="AD52" s="1">
+      <c r="AH52" s="1">
         <v>46</v>
       </c>
-      <c r="AE52" s="1">
+      <c r="AI52" s="1">
         <v>30</v>
       </c>
-      <c r="AF52" s="1">
+      <c r="AJ52" s="2">
+        <v>33</v>
+      </c>
+      <c r="AK52" s="1">
         <v>25</v>
       </c>
-      <c r="AG52" s="1">
+      <c r="AL52" s="1">
+        <v>25</v>
+      </c>
+      <c r="AM52" s="1">
+        <v>27</v>
+      </c>
+      <c r="AN52" s="2">
+        <v>24</v>
+      </c>
+      <c r="AO52" s="1">
         <v>23</v>
       </c>
-      <c r="AH52" s="1">
-        <v>21</v>
-      </c>
-      <c r="AI52" s="1">
-        <v>20</v>
-      </c>
-      <c r="AJ52">
-        <v>20</v>
-      </c>
-      <c r="AL52" s="1">
-        <v>31</v>
+      <c r="AP52" s="2">
+        <v>24</v>
+      </c>
+      <c r="AQ52" s="1">
+        <v>21</v>
+      </c>
+      <c r="AR52" s="2">
+        <v>21</v>
+      </c>
+      <c r="AS52" s="1">
+        <v>20</v>
+      </c>
+      <c r="AT52">
+        <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:38">
+    <row r="53" spans="1:46">
       <c r="A53">
         <v>51</v>
       </c>
@@ -13996,35 +17794,56 @@
       <c r="AA53">
         <v>15</v>
       </c>
-      <c r="AC53" s="1">
+      <c r="AB53" s="1">
+        <v>39</v>
+      </c>
+      <c r="AD53">
+        <v>20</v>
+      </c>
+      <c r="AG53" s="1">
         <v>72</v>
       </c>
-      <c r="AD53" s="1">
+      <c r="AH53" s="1">
         <v>38</v>
       </c>
-      <c r="AE53" s="1">
+      <c r="AI53" s="1">
         <v>38</v>
       </c>
-      <c r="AF53" s="1">
+      <c r="AJ53" s="2">
+        <v>28</v>
+      </c>
+      <c r="AK53" s="1">
         <v>26</v>
       </c>
-      <c r="AG53" s="1">
+      <c r="AL53" s="1">
+        <v>24</v>
+      </c>
+      <c r="AM53" s="1">
+        <v>24</v>
+      </c>
+      <c r="AN53" s="2">
         <v>23</v>
       </c>
-      <c r="AH53" s="1">
-        <v>21</v>
-      </c>
-      <c r="AI53" s="1">
-        <v>20</v>
-      </c>
-      <c r="AJ53">
-        <v>20</v>
-      </c>
-      <c r="AL53" s="1">
-        <v>39</v>
+      <c r="AO53" s="1">
+        <v>23</v>
+      </c>
+      <c r="AP53" s="2">
+        <v>22</v>
+      </c>
+      <c r="AQ53" s="1">
+        <v>21</v>
+      </c>
+      <c r="AR53" s="2">
+        <v>20</v>
+      </c>
+      <c r="AS53" s="1">
+        <v>20</v>
+      </c>
+      <c r="AT53">
+        <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:38">
+    <row r="54" spans="1:46">
       <c r="A54">
         <v>52</v>
       </c>
@@ -14085,35 +17904,56 @@
       <c r="AA54">
         <v>15</v>
       </c>
-      <c r="AC54" s="1">
+      <c r="AB54" s="1">
+        <v>32</v>
+      </c>
+      <c r="AD54">
+        <v>20</v>
+      </c>
+      <c r="AG54" s="1">
         <v>72</v>
       </c>
-      <c r="AD54" s="1">
+      <c r="AH54" s="1">
         <v>47</v>
       </c>
-      <c r="AE54" s="1">
+      <c r="AI54" s="1">
         <v>31</v>
       </c>
-      <c r="AF54" s="1">
+      <c r="AJ54" s="2">
+        <v>30</v>
+      </c>
+      <c r="AK54" s="1">
         <v>25</v>
       </c>
-      <c r="AG54" s="1">
+      <c r="AL54" s="1">
+        <v>29</v>
+      </c>
+      <c r="AM54" s="1">
+        <v>24</v>
+      </c>
+      <c r="AN54" s="2">
+        <v>24</v>
+      </c>
+      <c r="AO54" s="1">
         <v>23</v>
       </c>
-      <c r="AH54" s="1">
-        <v>21</v>
-      </c>
-      <c r="AI54" s="1">
-        <v>20</v>
-      </c>
-      <c r="AJ54">
-        <v>20</v>
-      </c>
-      <c r="AL54" s="1">
-        <v>32</v>
+      <c r="AP54" s="2">
+        <v>22</v>
+      </c>
+      <c r="AQ54" s="1">
+        <v>21</v>
+      </c>
+      <c r="AR54" s="2">
+        <v>21</v>
+      </c>
+      <c r="AS54" s="1">
+        <v>20</v>
+      </c>
+      <c r="AT54">
+        <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:38">
+    <row r="55" spans="1:46">
       <c r="A55">
         <v>53</v>
       </c>
@@ -14174,35 +18014,56 @@
       <c r="AA55">
         <v>15</v>
       </c>
-      <c r="AC55" s="1">
+      <c r="AB55" s="1">
+        <v>32</v>
+      </c>
+      <c r="AD55">
+        <v>20</v>
+      </c>
+      <c r="AG55" s="1">
         <v>74</v>
       </c>
-      <c r="AD55" s="1">
+      <c r="AH55" s="1">
         <v>35</v>
       </c>
-      <c r="AE55" s="1">
+      <c r="AI55" s="1">
         <v>31</v>
       </c>
-      <c r="AF55" s="1">
+      <c r="AJ55" s="2">
+        <v>27</v>
+      </c>
+      <c r="AK55" s="1">
         <v>25</v>
       </c>
-      <c r="AG55" s="1">
+      <c r="AL55" s="1">
+        <v>24</v>
+      </c>
+      <c r="AM55" s="1">
         <v>23</v>
       </c>
-      <c r="AH55" s="1">
-        <v>21</v>
-      </c>
-      <c r="AI55" s="1">
-        <v>20</v>
-      </c>
-      <c r="AJ55">
-        <v>20</v>
-      </c>
-      <c r="AL55" s="1">
-        <v>32</v>
+      <c r="AN55" s="2">
+        <v>23</v>
+      </c>
+      <c r="AO55" s="1">
+        <v>23</v>
+      </c>
+      <c r="AP55" s="2">
+        <v>21</v>
+      </c>
+      <c r="AQ55" s="1">
+        <v>21</v>
+      </c>
+      <c r="AR55" s="2">
+        <v>20</v>
+      </c>
+      <c r="AS55" s="1">
+        <v>20</v>
+      </c>
+      <c r="AT55">
+        <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:38">
+    <row r="56" spans="1:46">
       <c r="A56">
         <v>54</v>
       </c>
@@ -14263,35 +18124,56 @@
       <c r="AA56">
         <v>15</v>
       </c>
-      <c r="AC56" s="1">
+      <c r="AB56" s="1">
+        <v>41</v>
+      </c>
+      <c r="AD56">
+        <v>20</v>
+      </c>
+      <c r="AG56" s="1">
         <v>76</v>
       </c>
-      <c r="AD56" s="1">
+      <c r="AH56" s="1">
         <v>48</v>
       </c>
-      <c r="AE56" s="1">
+      <c r="AI56" s="1">
         <v>40</v>
       </c>
-      <c r="AF56" s="1">
+      <c r="AJ56" s="2">
+        <v>34</v>
+      </c>
+      <c r="AK56" s="1">
         <v>31</v>
       </c>
-      <c r="AG56" s="1">
+      <c r="AL56" s="1">
+        <v>24</v>
+      </c>
+      <c r="AM56" s="1">
+        <v>24</v>
+      </c>
+      <c r="AN56" s="2">
+        <v>25</v>
+      </c>
+      <c r="AO56" s="1">
         <v>23</v>
       </c>
-      <c r="AH56" s="1">
-        <v>21</v>
-      </c>
-      <c r="AI56" s="1">
-        <v>20</v>
-      </c>
-      <c r="AJ56">
-        <v>20</v>
-      </c>
-      <c r="AL56" s="1">
-        <v>41</v>
+      <c r="AP56" s="2">
+        <v>22</v>
+      </c>
+      <c r="AQ56" s="1">
+        <v>21</v>
+      </c>
+      <c r="AR56" s="2">
+        <v>20</v>
+      </c>
+      <c r="AS56" s="1">
+        <v>20</v>
+      </c>
+      <c r="AT56">
+        <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:38">
+    <row r="57" spans="1:46">
       <c r="A57">
         <v>55</v>
       </c>
@@ -14352,35 +18234,56 @@
       <c r="AA57">
         <v>16</v>
       </c>
-      <c r="AC57" s="1">
+      <c r="AB57" s="1">
+        <v>34</v>
+      </c>
+      <c r="AD57">
+        <v>19</v>
+      </c>
+      <c r="AG57" s="1">
         <v>78</v>
       </c>
-      <c r="AD57" s="1">
+      <c r="AH57" s="1">
         <v>33</v>
       </c>
-      <c r="AE57" s="1">
+      <c r="AI57" s="1">
         <v>33</v>
       </c>
-      <c r="AF57" s="1">
+      <c r="AJ57" s="2">
+        <v>30</v>
+      </c>
+      <c r="AK57" s="1">
         <v>25</v>
       </c>
-      <c r="AG57" s="1">
+      <c r="AL57" s="1">
+        <v>23</v>
+      </c>
+      <c r="AM57" s="1">
+        <v>24</v>
+      </c>
+      <c r="AN57" s="2">
+        <v>23</v>
+      </c>
+      <c r="AO57" s="1">
         <v>26</v>
       </c>
-      <c r="AH57" s="1">
-        <v>21</v>
-      </c>
-      <c r="AI57" s="1">
-        <v>20</v>
-      </c>
-      <c r="AJ57">
+      <c r="AP57" s="2">
+        <v>21</v>
+      </c>
+      <c r="AQ57" s="1">
+        <v>21</v>
+      </c>
+      <c r="AR57" s="2">
+        <v>20</v>
+      </c>
+      <c r="AS57" s="1">
+        <v>20</v>
+      </c>
+      <c r="AT57">
         <v>19</v>
       </c>
-      <c r="AL57" s="1">
-        <v>34</v>
-      </c>
     </row>
-    <row r="58" spans="1:38">
+    <row r="58" spans="1:46">
       <c r="A58">
         <v>56</v>
       </c>
@@ -14441,35 +18344,56 @@
       <c r="AA58">
         <v>17</v>
       </c>
-      <c r="AC58" s="1">
+      <c r="AB58" s="1">
+        <v>30</v>
+      </c>
+      <c r="AD58">
+        <v>20</v>
+      </c>
+      <c r="AG58" s="1">
         <v>76</v>
       </c>
-      <c r="AD58" s="1">
+      <c r="AH58" s="1">
         <v>49</v>
       </c>
-      <c r="AE58" s="1">
+      <c r="AI58" s="1">
         <v>29</v>
       </c>
-      <c r="AF58" s="1">
+      <c r="AJ58" s="2">
+        <v>29</v>
+      </c>
+      <c r="AK58" s="1">
         <v>25</v>
       </c>
-      <c r="AG58" s="1">
+      <c r="AL58" s="1">
+        <v>26</v>
+      </c>
+      <c r="AM58" s="1">
+        <v>24</v>
+      </c>
+      <c r="AN58" s="2">
         <v>23</v>
       </c>
-      <c r="AH58" s="1">
-        <v>21</v>
-      </c>
-      <c r="AI58" s="1">
-        <v>20</v>
-      </c>
-      <c r="AJ58">
-        <v>20</v>
-      </c>
-      <c r="AL58" s="1">
-        <v>30</v>
+      <c r="AO58" s="1">
+        <v>23</v>
+      </c>
+      <c r="AP58" s="2">
+        <v>21</v>
+      </c>
+      <c r="AQ58" s="1">
+        <v>21</v>
+      </c>
+      <c r="AR58" s="2">
+        <v>20</v>
+      </c>
+      <c r="AS58" s="1">
+        <v>20</v>
+      </c>
+      <c r="AT58">
+        <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:38">
+    <row r="59" spans="1:46">
       <c r="A59">
         <v>57</v>
       </c>
@@ -14530,35 +18454,56 @@
       <c r="AA59">
         <v>15</v>
       </c>
-      <c r="AC59" s="1">
+      <c r="AB59" s="1">
+        <v>41</v>
+      </c>
+      <c r="AD59">
+        <v>20</v>
+      </c>
+      <c r="AG59" s="1">
         <v>78</v>
       </c>
-      <c r="AD59" s="1">
+      <c r="AH59" s="1">
         <v>37</v>
       </c>
-      <c r="AE59" s="1">
+      <c r="AI59" s="1">
         <v>40</v>
       </c>
-      <c r="AF59" s="1">
+      <c r="AJ59" s="2">
+        <v>29</v>
+      </c>
+      <c r="AK59" s="1">
         <v>25</v>
       </c>
-      <c r="AG59" s="1">
+      <c r="AL59" s="1">
+        <v>24</v>
+      </c>
+      <c r="AM59" s="1">
+        <v>25</v>
+      </c>
+      <c r="AN59" s="2">
+        <v>27</v>
+      </c>
+      <c r="AO59" s="1">
         <v>23</v>
       </c>
-      <c r="AH59" s="1">
-        <v>21</v>
-      </c>
-      <c r="AI59" s="1">
-        <v>20</v>
-      </c>
-      <c r="AJ59">
-        <v>20</v>
-      </c>
-      <c r="AL59" s="1">
-        <v>41</v>
+      <c r="AP59" s="2">
+        <v>21</v>
+      </c>
+      <c r="AQ59" s="1">
+        <v>21</v>
+      </c>
+      <c r="AR59" s="2">
+        <v>20</v>
+      </c>
+      <c r="AS59" s="1">
+        <v>20</v>
+      </c>
+      <c r="AT59">
+        <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:38">
+    <row r="60" spans="1:46">
       <c r="A60">
         <v>58</v>
       </c>
@@ -14619,35 +18564,56 @@
       <c r="AA60">
         <v>15</v>
       </c>
-      <c r="AC60" s="1">
+      <c r="AB60" s="1">
+        <v>32</v>
+      </c>
+      <c r="AD60">
+        <v>19</v>
+      </c>
+      <c r="AG60" s="1">
         <v>79</v>
       </c>
-      <c r="AD60" s="1">
+      <c r="AH60" s="1">
         <v>50</v>
       </c>
-      <c r="AE60" s="1">
+      <c r="AI60" s="1">
         <v>31</v>
       </c>
-      <c r="AF60" s="1">
+      <c r="AJ60" s="2">
+        <v>35</v>
+      </c>
+      <c r="AK60" s="1">
         <v>25</v>
       </c>
-      <c r="AG60" s="1">
+      <c r="AL60" s="1">
+        <v>25</v>
+      </c>
+      <c r="AM60" s="1">
+        <v>28</v>
+      </c>
+      <c r="AN60" s="2">
+        <v>24</v>
+      </c>
+      <c r="AO60" s="1">
         <v>23</v>
       </c>
-      <c r="AH60" s="1">
-        <v>21</v>
-      </c>
-      <c r="AI60" s="1">
-        <v>21</v>
-      </c>
-      <c r="AJ60">
+      <c r="AP60" s="2">
+        <v>22</v>
+      </c>
+      <c r="AQ60" s="1">
+        <v>21</v>
+      </c>
+      <c r="AR60" s="2">
+        <v>20</v>
+      </c>
+      <c r="AS60" s="1">
+        <v>21</v>
+      </c>
+      <c r="AT60">
         <v>19</v>
       </c>
-      <c r="AL60" s="1">
-        <v>32</v>
-      </c>
     </row>
-    <row r="61" spans="1:38">
+    <row r="61" spans="1:46">
       <c r="A61">
         <v>59</v>
       </c>
@@ -14708,35 +18674,56 @@
       <c r="AA61">
         <v>15</v>
       </c>
-      <c r="AC61" s="1">
+      <c r="AB61" s="1">
+        <v>31</v>
+      </c>
+      <c r="AD61">
+        <v>19</v>
+      </c>
+      <c r="AG61" s="1">
         <v>78</v>
       </c>
-      <c r="AD61" s="1">
+      <c r="AH61" s="1">
         <v>37</v>
       </c>
-      <c r="AE61" s="1">
+      <c r="AI61" s="1">
         <v>30</v>
       </c>
-      <c r="AF61" s="1">
+      <c r="AJ61" s="2">
+        <v>29</v>
+      </c>
+      <c r="AK61" s="1">
         <v>26</v>
       </c>
-      <c r="AG61" s="1">
+      <c r="AL61" s="1">
+        <v>29</v>
+      </c>
+      <c r="AM61" s="1">
+        <v>24</v>
+      </c>
+      <c r="AN61" s="2">
+        <v>23</v>
+      </c>
+      <c r="AO61" s="1">
         <v>22</v>
       </c>
-      <c r="AH61" s="1">
-        <v>21</v>
-      </c>
-      <c r="AI61" s="1">
-        <v>20</v>
-      </c>
-      <c r="AJ61">
+      <c r="AP61" s="2">
+        <v>22</v>
+      </c>
+      <c r="AQ61" s="1">
+        <v>21</v>
+      </c>
+      <c r="AR61" s="2">
+        <v>20</v>
+      </c>
+      <c r="AS61" s="1">
+        <v>20</v>
+      </c>
+      <c r="AT61">
         <v>19</v>
       </c>
-      <c r="AL61" s="1">
-        <v>31</v>
-      </c>
     </row>
-    <row r="62" spans="1:38">
+    <row r="62" spans="1:46">
       <c r="A62">
         <v>60</v>
       </c>
@@ -14797,35 +18784,56 @@
       <c r="AA62">
         <v>15</v>
       </c>
-      <c r="AC62" s="1">
+      <c r="AB62" s="1">
+        <v>42</v>
+      </c>
+      <c r="AD62">
+        <v>19</v>
+      </c>
+      <c r="AG62" s="1">
         <v>82</v>
       </c>
-      <c r="AD62" s="1">
+      <c r="AH62" s="1">
         <v>52</v>
       </c>
-      <c r="AE62" s="1">
+      <c r="AI62" s="1">
         <v>41</v>
       </c>
-      <c r="AF62" s="1">
+      <c r="AJ62" s="2">
+        <v>28</v>
+      </c>
+      <c r="AK62" s="1">
         <v>31</v>
       </c>
-      <c r="AG62" s="1">
+      <c r="AL62" s="1">
+        <v>25</v>
+      </c>
+      <c r="AM62" s="1">
+        <v>24</v>
+      </c>
+      <c r="AN62" s="2">
         <v>23</v>
       </c>
-      <c r="AH62" s="1">
-        <v>21</v>
-      </c>
-      <c r="AI62" s="1">
-        <v>20</v>
-      </c>
-      <c r="AJ62">
+      <c r="AO62" s="1">
+        <v>23</v>
+      </c>
+      <c r="AP62" s="2">
+        <v>22</v>
+      </c>
+      <c r="AQ62" s="1">
+        <v>21</v>
+      </c>
+      <c r="AR62" s="2">
+        <v>20</v>
+      </c>
+      <c r="AS62" s="1">
+        <v>20</v>
+      </c>
+      <c r="AT62">
         <v>19</v>
       </c>
-      <c r="AL62" s="1">
-        <v>42</v>
-      </c>
     </row>
-    <row r="63" spans="1:38">
+    <row r="63" spans="1:46">
       <c r="A63">
         <v>61</v>
       </c>
@@ -14886,35 +18894,56 @@
       <c r="AA63">
         <v>16</v>
       </c>
-      <c r="AC63" s="1">
+      <c r="AB63" s="1">
+        <v>31</v>
+      </c>
+      <c r="AD63">
+        <v>19</v>
+      </c>
+      <c r="AG63" s="1">
         <v>82</v>
       </c>
-      <c r="AD63" s="1">
+      <c r="AH63" s="1">
         <v>36</v>
       </c>
-      <c r="AE63" s="1">
+      <c r="AI63" s="1">
         <v>30</v>
       </c>
-      <c r="AF63" s="1">
+      <c r="AJ63" s="2">
+        <v>29</v>
+      </c>
+      <c r="AK63" s="1">
         <v>25</v>
       </c>
-      <c r="AG63" s="1">
+      <c r="AL63" s="1">
+        <v>24</v>
+      </c>
+      <c r="AM63" s="1">
+        <v>24</v>
+      </c>
+      <c r="AN63" s="2">
         <v>23</v>
       </c>
-      <c r="AH63" s="1">
-        <v>21</v>
-      </c>
-      <c r="AI63" s="1">
-        <v>20</v>
-      </c>
-      <c r="AJ63">
+      <c r="AO63" s="1">
+        <v>23</v>
+      </c>
+      <c r="AP63" s="2">
+        <v>22</v>
+      </c>
+      <c r="AQ63" s="1">
+        <v>21</v>
+      </c>
+      <c r="AR63" s="2">
+        <v>20</v>
+      </c>
+      <c r="AS63" s="1">
+        <v>20</v>
+      </c>
+      <c r="AT63">
         <v>19</v>
       </c>
-      <c r="AL63" s="1">
-        <v>31</v>
-      </c>
     </row>
-    <row r="64" spans="1:38">
+    <row r="64" spans="1:46">
       <c r="A64">
         <v>62</v>
       </c>
@@ -14975,35 +19004,56 @@
       <c r="AA64">
         <v>17</v>
       </c>
-      <c r="AC64" s="1">
+      <c r="AB64" s="1">
+        <v>31</v>
+      </c>
+      <c r="AD64">
+        <v>20</v>
+      </c>
+      <c r="AG64" s="1">
         <v>86</v>
       </c>
-      <c r="AD64" s="1">
+      <c r="AH64" s="1">
         <v>53</v>
       </c>
-      <c r="AE64" s="1">
+      <c r="AI64" s="1">
         <v>30</v>
       </c>
-      <c r="AF64" s="1">
+      <c r="AJ64" s="2">
+        <v>35</v>
+      </c>
+      <c r="AK64" s="1">
         <v>25</v>
       </c>
-      <c r="AG64" s="1">
+      <c r="AL64" s="1">
+        <v>25</v>
+      </c>
+      <c r="AM64" s="1">
+        <v>24</v>
+      </c>
+      <c r="AN64" s="2">
+        <v>24</v>
+      </c>
+      <c r="AO64" s="1">
         <v>23</v>
       </c>
-      <c r="AH64" s="1">
-        <v>21</v>
-      </c>
-      <c r="AI64" s="1">
-        <v>20</v>
-      </c>
-      <c r="AJ64">
-        <v>20</v>
-      </c>
-      <c r="AL64" s="1">
-        <v>31</v>
+      <c r="AP64" s="2">
+        <v>22</v>
+      </c>
+      <c r="AQ64" s="1">
+        <v>21</v>
+      </c>
+      <c r="AR64" s="2">
+        <v>21</v>
+      </c>
+      <c r="AS64" s="1">
+        <v>20</v>
+      </c>
+      <c r="AT64">
+        <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:38">
+    <row r="65" spans="1:46">
       <c r="A65">
         <v>63</v>
       </c>
@@ -15064,35 +19114,56 @@
       <c r="AA65">
         <v>17</v>
       </c>
-      <c r="AC65" s="1">
+      <c r="AB65" s="1">
+        <v>43</v>
+      </c>
+      <c r="AD65">
+        <v>19</v>
+      </c>
+      <c r="AG65" s="1">
         <v>87</v>
       </c>
-      <c r="AD65" s="1">
+      <c r="AH65" s="1">
         <v>36</v>
       </c>
-      <c r="AE65" s="1">
+      <c r="AI65" s="1">
         <v>42</v>
       </c>
-      <c r="AF65" s="1">
+      <c r="AJ65" s="2">
+        <v>27</v>
+      </c>
+      <c r="AK65" s="1">
         <v>26</v>
       </c>
-      <c r="AG65" s="1">
+      <c r="AL65" s="1">
+        <v>25</v>
+      </c>
+      <c r="AM65" s="1">
+        <v>25</v>
+      </c>
+      <c r="AN65" s="2">
         <v>23</v>
       </c>
-      <c r="AH65" s="1">
-        <v>21</v>
-      </c>
-      <c r="AI65" s="1">
-        <v>20</v>
-      </c>
-      <c r="AJ65">
+      <c r="AO65" s="1">
+        <v>23</v>
+      </c>
+      <c r="AP65" s="2">
+        <v>22</v>
+      </c>
+      <c r="AQ65" s="1">
+        <v>21</v>
+      </c>
+      <c r="AR65" s="2">
+        <v>20</v>
+      </c>
+      <c r="AS65" s="1">
+        <v>20</v>
+      </c>
+      <c r="AT65">
         <v>19</v>
       </c>
-      <c r="AL65" s="1">
-        <v>43</v>
-      </c>
     </row>
-    <row r="66" spans="1:38">
+    <row r="66" spans="1:46">
       <c r="A66">
         <v>64</v>
       </c>
@@ -15153,35 +19224,56 @@
       <c r="AA66">
         <v>18</v>
       </c>
-      <c r="AC66" s="1">
+      <c r="AB66" s="1">
+        <v>32</v>
+      </c>
+      <c r="AD66">
+        <v>19</v>
+      </c>
+      <c r="AG66" s="1">
         <v>86</v>
       </c>
-      <c r="AD66" s="1">
+      <c r="AH66" s="1">
         <v>55</v>
       </c>
-      <c r="AE66" s="1">
+      <c r="AI66" s="1">
         <v>31</v>
       </c>
-      <c r="AF66" s="1">
+      <c r="AJ66" s="2">
+        <v>28</v>
+      </c>
+      <c r="AK66" s="1">
         <v>26</v>
       </c>
-      <c r="AG66" s="1">
+      <c r="AL66" s="1">
+        <v>25</v>
+      </c>
+      <c r="AM66" s="1">
+        <v>25</v>
+      </c>
+      <c r="AN66" s="2">
+        <v>23</v>
+      </c>
+      <c r="AO66" s="1">
         <v>22</v>
       </c>
-      <c r="AH66" s="1">
-        <v>21</v>
-      </c>
-      <c r="AI66" s="1">
-        <v>20</v>
-      </c>
-      <c r="AJ66">
+      <c r="AP66" s="2">
+        <v>22</v>
+      </c>
+      <c r="AQ66" s="1">
+        <v>21</v>
+      </c>
+      <c r="AR66" s="2">
+        <v>21</v>
+      </c>
+      <c r="AS66" s="1">
+        <v>20</v>
+      </c>
+      <c r="AT66">
         <v>19</v>
       </c>
-      <c r="AL66" s="1">
-        <v>32</v>
-      </c>
     </row>
-    <row r="67" spans="1:38">
+    <row r="67" spans="1:46">
       <c r="A67">
         <v>65</v>
       </c>
@@ -15242,37 +19334,58 @@
       <c r="AA67">
         <v>17</v>
       </c>
-      <c r="AC67" s="1">
+      <c r="AB67" s="1">
+        <v>30</v>
+      </c>
+      <c r="AD67">
+        <v>18</v>
+      </c>
+      <c r="AG67" s="1">
         <v>85</v>
       </c>
-      <c r="AD67" s="1">
+      <c r="AH67" s="1">
         <v>35</v>
       </c>
-      <c r="AE67" s="1">
+      <c r="AI67" s="1">
         <v>29</v>
       </c>
-      <c r="AF67" s="1">
+      <c r="AJ67" s="2">
+        <v>28</v>
+      </c>
+      <c r="AK67" s="1">
         <v>25</v>
       </c>
-      <c r="AG67" s="1">
-        <v>21</v>
-      </c>
-      <c r="AH67" s="1">
-        <v>20</v>
-      </c>
-      <c r="AI67" s="1">
+      <c r="AL67" s="1">
+        <v>24</v>
+      </c>
+      <c r="AM67" s="1">
+        <v>24</v>
+      </c>
+      <c r="AN67" s="2">
+        <v>22</v>
+      </c>
+      <c r="AO67" s="1">
+        <v>21</v>
+      </c>
+      <c r="AP67" s="2">
+        <v>21</v>
+      </c>
+      <c r="AQ67" s="1">
+        <v>20</v>
+      </c>
+      <c r="AR67" s="2">
         <v>19</v>
       </c>
-      <c r="AJ67">
+      <c r="AS67" s="1">
+        <v>19</v>
+      </c>
+      <c r="AT67">
         <v>18</v>
       </c>
-      <c r="AL67" s="1">
-        <v>30</v>
-      </c>
     </row>
-    <row r="69" spans="1:38">
+    <row r="69" spans="1:46">
       <c r="A69" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C69">
         <f>AVERAGE(C3:C67)</f>
@@ -15350,45 +19463,171 @@
         <f>AVERAGE(AA3:AA67)</f>
         <v>15.6307692307692</v>
       </c>
-      <c r="AC69">
-        <f t="shared" ref="AC69:AL69" si="2">AVERAGE(AC3:AC67)</f>
+      <c r="AB69">
+        <f>AVERAGE(AB3:AB67)</f>
+        <v>32</v>
+      </c>
+      <c r="AD69">
+        <f>AVERAGE(AD3:AD67)</f>
+        <v>19.4307692307692</v>
+      </c>
+      <c r="AG69">
+        <f>AVERAGE(AG3:AG67)</f>
         <v>53.9538461538462</v>
       </c>
-      <c r="AD69">
+      <c r="AH69">
+        <f>AVERAGE(AH3:AH67)</f>
+        <v>36.8153846153846</v>
+      </c>
+      <c r="AI69">
+        <f>AVERAGE(AI3:AI67)</f>
+        <v>31</v>
+      </c>
+      <c r="AJ69">
+        <f>AVERAGE(AJ3:AJ67)</f>
+        <v>28.4307692307692</v>
+      </c>
+      <c r="AK69">
+        <f>AVERAGE(AK3:AK67)</f>
+        <v>25.4769230769231</v>
+      </c>
+      <c r="AL69">
+        <f>AVERAGE(AL3:AL67)</f>
+        <v>24.6</v>
+      </c>
+      <c r="AM69">
+        <f>AVERAGE(AM3:AM67)</f>
+        <v>23.9692307692308</v>
+      </c>
+      <c r="AN69">
+        <f>AVERAGE(AN3:AN67)</f>
+        <v>23.6153846153846</v>
+      </c>
+      <c r="AO69">
+        <f>AVERAGE(AO3:AO67)</f>
+        <v>22.7230769230769</v>
+      </c>
+      <c r="AP69">
+        <f>AVERAGE(AP3:AP67)</f>
+        <v>21.6615384615385</v>
+      </c>
+      <c r="AQ69">
+        <f>AVERAGE(AQ3:AQ67)</f>
+        <v>20.9230769230769</v>
+      </c>
+      <c r="AR69">
+        <f>AVERAGE(AR3:AR67)</f>
+        <v>20.2461538461538</v>
+      </c>
+      <c r="AS69">
+        <f>AVERAGE(AS3:AS67)</f>
+        <v>20.1230769230769</v>
+      </c>
+      <c r="AT69">
+        <f>AVERAGE(AT3:AT67)</f>
+        <v>19.4307692307692</v>
+      </c>
+    </row>
+    <row r="70" spans="33:46">
+      <c r="AG70">
+        <v>832</v>
+      </c>
+      <c r="AH70">
+        <v>855</v>
+      </c>
+      <c r="AI70">
+        <v>908</v>
+      </c>
+      <c r="AJ70">
+        <v>845</v>
+      </c>
+      <c r="AK70">
+        <v>1027</v>
+      </c>
+      <c r="AL70">
+        <v>1085</v>
+      </c>
+      <c r="AM70">
+        <v>891</v>
+      </c>
+      <c r="AN70">
+        <v>1159</v>
+      </c>
+      <c r="AO70">
+        <v>1235</v>
+      </c>
+      <c r="AP70">
+        <v>988</v>
+      </c>
+      <c r="AQ70">
+        <v>1599</v>
+      </c>
+      <c r="AR70">
+        <v>1159</v>
+      </c>
+      <c r="AS70">
+        <v>2471</v>
+      </c>
+      <c r="AT70">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="71" spans="33:46">
+      <c r="AG71">
+        <f>AG70/AG69</f>
+        <v>15.4205873966353</v>
+      </c>
+      <c r="AH71">
+        <f t="shared" ref="AH71:AT71" si="2">AH70/AH69</f>
+        <v>23.223986627664</v>
+      </c>
+      <c r="AI71">
         <f t="shared" si="2"/>
-        <v>36.8153846153846</v>
-      </c>
-      <c r="AE69">
+        <v>29.2903225806452</v>
+      </c>
+      <c r="AJ71">
         <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
-      <c r="AF69">
+        <v>29.7213203463203</v>
+      </c>
+      <c r="AK71">
         <f t="shared" si="2"/>
-        <v>25.4769230769231</v>
-      </c>
-      <c r="AG69">
+        <v>40.3109903381643</v>
+      </c>
+      <c r="AL71">
         <f t="shared" si="2"/>
-        <v>22.7230769230769</v>
-      </c>
-      <c r="AH69">
+        <v>44.1056910569106</v>
+      </c>
+      <c r="AM71">
         <f t="shared" si="2"/>
-        <v>20.9230769230769</v>
-      </c>
-      <c r="AI69">
+        <v>37.1726572528883</v>
+      </c>
+      <c r="AN71">
         <f t="shared" si="2"/>
-        <v>20.1230769230769</v>
-      </c>
-      <c r="AJ69">
+        <v>49.0781758957655</v>
+      </c>
+      <c r="AO71">
         <f t="shared" si="2"/>
-        <v>19.4307692307692</v>
-      </c>
-      <c r="AK69" t="e">
+        <v>54.3500338524035</v>
+      </c>
+      <c r="AP71">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL69">
+        <v>45.6107954545455</v>
+      </c>
+      <c r="AQ71">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>76.4227941176471</v>
+      </c>
+      <c r="AR71">
+        <f t="shared" si="2"/>
+        <v>57.2454407294833</v>
+      </c>
+      <c r="AS71">
+        <f t="shared" si="2"/>
+        <v>122.794342507645</v>
+      </c>
+      <c r="AT71">
+        <f t="shared" si="2"/>
+        <v>78.0205859065717</v>
       </c>
     </row>
   </sheetData>
